--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D86FB-F646-44C7-BAD2-EC897E882CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C26532-BEE5-4FE4-9C35-201A106A9391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="876" yWindow="2676" windowWidth="19596" windowHeight="9636" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -46,39 +46,18 @@
     <t>転校初日っていうと私が大好きな乙女ゲームではイケメンと出会うのが基本だよね！</t>
   </si>
   <si>
-    <t>ひょっとしてこの学園での転校も沢山のイケメンと出会えるチャンスだったりして……？！</t>
-  </si>
-  <si>
     <t>「キャー！」</t>
   </si>
   <si>
     <t>中庭のほうから女子生徒たちの悲鳴が聞こえてきた。</t>
   </si>
   <si>
-    <t>「キャー！OG☆3よ！」</t>
-  </si>
-  <si>
-    <t>「あの……OG☆3ってなんのことですか？」</t>
-  </si>
-  <si>
-    <t>「あなた知らないの？！あの3人がOG☆3よ！！」</t>
-  </si>
-  <si>
-    <t>女の子の指す方をみるとそこには大勢の女子に囲まれた3人のイケメンが見えた。</t>
-  </si>
-  <si>
-    <t>「真ん中にいるのがスポーツ推薦で入ってきた1年生の本田琉絆空(るきあ)くん。他の2人とは幼馴染でよく一緒にいるみたい。」</t>
-  </si>
-  <si>
     <t>「その横にいる七三分けで頭のよさそうな人がいるでしょう？その人が生徒会長の目鏡(めがね)光くん。」</t>
   </si>
   <si>
     <t>「なんで僕らは日頃からこんなに囲まれてるんだ……。もうすぐ模試があるのに皆勉強しなくていいのか？」</t>
   </si>
   <si>
-    <t>「小柄でかわいい見た目の犬山桜児(おうじ)くんは2年生！名前通り演劇部でよく王子役をやってるんだって。」</t>
-  </si>
-  <si>
     <t>こ、ここは天国……？！転校初日から本当に乙女ゲームみたいなシチュエーションになっちゃった！</t>
   </si>
   <si>
@@ -103,9 +82,6 @@
     <t>「ヴェ？！」</t>
   </si>
   <si>
-    <t>「暇だから暖かな春の空気を満喫しておったらなんじゃその肩パンは！創立者に向かって肩パンて！」</t>
-  </si>
-  <si>
     <t>「いや肩パンしたつもりは……」</t>
   </si>
   <si>
@@ -121,27 +97,12 @@
     <t>「ｷﾞｸｯ」</t>
   </si>
   <si>
-    <t>「そんなお調子者にはわしの暇つぶしとしてOG☆3のイケメンたち3人とも</t>
-  </si>
-  <si>
-    <t>「な、なにそれ？！じゃあイケメン達とすごくドキドキライフ?する未来は消えたってこと？」</t>
-  </si>
-  <si>
-    <t>「その自信はどこからきとるんじゃ……まあいい。2月のバレンタインまでにおじさん化したOG☆3と愛を育み両思いになれ！</t>
-  </si>
-  <si>
     <t>そのときはまた、わしがおじさんに見える呪いを解いて見せよう！</t>
   </si>
   <si>
-    <t>わしの暇つぶしコンテンツとして1年頑張るがよいぞ！ふぉふぉふぉ！」</t>
-  </si>
-  <si>
     <t>最悪……きっとこれは悪い夢だ、そうに違いない</t>
   </si>
   <si>
-    <t>「おい大丈夫か？！」</t>
-  </si>
-  <si>
     <t>「息はある様だが……」</t>
   </si>
   <si>
@@ -151,39 +112,15 @@
     <t>「この子、まだ寝ぼけてるのかもね」</t>
   </si>
   <si>
-    <t>転校初日からとんでもない目にあっちゃった……。私、イケメン達とドキドキ?トキメキライフする予定だったのに、</t>
-  </si>
-  <si>
-    <t>あれから数週間たったけど、未だにおじさんになったOG☆3に慣れないよ......。</t>
-  </si>
-  <si>
-    <t>バレンタインまでに OG☆3の誰かと両思いかぁ。</t>
-  </si>
-  <si>
-    <t>それを達成しないと3人が一生おじさんに見える呪いにかけてやるって言われたときは冗談だと思ったけど</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ていうかそろそろ誰かと仲良くならないとまずいぞ!どうしよう......。 </t>
-  </si>
-  <si>
-    <t>「おい、大丈夫か?さっきからボーっとしているぞ。」</t>
-  </si>
-  <si>
     <t>「それは心配だな......。放課後勉強をみてやろう。」</t>
   </si>
   <si>
     <t>教室</t>
   </si>
   <si>
-    <t>「......じゃあここをこうして、こうすれば......!」</t>
-  </si>
-  <si>
     <t xml:space="preserve">「正解だ。今日はここまでにしようか。」 </t>
   </si>
   <si>
-    <t>「助かりました!ありがとうございます。」</t>
-  </si>
-  <si>
     <t>「ああ。困っている生徒を助けるのは生徒会長の務めだからな。」</t>
   </si>
   <si>
@@ -232,9 +169,6 @@
     <t>「光先輩！」</t>
   </si>
   <si>
-    <t>「な、なんだ？！」</t>
-  </si>
-  <si>
     <t>「かわいい〜！その帽子似合ってますよ。」</t>
   </si>
   <si>
@@ -257,9 +191,6 @@
   </si>
   <si>
     <t>今日は早く帰って教えてもらったところを復習しよう。</t>
-  </si>
-  <si>
-    <t>mainstory</t>
   </si>
   <si>
     <t>lengthcount</t>
@@ -354,91 +285,153 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「朝からキャーキャー言ってて本当女子って元気だよな～」</t>
-  </si>
-  <si>
-    <t>「銅像が喋った～～?!!」</t>
-  </si>
-  <si>
-    <t>個性的なおじさんに見えちゃう呪いにかけてやるもんねェ～！」</t>
-  </si>
-  <si>
-    <t>「起きて～！うーん、返事がないねぇ……」</t>
-  </si>
-  <si>
-    <t>「ぎゃーーーー！！！お・じ・さ・ん～！！！！」</t>
+    <t>目の前にあるのは女子高生御用達のファンシーショップだ。</t>
+  </si>
+  <si>
+    <t>mainstory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ちに待った転校初日！</t>
+  </si>
+  <si>
+    <t>ひょっとしてこの学園への転校も沢山のイケメンと出会えるチャンスだったりして……？！</t>
+  </si>
+  <si>
+    <t>「やっほ～！みんな元気～？」</t>
+  </si>
+  <si>
+    <t>個性的なおじさんに見えちゃう呪いにかけてやるもんねェ？！」</t>
+  </si>
+  <si>
+    <t>「な、なにそれ？！じゃあイケメン達とすごくドキドキライフ？する未来は消えたってこと？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      </t>
+  </si>
+  <si>
+    <t>「ぎゃーーーー！！！お・じ・さ・ん？！！！！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           </t>
+  </si>
+  <si>
+    <t>数週間たってもおじさんに見えてるから本当なんだろうな......。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ていうかそろそろ誰かと仲良くならないとまずいぞ！どうしよう......。 </t>
+  </si>
+  <si>
+    <t>「おい、大丈夫か？さっきからボーっとしているぞ。」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>「キャー！OG☆３よ！」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「あの……OG☆３ってなんのことですか？」</t>
+  </si>
+  <si>
+    <t>「あなた知らないの？！あの３人がOG☆３よ！！」</t>
+  </si>
+  <si>
+    <t>女の子の指す方をみるとそこには大勢の女子に囲まれた３人のイケメンが見えた。</t>
+  </si>
+  <si>
+    <t>この３人とお近づきになれたらいいな～。えへへ。えへへへへ。</t>
+  </si>
+  <si>
+    <t>「そんなお調子者にはわしの暇つぶしとしてOG☆３のイケメンたち３人とも</t>
+  </si>
+  <si>
+    <t>あれから数週間たったけど、未だにおじさんになったOG☆３に慣れないよ......。</t>
+  </si>
+  <si>
+    <t>バレンタインまでに OG☆３の誰かと両思いかぁ。</t>
+  </si>
+  <si>
+    <t>それを達成しないと３人が一生おじさんに見える呪いにかけてやるって言われたときは冗談だと思ったけど</t>
+  </si>
+  <si>
+    <t>「真ん中にいるのがスポーツ推薦で入ってきた１年生の本田琉絆空(るきあ)くん。他の２人とは幼馴染でよく一緒にいるみたい。」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「朝からキャーキャー言ってて本当女子って元気だよな～。」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「小柄でかわいい見た目の犬山桜児(おうじ)くんは２年生！名前通り演劇部でよく王子役をやってるんだって。」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「銅像が喋った？？？！！」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「暇だから暖かな春の空気を満喫しておったらなんじゃその肩パンは！創立者に向かって肩パンて！」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「その自信はどこからきとるんじゃ……まあいい。２月のバレンタインまでにおじさん化したOG☆３と愛を育み両思いになれ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わしの暇つぶしコンテンツとして１年頑張るがよいぞ！ふぉふぉふぉ！」</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>「はは、こいつおもしれ～！」</t>
-  </si>
-  <si>
-    <t>これからこのおじさん達とシワシワ?ドギマギライフをおくんなきゃいけないの～？</t>
-  </si>
-  <si>
-    <t>目の前にあるのは女子高生御用達のファンシーショップだ。</t>
-  </si>
-  <si>
-    <t>「やっほ～！みんな元気～？」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                                      </t>
+    <t>「な、なんだ？！」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                           </t>
+    <t>「助かりました！ありがとうございます。」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「心配してくれてありがとうございます、光先輩！...でも、授業中もぼんやりすることが多くて内容がなかなか頭に入らないんですよね。」</t>
+    <t>「......じゃあここをこうして、こうすれば......！」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数週間たってもおじさんに見えてるから本当なんだろうな......。</t>
+    <t>「心配してくれてありがとうございます、光先輩！ ……でも、授業中もぼんやりすることが多くて内容がなかなか頭に入らないんですよね。」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この3人とお近づきになれたらいいな～。えへへ。えへへへへ。</t>
+    <t>「あの日銅像にぶつかって以来、ボーっとしていることが増えたと言っていたが......本当に大丈夫か？」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>OG☆３の3人は4月のあの日からなにかと気をかけてくれていて、幸い接点は途切れていない。OG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>☆3は見た目だけじゃなくて中身も優しいん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>だな～。今は見た目おじさんだけど!!</t>
-    </r>
+    <t>OG☆３の３人は4月のあの日からなにかと気にかけてくれていて、幸い接点は途切れていない。OG☆３は見た目だけじゃなくて中身も優しいんだな～。今は見た目おじさんだけど！！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ハッ!ごめんなさい、考え事をしてて......。」</t>
+    <t>「ハッ！ごめんなさい、考え事をしてて......。」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「あの日銅像にぶつかって以来、ボーっとしていることが増えたと言っていたが......本当に大丈夫か?」</t>
+    <t>これからこのおじさん達とシワシワ？ドギマギライフをおくんなきゃいけないの？？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待ちに待った転校初日！</t>
+    <t>転校初日からとんでもない目にあっちゃった……。私、イケメン達とドキドキ？トキメキライフする予定だったのに、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「起きて？！うーん、返事がないねぇ……」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「おい大丈夫か？！」</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -446,7 +439,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[DBNum3][$-411]0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,14 +455,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -493,8 +481,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,7 +805,7 @@
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -822,6 +813,7 @@
     <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="28.59765625" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1"/>
     <col min="11" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.59765625" customWidth="1"/>
   </cols>
@@ -831,49 +823,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -908,8 +900,8 @@
         <f>LENB(I2)</f>
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>106</v>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J2">
         <f>IF(H2&gt;26, 1, 0)</f>
@@ -972,7 +964,7 @@
         <f t="shared" ref="H3:H66" si="7">LENB(I3)</f>
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J3">
@@ -1036,7 +1028,7 @@
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J4">
@@ -1074,7 +1066,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">ひょっとしてこの学園での転 </v>
+        <v xml:space="preserve">ひょっとしてこの学園への転 </v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="2"/>
@@ -1100,8 +1092,8 @@
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="I5" t="s">
-        <v>3</v>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J5">
         <f t="shared" si="8"/>
@@ -1164,8 +1156,8 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>4</v>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
@@ -1228,8 +1220,8 @@
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="I7" t="s">
-        <v>5</v>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
@@ -1266,7 +1258,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="10"/>
-        <v>「キャー！OG☆3よ！」</v>
+        <v>「キャー！OG☆３よ！」</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -1290,10 +1282,10 @@
       </c>
       <c r="H8">
         <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
@@ -1330,11 +1322,11 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="10"/>
-        <v>「あの……OG☆3ってなんのこ</v>
+        <v xml:space="preserve">「あの……OG☆３ってなんの </v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> とですか？」</v>
+        <v>ことですか？」</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -1354,10 +1346,10 @@
       </c>
       <c r="H9">
         <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
@@ -1365,7 +1357,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -1394,11 +1386,11 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="10"/>
-        <v>「あなた知らないの？！あの3</v>
+        <v xml:space="preserve">「あなた知らないの？！あの </v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="2"/>
-        <v>3人がOG☆3よ！！」</v>
+        <v>３人がOG☆３よ！！」</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -1418,10 +1410,10 @@
       </c>
       <c r="H10">
         <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
@@ -1429,7 +1421,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -1462,11 +1454,11 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">には大勢の女子に囲まれた3人 </v>
+        <v>には大勢の女子に囲まれた３人</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> イケメンが見えた。</v>
+        <v>のイケメンが見えた。</v>
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
@@ -1482,10 +1474,10 @@
       </c>
       <c r="H11">
         <f t="shared" si="7"/>
-        <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
@@ -1493,11 +1485,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
@@ -1526,19 +1518,19 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">推薦で入ってきた1年生の本田 </v>
+        <v>推薦で入ってきた１年生の本田</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> 絆空(るきあ)くん。他の2人と</v>
+        <v>琉絆空(るきあ)くん。他の２人</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> は幼馴染でよく一緒にいるみ </v>
+        <v xml:space="preserve"> とは幼馴染でよく一緒にいる </v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="5"/>
-        <v>たい。」</v>
+        <v>みたい。」</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
@@ -1546,10 +1538,10 @@
       </c>
       <c r="H12">
         <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
@@ -1557,19 +1549,19 @@
       </c>
       <c r="K12">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
@@ -1590,11 +1582,11 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="2"/>
-        <v>て本当女子って元気だよな～」</v>
-      </c>
-      <c r="D13">
+        <v>て本当女子って元気だよな～。</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>」</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
@@ -1610,10 +1602,10 @@
       </c>
       <c r="H13">
         <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="I13" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
@@ -1621,11 +1613,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
@@ -1676,8 +1668,8 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="I14" t="s">
-        <v>11</v>
+      <c r="I14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
@@ -1740,8 +1732,8 @@
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="I15" t="s">
-        <v>12</v>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
@@ -1782,15 +1774,15 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">山桜児(おうじ)くんは2年生！ </v>
+        <v>山桜児(おうじ)くんは２年生！</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> 前通り演劇部でよく王子役を </v>
+        <v>名前通り演劇部でよく王子役を</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="4"/>
-        <v>やってるんだって。」</v>
+        <v xml:space="preserve"> やってるんだって。」</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
@@ -1802,10 +1794,10 @@
       </c>
       <c r="H16">
         <f t="shared" si="7"/>
-        <v>101</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
@@ -1813,15 +1805,15 @@
       </c>
       <c r="K16">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -1868,8 +1860,8 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="I17" t="s">
-        <v>97</v>
+      <c r="I17" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
@@ -1932,8 +1924,8 @@
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
@@ -1970,15 +1962,15 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="10"/>
-        <v>この3人とお近づきになれたら</v>
+        <v xml:space="preserve">この３人とお近づきになれた </v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> いいな～。えへへ。えへへへ </v>
+        <v>らいいな～。えへへ。えへへへ</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> 。</v>
+        <v>へ。</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
@@ -1994,10 +1986,10 @@
       </c>
       <c r="H19">
         <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="I19" t="s">
-        <v>102</v>
+        <v>58</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
@@ -2005,11 +1997,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -2060,8 +2052,8 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
@@ -2124,8 +2116,8 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="I21" t="s">
-        <v>16</v>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
@@ -2188,8 +2180,8 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="I22" t="s">
-        <v>17</v>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
@@ -2252,8 +2244,8 @@
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="I23" t="s">
-        <v>18</v>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
@@ -2316,8 +2308,8 @@
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="I24" t="s">
-        <v>19</v>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
@@ -2380,8 +2372,8 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="I25" t="s">
-        <v>20</v>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
@@ -2444,8 +2436,8 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I26" t="s">
-        <v>21</v>
+      <c r="I26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
@@ -2482,7 +2474,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="10"/>
-        <v>「銅像が喋った～～?!!」</v>
+        <v>「銅像が喋った？？？！！」</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -2506,10 +2498,10 @@
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="I27" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
@@ -2572,8 +2564,8 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="I28" t="s">
-        <v>22</v>
+      <c r="I28" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
@@ -2636,8 +2628,8 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I29" t="s">
-        <v>23</v>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
@@ -2700,8 +2692,8 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="I30" t="s">
-        <v>24</v>
+      <c r="I30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
@@ -2764,8 +2756,8 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I31" t="s">
-        <v>25</v>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
@@ -2828,8 +2820,8 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="I32" t="s">
-        <v>26</v>
+      <c r="I32" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
@@ -2892,8 +2884,8 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I33" t="s">
-        <v>27</v>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J33">
         <f t="shared" si="8"/>
@@ -2934,11 +2926,11 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">暇つぶしとしてOG☆3のイケメ </v>
+        <v>暇つぶしとしてOG☆３のイケメ</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> たち3人とも</v>
+        <v>ンたち３人とも</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
@@ -2954,10 +2946,10 @@
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="I34" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
@@ -2965,11 +2957,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
@@ -2998,7 +2990,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="2"/>
-        <v>う呪いにかけてやるもんねェ～</v>
+        <v>う呪いにかけてやるもんねェ？</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="3"/>
@@ -3020,8 +3012,8 @@
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="I35" t="s">
-        <v>91</v>
+      <c r="I35" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
@@ -3066,11 +3058,11 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">フ?する未来は消えたってこと </v>
+        <v>フ？する未来は消えたってこと</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="4"/>
-        <v>？」</v>
+        <v xml:space="preserve"> ？」</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
@@ -3082,10 +3074,10 @@
       </c>
       <c r="H36">
         <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="I36" t="s">
-        <v>29</v>
+        <v>86</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
@@ -3093,15 +3085,15 @@
       </c>
       <c r="K36">
         <f t="shared" si="9"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -3126,19 +3118,19 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">んじゃ……まあいい。2月のバ </v>
+        <v>んじゃ……まあいい。２月のバ</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> ンタインまでにおじさん化し </v>
+        <v>レンタインまでにおじさん化し</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">たOG☆3と愛を育み両思いにな </v>
+        <v xml:space="preserve"> たOG☆３と愛を育み両思いに </v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="5"/>
-        <v>れ！</v>
+        <v>なれ！</v>
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
@@ -3146,10 +3138,10 @@
       </c>
       <c r="H37">
         <f t="shared" si="7"/>
-        <v>112</v>
-      </c>
-      <c r="I37" t="s">
-        <v>30</v>
+        <v>114</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J37">
         <f t="shared" si="8"/>
@@ -3157,19 +3149,19 @@
       </c>
       <c r="K37">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O37">
         <f t="shared" si="0"/>
@@ -3212,8 +3204,8 @@
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="I38" t="s">
-        <v>31</v>
+      <c r="I38" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J38">
         <f t="shared" si="8"/>
@@ -3254,11 +3246,11 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">して1年頑張るがよいぞ！ふぉ </v>
+        <v>して１年頑張るがよいぞ！ふぉ</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> ぉふぉ！」</v>
+        <v>ふぉふぉ！」</v>
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
@@ -3274,10 +3266,10 @@
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="I39" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="J39">
         <f t="shared" si="8"/>
@@ -3285,11 +3277,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
@@ -3340,8 +3332,8 @@
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="I40" t="s">
-        <v>33</v>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
@@ -3404,8 +3396,8 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I41" t="s">
-        <v>34</v>
+      <c r="I41" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J41">
         <f t="shared" si="8"/>
@@ -3468,8 +3460,8 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="I42" t="s">
-        <v>35</v>
+      <c r="I42" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J42">
         <f t="shared" si="8"/>
@@ -3506,7 +3498,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">「起きて～！うーん、返事が </v>
+        <v xml:space="preserve">「起きて？！うーん、返事が </v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="2"/>
@@ -3532,8 +3524,8 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="I43" t="s">
-        <v>92</v>
+      <c r="I43" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="J43">
         <f t="shared" si="8"/>
@@ -3596,8 +3588,8 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="I44" t="s">
-        <v>98</v>
+      <c r="I44" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J44">
         <f t="shared" si="8"/>
@@ -3638,7 +3630,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
-        <v>・さ・ん～！！！！」</v>
+        <v>・さ・ん？！！！！」</v>
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
@@ -3660,8 +3652,8 @@
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="I45" t="s">
-        <v>93</v>
+      <c r="I45" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="J45">
         <f t="shared" si="8"/>
@@ -3724,8 +3716,8 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="I46" t="s">
-        <v>36</v>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J46">
         <f t="shared" si="8"/>
@@ -3788,8 +3780,8 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="I47" t="s">
-        <v>37</v>
+      <c r="I47" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J47">
         <f t="shared" si="8"/>
@@ -3852,8 +3844,8 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="I48" t="s">
-        <v>94</v>
+      <c r="I48" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J48">
         <f t="shared" si="8"/>
@@ -3898,11 +3890,11 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">メン達とドキドキ?トキメキラ </v>
+        <v>メン達とドキドキ？トキメキラ</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="4"/>
-        <v>イフする予定だったのに、</v>
+        <v xml:space="preserve"> イフする予定だったのに、</v>
       </c>
       <c r="F49">
         <f t="shared" si="5"/>
@@ -3914,10 +3906,10 @@
       </c>
       <c r="H49">
         <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-      <c r="I49" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J49">
         <f t="shared" si="8"/>
@@ -3925,15 +3917,15 @@
       </c>
       <c r="K49">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <f t="shared" ref="N49:P49" si="15">IF(M49&gt;26,M49-28, 0)</f>
@@ -3958,11 +3950,11 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">ワシワ?ドギマギライフをおく </v>
+        <v>ワシワ？ドギマギライフをおく</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> なきゃいけないの～？</v>
+        <v>んなきゃいけないの？？</v>
       </c>
       <c r="E50">
         <f t="shared" si="4"/>
@@ -3978,10 +3970,10 @@
       </c>
       <c r="H50">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="I50" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J50">
         <f t="shared" si="8"/>
@@ -3989,11 +3981,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
@@ -4044,8 +4036,8 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="I51" t="s">
-        <v>99</v>
+      <c r="I51" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="J51">
         <f t="shared" si="8"/>
@@ -4086,11 +4078,11 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">未だにおじさんになったOG☆3 </v>
+        <v>未だにおじさんになったOG☆３</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> 慣れないよ......。</v>
+        <v>に慣れないよ......。</v>
       </c>
       <c r="E52">
         <f t="shared" si="4"/>
@@ -4106,10 +4098,10 @@
       </c>
       <c r="H52">
         <f t="shared" si="7"/>
-        <v>73</v>
-      </c>
-      <c r="I52" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J52">
         <f t="shared" si="8"/>
@@ -4117,11 +4109,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="9"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
@@ -4146,11 +4138,11 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">バレンタインまでに OG☆3の </v>
+        <v>バレンタインまでに OG☆３の</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
-        <v>誰かと両思いかぁ。</v>
+        <v xml:space="preserve"> 誰かと両思いかぁ。</v>
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
@@ -4170,10 +4162,10 @@
       </c>
       <c r="H53">
         <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="I53" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J53">
         <f t="shared" si="8"/>
@@ -4181,7 +4173,7 @@
       </c>
       <c r="K53">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
@@ -4210,19 +4202,19 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="10"/>
-        <v>それを達成しないと3人が一生</v>
+        <v xml:space="preserve">それを達成しないと３人が一 </v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> おじさんに見える呪いにかけ </v>
+        <v>生おじさんに見える呪いにかけ</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> やるって言われたときは冗談 </v>
+        <v>てやるって言われたときは冗談</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="4"/>
-        <v>だと思ったけど</v>
+        <v xml:space="preserve"> だと思ったけど</v>
       </c>
       <c r="F54">
         <f t="shared" si="5"/>
@@ -4234,10 +4226,10 @@
       </c>
       <c r="H54">
         <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="I54" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="J54">
         <f t="shared" si="8"/>
@@ -4245,15 +4237,15 @@
       </c>
       <c r="K54">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <f t="shared" ref="N54:P54" si="20">IF(M54&gt;26,M54-28, 0)</f>
@@ -4300,8 +4292,8 @@
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="I55" t="s">
-        <v>101</v>
+      <c r="I55" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="J55">
         <f t="shared" si="8"/>
@@ -4342,11 +4334,11 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">くならないとまずいぞ!どうし </v>
+        <v>くならないとまずいぞ！どうし</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> う......。 </v>
+        <v xml:space="preserve">よう......。 </v>
       </c>
       <c r="E56">
         <f t="shared" si="4"/>
@@ -4362,10 +4354,10 @@
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="I56" t="s">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J56">
         <f t="shared" si="8"/>
@@ -4373,11 +4365,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
@@ -4402,11 +4394,11 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="10"/>
-        <v>「おい、大丈夫か?さっきから</v>
+        <v xml:space="preserve">「おい、大丈夫か？さっきか </v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ボーっとしているぞ。」</v>
+        <v>らボーっとしているぞ。」</v>
       </c>
       <c r="D57">
         <f t="shared" si="3"/>
@@ -4426,10 +4418,10 @@
       </c>
       <c r="H57">
         <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="I57" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="J57">
         <f t="shared" si="8"/>
@@ -4437,7 +4429,7 @@
       </c>
       <c r="K57">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
@@ -4466,11 +4458,11 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="10"/>
-        <v>「ハッ!ごめんなさい、考え事</v>
+        <v xml:space="preserve">「ハッ！ごめんなさい、考え </v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> をしてて......。」</v>
+        <v>事をしてて......。」</v>
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
@@ -4490,9 +4482,9 @@
       </c>
       <c r="H58">
         <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="I58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J58">
@@ -4501,7 +4493,7 @@
       </c>
       <c r="K58">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
@@ -4524,39 +4516,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">OG☆３の3人は4月のあの日か </v>
+        <v>OG☆３の３人は4月のあの日か</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="2"/>
-        <v>らなにかと気をかけてくれてい</v>
+        <f>IF(K59&gt;0,MIDB(I59, 27, 28),0)</f>
+        <v xml:space="preserve"> らなにかと気にかけてくれて </v>
       </c>
       <c r="D59" t="str">
         <f>IF(L59&gt;0, MIDB(I59, 27+28, 28), 0)</f>
-        <v>て、幸い接点は途切れていない</v>
+        <v xml:space="preserve"> て、幸い接点は途切れていな </v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 。OG☆3は見た目だけじゃなく</v>
+        <v>い。OG☆３は見た目だけじゃな</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> て中身も優しいんだな～。今 </v>
+        <v xml:space="preserve"> くて中身も優しいんだな～。 </v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="6"/>
-        <v>は見た目おじさんだけど!!</v>
+        <v>今は見た目おじさんだけど！！</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
-        <v>159</v>
-      </c>
-      <c r="I59" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J59">
@@ -4565,23 +4557,23 @@
       </c>
       <c r="K59">
         <f t="shared" si="9"/>
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N59">
         <f t="shared" ref="N59:P59" si="25">IF(M59&gt;26,M59-28, 0)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O59">
         <f t="shared" si="25"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P59">
         <f t="shared" si="25"/>
@@ -4606,7 +4598,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> に大丈夫か?」</v>
+        <v xml:space="preserve"> に大丈夫か？」</v>
       </c>
       <c r="F60">
         <f t="shared" si="5"/>
@@ -4618,10 +4610,10 @@
       </c>
       <c r="H60">
         <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="I60" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="J60">
         <f t="shared" si="8"/>
@@ -4629,15 +4621,15 @@
       </c>
       <c r="K60">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <f t="shared" ref="N60:P60" si="26">IF(M60&gt;26,M60-28, 0)</f>
@@ -4662,19 +4654,19 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">ございます、光先輩！...でも </v>
+        <v xml:space="preserve">ございます、光先輩！ ……で </v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> 授業中もぼんやりすることが </v>
+        <v xml:space="preserve"> 、授業中もぼんやりすること </v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="4"/>
-        <v>多くて内容がなかなか頭に入ら</v>
+        <v>が多くて内容がなかなか頭に入</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> ないんですよね。」</v>
+        <v xml:space="preserve"> らないんですよね。」</v>
       </c>
       <c r="G61">
         <f t="shared" si="6"/>
@@ -4682,10 +4674,10 @@
       </c>
       <c r="H61">
         <f t="shared" si="7"/>
-        <v>127</v>
-      </c>
-      <c r="I61" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J61">
         <f t="shared" si="8"/>
@@ -4693,19 +4685,19 @@
       </c>
       <c r="K61">
         <f t="shared" si="9"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N61">
         <f t="shared" ref="N61:P61" si="27">IF(M61&gt;26,M61-28, 0)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O61">
         <f t="shared" si="27"/>
@@ -4748,8 +4740,8 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="I62" t="s">
-        <v>44</v>
+      <c r="I62" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J62">
         <f t="shared" si="8"/>
@@ -4812,8 +4804,8 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I63" t="s">
-        <v>45</v>
+      <c r="I63" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="J63">
         <f t="shared" si="8"/>
@@ -4854,7 +4846,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
-        <v>て、こうすれば......!」</v>
+        <v>て、こうすれば......！」</v>
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
@@ -4874,10 +4866,10 @@
       </c>
       <c r="H64">
         <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="I64" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="J64">
         <f t="shared" si="8"/>
@@ -4885,7 +4877,7 @@
       </c>
       <c r="K64">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
@@ -4940,8 +4932,8 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="I65" t="s">
-        <v>47</v>
+      <c r="I65" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J65">
         <f t="shared" si="8"/>
@@ -4978,11 +4970,11 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" si="10"/>
-        <v>「助かりました!ありがとうご</v>
+        <v xml:space="preserve">「助かりました！ありがとう </v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ざいます。」</v>
+        <v>ございます。」</v>
       </c>
       <c r="D66">
         <f t="shared" si="3"/>
@@ -5002,10 +4994,10 @@
       </c>
       <c r="H66">
         <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="I66" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J66">
         <f t="shared" si="8"/>
@@ -5013,7 +5005,7 @@
       </c>
       <c r="K66">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L66">
         <f t="shared" ref="L66:P76" si="32">IF(K66&gt;26,K66-28, 0)</f>
@@ -5068,8 +5060,8 @@
         <f t="shared" ref="H67:H95" si="38">LENB(I67)</f>
         <v>60</v>
       </c>
-      <c r="I67" t="s">
-        <v>49</v>
+      <c r="I67" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J95" si="39">IF(H67&gt;26, 1, 0)</f>
@@ -5132,8 +5124,8 @@
         <f t="shared" si="38"/>
         <v>67</v>
       </c>
-      <c r="I68" t="s">
-        <v>50</v>
+      <c r="I68" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J68">
         <f t="shared" si="39"/>
@@ -5170,11 +5162,11 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">                           </v>
-      </c>
-      <c r="C69" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C69">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">            </v>
+        <v>0</v>
       </c>
       <c r="D69">
         <f t="shared" si="34"/>
@@ -5194,18 +5186,18 @@
       </c>
       <c r="H69">
         <f t="shared" si="38"/>
-        <v>38</v>
-      </c>
-      <c r="I69" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="J69">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <f t="shared" si="32"/>
@@ -5260,8 +5252,8 @@
         <f t="shared" si="38"/>
         <v>66</v>
       </c>
-      <c r="I70" t="s">
-        <v>51</v>
+      <c r="I70" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J70">
         <f t="shared" si="39"/>
@@ -5324,8 +5316,8 @@
         <f t="shared" si="38"/>
         <v>68</v>
       </c>
-      <c r="I71" t="s">
-        <v>52</v>
+      <c r="I71" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J71">
         <f t="shared" si="39"/>
@@ -5388,8 +5380,8 @@
         <f t="shared" si="38"/>
         <v>44</v>
       </c>
-      <c r="I72" t="s">
-        <v>53</v>
+      <c r="I72" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J72">
         <f t="shared" si="39"/>
@@ -5452,8 +5444,8 @@
         <f t="shared" si="38"/>
         <v>38</v>
       </c>
-      <c r="I73" t="s">
-        <v>54</v>
+      <c r="I73" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J73">
         <f t="shared" si="39"/>
@@ -5490,11 +5482,11 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">                           </v>
-      </c>
-      <c r="C74" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C74">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">            </v>
+        <v>0</v>
       </c>
       <c r="D74">
         <f t="shared" si="34"/>
@@ -5514,18 +5506,18 @@
       </c>
       <c r="H74">
         <f t="shared" si="38"/>
-        <v>38</v>
-      </c>
-      <c r="I74" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="J74">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <f t="shared" si="32"/>
@@ -5580,8 +5572,8 @@
         <f t="shared" si="38"/>
         <v>24</v>
       </c>
-      <c r="I75" t="s">
-        <v>55</v>
+      <c r="I75" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J75">
         <f t="shared" si="39"/>
@@ -5644,8 +5636,8 @@
         <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="I76" t="s">
-        <v>56</v>
+      <c r="I76" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J76">
         <f t="shared" si="39"/>
@@ -5708,8 +5700,8 @@
         <f t="shared" si="38"/>
         <v>54</v>
       </c>
-      <c r="I77" t="s">
-        <v>96</v>
+      <c r="I77" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J77">
         <f t="shared" si="39"/>
@@ -5772,8 +5764,8 @@
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
-      <c r="I78" t="s">
-        <v>57</v>
+      <c r="I78" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="J78">
         <f t="shared" si="39"/>
@@ -5836,8 +5828,8 @@
         <f t="shared" si="38"/>
         <v>44</v>
       </c>
-      <c r="I79" t="s">
-        <v>58</v>
+      <c r="I79" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J79">
         <f t="shared" si="39"/>
@@ -5900,8 +5892,8 @@
         <f t="shared" si="38"/>
         <v>72</v>
       </c>
-      <c r="I80" t="s">
-        <v>59</v>
+      <c r="I80" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J80">
         <f t="shared" si="39"/>
@@ -5964,8 +5956,8 @@
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
-      <c r="I81" t="s">
-        <v>60</v>
+      <c r="I81" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="J81">
         <f t="shared" si="39"/>
@@ -6028,8 +6020,8 @@
         <f t="shared" si="38"/>
         <v>86</v>
       </c>
-      <c r="I82" t="s">
-        <v>61</v>
+      <c r="I82" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="J82">
         <f t="shared" si="39"/>
@@ -6092,8 +6084,8 @@
         <f t="shared" si="38"/>
         <v>40</v>
       </c>
-      <c r="I83" t="s">
-        <v>62</v>
+      <c r="I83" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J83">
         <f t="shared" si="39"/>
@@ -6156,8 +6148,8 @@
         <f t="shared" si="38"/>
         <v>36</v>
       </c>
-      <c r="I84" t="s">
-        <v>63</v>
+      <c r="I84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J84">
         <f t="shared" si="39"/>
@@ -6220,8 +6212,8 @@
         <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="I85" t="s">
-        <v>64</v>
+      <c r="I85" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J85">
         <f t="shared" si="39"/>
@@ -6258,11 +6250,11 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">                           </v>
-      </c>
-      <c r="C86" t="str">
+        <v xml:space="preserve">           </v>
+      </c>
+      <c r="C86">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">            </v>
+        <v>0</v>
       </c>
       <c r="D86">
         <f t="shared" si="34"/>
@@ -6282,18 +6274,18 @@
       </c>
       <c r="H86">
         <f t="shared" si="38"/>
-        <v>38</v>
-      </c>
-      <c r="I86" t="s">
-        <v>98</v>
+        <v>11</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="J86">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <f t="shared" si="43"/>
@@ -6348,8 +6340,8 @@
         <f t="shared" si="38"/>
         <v>18</v>
       </c>
-      <c r="I87" t="s">
-        <v>65</v>
+      <c r="I87" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="J87">
         <f t="shared" si="39"/>
@@ -6412,8 +6404,8 @@
         <f t="shared" si="38"/>
         <v>39</v>
       </c>
-      <c r="I88" t="s">
-        <v>66</v>
+      <c r="I88" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J88">
         <f t="shared" si="39"/>
@@ -6476,8 +6468,8 @@
         <f t="shared" si="38"/>
         <v>64</v>
       </c>
-      <c r="I89" t="s">
-        <v>67</v>
+      <c r="I89" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="J89">
         <f t="shared" si="39"/>
@@ -6540,8 +6532,8 @@
         <f t="shared" si="38"/>
         <v>72</v>
       </c>
-      <c r="I90" t="s">
-        <v>68</v>
+      <c r="I90" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J90">
         <f t="shared" si="39"/>
@@ -6604,8 +6596,8 @@
         <f t="shared" si="38"/>
         <v>52</v>
       </c>
-      <c r="I91" t="s">
-        <v>69</v>
+      <c r="I91" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J91">
         <f t="shared" si="39"/>
@@ -6668,8 +6660,8 @@
         <f t="shared" si="38"/>
         <v>82</v>
       </c>
-      <c r="I92" t="s">
-        <v>70</v>
+      <c r="I92" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J92">
         <f t="shared" si="39"/>
@@ -6732,8 +6724,8 @@
         <f t="shared" si="38"/>
         <v>40</v>
       </c>
-      <c r="I93" t="s">
-        <v>71</v>
+      <c r="I93" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="J93">
         <f t="shared" si="39"/>
@@ -6796,8 +6788,8 @@
         <f t="shared" si="38"/>
         <v>14</v>
       </c>
-      <c r="I94" t="s">
-        <v>72</v>
+      <c r="I94" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J94">
         <f t="shared" si="39"/>
@@ -6860,8 +6852,8 @@
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
-      <c r="I95" t="s">
-        <v>73</v>
+      <c r="I95" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J95">
         <f t="shared" si="39"/>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C26532-BEE5-4FE4-9C35-201A106A9391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F08F05-15B8-4EF9-BDF1-705AB635AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="2676" windowWidth="19596" windowHeight="9636" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -433,6 +433,97 @@
   <si>
     <t>「おい大丈夫か？！」</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>あれ？イ〇スタのフォローリクエストがきてる。めずらしいな、どんな人だろう？</t>
+  </si>
+  <si>
+    <t>………………？！</t>
+  </si>
+  <si>
+    <t>ヒィ〜〜！！！おじさんの自撮りだらけ？！</t>
+  </si>
+  <si>
+    <t>フォロワーも沢山いるし謎……あ、よく見るとおじさんになった桜児(おうじ)くんだ！</t>
+  </si>
+  <si>
+    <t>おじさんに見える呪いって現実だけじゃなくて写真にもかかってるんだ……。</t>
+  </si>
+  <si>
+    <t>それはともかく、桜児くんってもうすぐ誕生日か。</t>
+  </si>
+  <si>
+    <t>おじさんに見える呪いを解くためにもお誕生日お祝いして親愛度上げないと！</t>
+  </si>
+  <si>
+    <t>あ！桜児くんからDMきてる。</t>
+  </si>
+  <si>
+    <t>「この前倒れてた子だよね？イ〇スタでもよろしくねっ！」</t>
+  </si>
+  <si>
+    <t>桜児くんイ〇スタでも気さくだなー。誕生日のこと聞いてみよう。</t>
+  </si>
+  <si>
+    <t>「桜児くんって今度誕生日なんだよね？」</t>
+  </si>
+  <si>
+    <t>「そうだよ〜！」</t>
+  </si>
+  <si>
+    <t>「桜児くんいつもクラスで馴染めるように沢山声かけてくれて助かってるから、お近づきの印に誕プレ渡してもいい？」</t>
+  </si>
+  <si>
+    <t>「わ〜！嬉しい！ありがとー！誕プレ楽しみにしてるね！」</t>
+  </si>
+  <si>
+    <t>誕生日プレゼント、何にしよう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日は桜児くんの誕生日。私なりにイ〇スタ映えしそうなスイーツを選んでみたけど喜んでくれるかな……？</t>
+  </si>
+  <si>
+    <t>「桜児くん誕生日おめでとう！いつも話しかけてくれてありがとう！お近づきの印に可愛いスイーツを選んでみたよ。」</t>
+  </si>
+  <si>
+    <t>「わ〜！かわいい！ありがとう！イ〇スタに載せちゃお！」</t>
+  </si>
+  <si>
+    <t>どうやら喜んでくれたみたいだ。よかった！</t>
+  </si>
+  <si>
+    <t>今日は桜児くんの誕生日。思いきって煮干し1kgを選んで見たけど喜んでくれるかな……？</t>
+  </si>
+  <si>
+    <t>「桜児くん誕生日おめでとう！いつも話しかけてくれてありがとう！お近づきの印に煮干し1kgを選んでみたよ。」</t>
+  </si>
+  <si>
+    <t>「え！やばい！僕誕生日に煮干し１kgもらったのはじめて！</t>
+  </si>
+  <si>
+    <t>実はイ〇スタで煮干しダイエットが流行ってるらしいから気になってたんだよね、今日から挑戦しちゃお！」</t>
+  </si>
+  <si>
+    <t>煮干しダイエット……？まぁいいや、予想外にもとても喜んでくれたみたい！よかった！</t>
+  </si>
+  <si>
+    <t>今日は桜児くんの誕生日。私なりに頑張って手編みマフラーに挑戦したけど喜んでくれるかな……？</t>
+  </si>
+  <si>
+    <t>「桜児くん誕生日おめでとう！いつも話しかけてくれてありがとう！お近づきの印にこれ、手作りしてみたよ。」</t>
+  </si>
+  <si>
+    <t>「え……？手作り？5月にマフラーって斬新だね〜、あはは、ありがとう……」</t>
+  </si>
+  <si>
+    <t>ちょっと引かれちゃった？</t>
   </si>
 </sst>
 </file>
@@ -802,10 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5037,38 +5131,38 @@
         <v xml:space="preserve">「ああ。困っている生徒を助 </v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C95" si="33">IF(K67&gt;0,MIDB(I67, 27, 28),0)</f>
+        <f t="shared" ref="C67:C125" si="33">IF(K67&gt;0,MIDB(I67, 27, 28),0)</f>
         <v>けるのは生徒会長の務めだから</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D95" si="34">IF(L67&gt;0, MIDB(I67, 27+28, 28), 0)</f>
+        <f t="shared" ref="D67:D125" si="34">IF(L67&gt;0, MIDB(I67, 27+28, 28), 0)</f>
         <v>な。」</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E95" si="35">IF(M67&gt;0, MIDB(I67, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E67:E125" si="35">IF(M67&gt;0, MIDB(I67, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F95" si="36">IF(N67&gt;0, MIDB(I67, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F67:F125" si="36">IF(N67&gt;0, MIDB(I67, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G95" si="37">IF(O67&gt;0, MIDB(I67, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G67:G125" si="37">IF(O67&gt;0, MIDB(I67, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H95" si="38">LENB(I67)</f>
+        <f t="shared" ref="H67:H125" si="38">LENB(I67)</f>
         <v>60</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J95" si="39">IF(H67&gt;26, 1, 0)</f>
+        <f t="shared" ref="J67:J125" si="39">IF(H67&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K95" si="40">IF(J67,H67-26, 0)</f>
+        <f t="shared" ref="K67:K125" si="40">IF(J67,H67-26, 0)</f>
         <v>34</v>
       </c>
       <c r="L67">
@@ -5097,7 +5191,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B95" si="41">IF(J68,LEFTB(I68, 27), I68)</f>
+        <f t="shared" ref="B68:B125" si="41">IF(J68,LEFTB(I68, 27), I68)</f>
         <v xml:space="preserve">光先輩、勉強教えるのが上手 </v>
       </c>
       <c r="C68" t="str">
@@ -5716,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" ref="M77:P95" si="42">IF(L77&gt;26,L77-28, 0)</f>
+        <f t="shared" ref="M77:P96" si="42">IF(L77&gt;26,L77-28, 0)</f>
         <v>0</v>
       </c>
       <c r="N77">
@@ -5776,7 +5870,7 @@
         <v>24</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L95" si="43">IF(K78&gt;26,K78-28, 0)</f>
+        <f t="shared" ref="L78:P127" si="43">IF(K78&gt;26,K78-28, 0)</f>
         <v>0</v>
       </c>
       <c r="M78">
@@ -6881,6 +6975,1926 @@
       </c>
       <c r="P95">
         <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="41"/>
+        <v>夜</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>109</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">あれ？イ〇スタのフォローリ </v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="33"/>
+        <v>クエストがきてる。めずらしい</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="34"/>
+        <v>な、どんな人だろう？</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="38"/>
+        <v>74</v>
+      </c>
+      <c r="I97" t="s">
+        <v>110</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="40"/>
+        <v>48</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="43"/>
+        <v>20</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="41"/>
+        <v>………………？！</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>111</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">ヒィ〜〜！！！おじさんの自 </v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="33"/>
+        <v>撮りだらけ？！</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="38"/>
+        <v>38</v>
+      </c>
+      <c r="I99" t="s">
+        <v>112</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">フォロワーも沢山いるし謎… </v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="33"/>
+        <v>…あ、よく見るとおじさんにな</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="34"/>
+        <v>った桜児(おうじ)くんだ！</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="38"/>
+        <v>78</v>
+      </c>
+      <c r="I100" t="s">
+        <v>113</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="40"/>
+        <v>52</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="43"/>
+        <v>24</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">おじさんに見える呪いって現 </v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="33"/>
+        <v>実だけじゃなくて写真にもかか</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="34"/>
+        <v>ってるんだ……。</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="38"/>
+        <v>70</v>
+      </c>
+      <c r="I101" t="s">
+        <v>114</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="40"/>
+        <v>44</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">それはともかく、桜児くんっ </v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="33"/>
+        <v>てもうすぐ誕生日か。</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="38"/>
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>115</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="40"/>
+        <v>20</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">おじさんに見える呪いを解く </v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="33"/>
+        <v>ためにもお誕生日お祝いして親</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="34"/>
+        <v>愛度上げないと！</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="38"/>
+        <v>70</v>
+      </c>
+      <c r="I103" t="s">
+        <v>116</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="40"/>
+        <v>44</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="41"/>
+        <v>あ！桜児くんからDMきてる。</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="38"/>
+        <v>26</v>
+      </c>
+      <c r="I104" t="s">
+        <v>117</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「この前倒れてた子だよね？ </v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="33"/>
+        <v>イ〇スタでもよろしくねっ！」</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="38"/>
+        <v>54</v>
+      </c>
+      <c r="I105" t="s">
+        <v>118</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="40"/>
+        <v>28</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">桜児くんイ〇スタでも気さく </v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="33"/>
+        <v>だなー。誕生日のこと聞いてみ</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="34"/>
+        <v>よう。</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="38"/>
+        <v>60</v>
+      </c>
+      <c r="I106" t="s">
+        <v>119</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="40"/>
+        <v>34</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「桜児くんって今度誕生日な </v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="33"/>
+        <v>んだよね？」</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="38"/>
+        <v>38</v>
+      </c>
+      <c r="I107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="41"/>
+        <v>「そうだよ〜！」</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="38"/>
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>121</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「桜児くんいつもクラスで馴 </v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="33"/>
+        <v>染めるように沢山声かけてくれ</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="34"/>
+        <v>て助かってるから、お近づきの</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> 印に誕プレ渡してもいい？」</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="38"/>
+        <v>108</v>
+      </c>
+      <c r="I109" t="s">
+        <v>122</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="40"/>
+        <v>82</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="43"/>
+        <v>54</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="43"/>
+        <v>26</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「わ〜！嬉しい！ありがとー </v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="33"/>
+        <v>！誕プレ楽しみにしてるね！」</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="I110" t="s">
+        <v>123</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="40"/>
+        <v>27</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">誕生日プレゼント、何にしよ </v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="33"/>
+        <v>う？</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+      <c r="I111" t="s">
+        <v>124</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>125</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">今日は桜児くんの誕生日。私 </v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="33"/>
+        <v>なりにイ〇スタ映えしそうなス</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="34"/>
+        <v>イーツを選んでみたけど喜んで</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> くれるかな……？</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="38"/>
+        <v>98</v>
+      </c>
+      <c r="I113" t="s">
+        <v>126</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="40"/>
+        <v>72</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="43"/>
+        <v>44</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「桜児くん誕生日おめでとう </v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="33"/>
+        <v>！いつも話しかけてくれてあり</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="34"/>
+        <v>がとう！お近づきの印に可愛い</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> スイーツを選んでみたよ。」</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="38"/>
+        <v>108</v>
+      </c>
+      <c r="I114" t="s">
+        <v>127</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="40"/>
+        <v>82</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="43"/>
+        <v>54</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="43"/>
+        <v>26</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「わ〜！かわいい！ありがと </v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="33"/>
+        <v>う！イ〇スタに載せちゃお！」</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="I115" t="s">
+        <v>128</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="40"/>
+        <v>27</v>
+      </c>
+      <c r="L115">
+        <f>IF(K115&gt;26,K115-28, 0)</f>
+        <v>-1</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">どうやら喜んでくれたみたい </v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="33"/>
+        <v>だ。よかった！</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="38"/>
+        <v>40</v>
+      </c>
+      <c r="I116" t="s">
+        <v>129</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">今日は桜児くんの誕生日。思 </v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">いきって煮干し1kgを選んで見 </v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> けど喜んでくれるかな……？</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="38"/>
+        <v>81</v>
+      </c>
+      <c r="I117" t="s">
+        <v>130</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="40"/>
+        <v>55</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="43"/>
+        <v>27</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「桜児くん誕生日おめでとう </v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="33"/>
+        <v>！いつも話しかけてくれてあり</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="34"/>
+        <v>がとう！お近づきの印に煮干し</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> 1kgを選んでみたよ。」</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="I118" t="s">
+        <v>131</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="40"/>
+        <v>77</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="43"/>
+        <v>49</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="43"/>
+        <v>21</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「え！やばい！僕誕生日に煮 </v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="33"/>
+        <v>干し１kgもらったのはじめて！</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="38"/>
+        <v>54</v>
+      </c>
+      <c r="I119" t="s">
+        <v>132</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="40"/>
+        <v>28</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">実はイ〇スタで煮干しダイエ </v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="33"/>
+        <v>ットが流行ってるらしいから気</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="34"/>
+        <v>になってたんだよね、今日から</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> 挑戦しちゃお！」</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="38"/>
+        <v>98</v>
+      </c>
+      <c r="I120" t="s">
+        <v>133</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="40"/>
+        <v>72</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="43"/>
+        <v>44</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">煮干しダイエット……？まぁ </v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="33"/>
+        <v>いいや、予想外にもとても喜ん</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="34"/>
+        <v>でくれたみたい！よかった！</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="38"/>
+        <v>80</v>
+      </c>
+      <c r="I121" t="s">
+        <v>134</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="40"/>
+        <v>54</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="43"/>
+        <v>26</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">今日は桜児くんの誕生日。私 </v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="33"/>
+        <v>なりに頑張って手編みマフラー</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="34"/>
+        <v>に挑戦したけど喜んでくれるか</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> な……？</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="38"/>
+        <v>90</v>
+      </c>
+      <c r="I122" t="s">
+        <v>135</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="40"/>
+        <v>64</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="43"/>
+        <v>36</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「桜児くん誕生日おめでとう </v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="33"/>
+        <v>！いつも話しかけてくれてあり</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="34"/>
+        <v>がとう！お近づきの印にこれ、</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> 手作りしてみたよ。」</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="38"/>
+        <v>102</v>
+      </c>
+      <c r="I123" t="s">
+        <v>136</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="40"/>
+        <v>76</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="43"/>
+        <v>48</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="43"/>
+        <v>20</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="41"/>
+        <v>「え……？手作り？5月にマフ</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve"> ラーって斬新だね〜、あはは </v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> ありがとう……」</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="38"/>
+        <v>70</v>
+      </c>
+      <c r="I124" t="s">
+        <v>137</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="40"/>
+        <v>44</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="41"/>
+        <v>ちょっと引かれちゃった？</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="38"/>
+        <v>24</v>
+      </c>
+      <c r="I125" t="s">
+        <v>138</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F08F05-15B8-4EF9-BDF1-705AB635AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9878BF44-4A2C-4204-85C7-45764B6A7C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -524,6 +524,39 @@
   </si>
   <si>
     <t>ちょっと引かれちゃった？</t>
+  </si>
+  <si>
+    <t>もうすぐ転校して2か月かぁ……OG☆３とも少しずつ仲良くなれている気がする！</t>
+  </si>
+  <si>
+    <t>桜児くんとは誕生日のとき以来、DMで時々会話している。</t>
+  </si>
+  <si>
+    <t>おじさんの自撮りだらけのイ〇スタもなんだか見なれちゃったかも。多分。</t>
+  </si>
+  <si>
+    <t>あ！今日も桜児くんからDMがきた！</t>
+  </si>
+  <si>
+    <t>「最近学園の近くにパンケーキ屋さんができたんだって〜！今度行かない？」</t>
+  </si>
+  <si>
+    <t>「そこ気になってるとこだ〜！」</t>
+  </si>
+  <si>
+    <t>「そのお店カップル割あるって！折角だしカップルとしていこうよ〜！」</t>
+  </si>
+  <si>
+    <t>不覚にもドキッとしてしまった……人気ものの桜児くんからすれば多分ファンサみたいなものなのに。</t>
+  </si>
+  <si>
+    <t>ていうかDMだから顔見えないし忘れてたけど、今の桜児くんは私から見ればおじさんの見た目なんだっだ。あぶないあぶない。</t>
+  </si>
+  <si>
+    <t>銅像の呪いにかけられなければこんな乙女ゲームみたいな展開、純粋に楽しめたのに〜！</t>
+  </si>
+  <si>
+    <t>呪いのせいとはいえおじさんとカップルとしてデートかぁ。返信どうしようかな？</t>
   </si>
 </sst>
 </file>
@@ -893,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C125" sqref="C125"/>
+      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5131,38 +5164,38 @@
         <v xml:space="preserve">「ああ。困っている生徒を助 </v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C125" si="33">IF(K67&gt;0,MIDB(I67, 27, 28),0)</f>
+        <f t="shared" ref="C67:C130" si="33">IF(K67&gt;0,MIDB(I67, 27, 28),0)</f>
         <v>けるのは生徒会長の務めだから</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D125" si="34">IF(L67&gt;0, MIDB(I67, 27+28, 28), 0)</f>
+        <f t="shared" ref="D67:D130" si="34">IF(L67&gt;0, MIDB(I67, 27+28, 28), 0)</f>
         <v>な。」</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E125" si="35">IF(M67&gt;0, MIDB(I67, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E67:E130" si="35">IF(M67&gt;0, MIDB(I67, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F125" si="36">IF(N67&gt;0, MIDB(I67, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F67:F130" si="36">IF(N67&gt;0, MIDB(I67, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G125" si="37">IF(O67&gt;0, MIDB(I67, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G67:G130" si="37">IF(O67&gt;0, MIDB(I67, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H125" si="38">LENB(I67)</f>
+        <f t="shared" ref="H67:H130" si="38">LENB(I67)</f>
         <v>60</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J125" si="39">IF(H67&gt;26, 1, 0)</f>
+        <f t="shared" ref="J67:J130" si="39">IF(H67&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K125" si="40">IF(J67,H67-26, 0)</f>
+        <f t="shared" ref="K67:K130" si="40">IF(J67,H67-26, 0)</f>
         <v>34</v>
       </c>
       <c r="L67">
@@ -5191,7 +5224,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B125" si="41">IF(J68,LEFTB(I68, 27), I68)</f>
+        <f t="shared" ref="B68:B131" si="41">IF(J68,LEFTB(I68, 27), I68)</f>
         <v xml:space="preserve">光先輩、勉強教えるのが上手 </v>
       </c>
       <c r="C68" t="str">
@@ -5870,7 +5903,7 @@
         <v>24</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:P127" si="43">IF(K78&gt;26,K78-28, 0)</f>
+        <f t="shared" ref="L78:P126" si="43">IF(K78&gt;26,K78-28, 0)</f>
         <v>0</v>
       </c>
       <c r="M78">
@@ -8895,6 +8928,774 @@
       </c>
       <c r="P125">
         <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">                           </v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="38"/>
+        <v>27</v>
+      </c>
+      <c r="I126" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="41"/>
+        <v>もうすぐ転校して2か月かぁ…</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve"> …OG☆３とも少しずつ仲良く </v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> れている気がする！</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="38"/>
+        <v>73</v>
+      </c>
+      <c r="I127" t="s">
+        <v>139</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="40"/>
+        <v>47</v>
+      </c>
+      <c r="L127">
+        <f t="shared" ref="L127:P137" si="44">IF(K127&gt;26,K127-28, 0)</f>
+        <v>19</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">桜児くんとは誕生日のとき以 </v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="33"/>
+        <v>来、DMで時々会話している。</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="38"/>
+        <v>52</v>
+      </c>
+      <c r="I128" t="s">
+        <v>140</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="40"/>
+        <v>26</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">おじさんの自撮りだらけのイ </v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="33"/>
+        <v>〇スタもなんだか見なれちゃっ</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="34"/>
+        <v>たかも。多分。</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="38"/>
+        <v>68</v>
+      </c>
+      <c r="I129" t="s">
+        <v>141</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="40"/>
+        <v>42</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="44"/>
+        <v>14</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">あ！今日も桜児くんからDMが </v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="33"/>
+        <v>きた！</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="I130" t="s">
+        <v>142</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">「最近学園の近くにパンケー </v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C137" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <v>キ屋さんができたんだって〜！</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D137" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <v>今度行かない？」</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E137" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F137" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G137" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H137" si="50">LENB(I131)</f>
+        <v>69</v>
+      </c>
+      <c r="I131" t="s">
+        <v>143</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J137" si="51">IF(H131&gt;26, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K137" si="52">IF(J131,H131-26, 0)</f>
+        <v>43</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="44"/>
+        <v>15</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" ref="B132:B137" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="45"/>
+        <v>！」</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="50"/>
+        <v>29</v>
+      </c>
+      <c r="I132" t="s">
+        <v>144</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「そのお店カップル割あるっ </v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="45"/>
+        <v>て！折角だしカップルとしてい</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="46"/>
+        <v>こうよ〜！」</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="50"/>
+        <v>65</v>
+      </c>
+      <c r="I133" t="s">
+        <v>145</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="52"/>
+        <v>39</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">不覚にもドキッとしてしまっ </v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="45"/>
+        <v>た……人気ものの桜児くんから</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="46"/>
+        <v>すれば多分ファンサみたいなも</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> のなのに。</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="50"/>
+        <v>92</v>
+      </c>
+      <c r="I134" t="s">
+        <v>146</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="52"/>
+        <v>66</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="44"/>
+        <v>38</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">ていうかDMだから顔見えない </v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="45"/>
+        <v>し忘れてたけど、今の桜児くん</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="46"/>
+        <v>は私から見ればおじさんの見た</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> 目なんだっだ。あぶないあぶ </v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="48"/>
+        <v>ない。</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="50"/>
+        <v>114</v>
+      </c>
+      <c r="I135" t="s">
+        <v>147</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="52"/>
+        <v>88</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="44"/>
+        <v>60</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="44"/>
+        <v>32</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">銅像の呪いにかけられなけれ </v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="45"/>
+        <v>ばこんな乙女ゲームみたいな展</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="46"/>
+        <v>開、純粋に楽しめたのに〜！</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="50"/>
+        <v>79</v>
+      </c>
+      <c r="I136" t="s">
+        <v>148</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="52"/>
+        <v>53</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="44"/>
+        <v>25</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">呪いのせいとはいえおじさん </v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="45"/>
+        <v>とカップルとしてデートかぁ。</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="46"/>
+        <v>返信どうしようかな？</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="50"/>
+        <v>74</v>
+      </c>
+      <c r="I137" t="s">
+        <v>149</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="52"/>
+        <v>48</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9878BF44-4A2C-4204-85C7-45764B6A7C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E386751E-933B-4F3C-A93F-017FD779A76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="3792" yWindow="348" windowWidth="19596" windowHeight="9636" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="176">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -557,6 +557,84 @@
   </si>
   <si>
     <t>呪いのせいとはいえおじさんとカップルとしてデートかぁ。返信どうしようかな？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>桜児くんと仲良くなるチャンスだし行くしかないよね！ここのパンケーキ屋さん気になってたし楽しみだなぁ。</t>
+  </si>
+  <si>
+    <t>[当日]</t>
+  </si>
+  <si>
+    <t>……早めに着いちゃった。さすがに桜児くんも来てないみたい。</t>
+  </si>
+  <si>
+    <t>「ごっめ〜ん！先にきてたんだね、待った？」</t>
+  </si>
+  <si>
+    <t>「こっちが早めに着いちゃっただけだから大丈夫だよ。」</t>
+  </si>
+  <si>
+    <t>私達はそれぞれ好みのトッピングが乗ったパンケーキを選んだ。</t>
+  </si>
+  <si>
+    <t>「お待たせいたしました。ご注文のパンケーキでございます。」</t>
+  </si>
+  <si>
+    <t>「わ〜っ！おいしそう！みてみて！この飾りのクッキー可愛い〜っ！イ〇スタに載せちゃお！」</t>
+  </si>
+  <si>
+    <t>桜児くんいつもよりテンション高い。見た目はおじさんに見えてるけど私より女子高生みたいなテンションだ……</t>
+  </si>
+  <si>
+    <t>「私もイ〇スタにパンケーキの写真のせよう！」</t>
+  </si>
+  <si>
+    <t>元々乙女ゲームしてばっかりしててイ○スタは投稿してなかったけど、桜児くんといると私もつられてイ〇スタに投稿したくなっちゃった。</t>
+  </si>
+  <si>
+    <t>「あ〜！パンケーキおいしかった！」</t>
+  </si>
+  <si>
+    <t>「奢ってくれてありがとう……本当に大丈夫なの？」</t>
+  </si>
+  <si>
+    <t>「カップル割でパンケーキ食べよって誘ったの僕だし全然いいよー！ファンサだよっ！」</t>
+  </si>
+  <si>
+    <t>今の見た目がおじさんなせいでパパ活してる人みたいな気分になっちゃったけど。</t>
+  </si>
+  <si>
+    <t>「ねぇねぇ！折角だしツーショ撮らない？これもファンサってことで！」</t>
+  </si>
+  <si>
+    <t>桜児くんはファンサって言いながら色んなことをしてくれるなぁ。</t>
+  </si>
+  <si>
+    <t>「こっちきて！撮るよ〜」</t>
+  </si>
+  <si>
+    <t>「うん！いい感じ！[主人公の名前]ちゃんも僕も盛れてる〜っ！」</t>
+  </si>
+  <si>
+    <t>そ、そうなんだ……桜児くんが普通の男の子に戻った時のために写真大切に残しとかなきゃ！</t>
+  </si>
+  <si>
+    <t>「これもイ〇スタにのせるの？」</t>
+  </si>
+  <si>
+    <t>「んーん！これは[主人公の名前]ちゃんと僕だけの写真だよ。可愛い子との写真を載せたら他の子達が嫉妬しちゃうから！」</t>
+  </si>
+  <si>
+    <t>わ〜！これも元の姿で言われたかったよ〜！呪いを解くためにがんばらなきゃ。</t>
+  </si>
+  <si>
+    <t>「そういうときもあるよね〜！他の人誘うから気にしないで！」</t>
+  </si>
+  <si>
+    <t>か、悲しい……また金欠にならないようにバイトして稼がないと！</t>
   </si>
 </sst>
 </file>
@@ -926,13 +1004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P137"/>
+  <dimension ref="A1:P164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9039,7 +9117,7 @@
         <v>47</v>
       </c>
       <c r="L127">
-        <f t="shared" ref="L127:P137" si="44">IF(K127&gt;26,K127-28, 0)</f>
+        <f t="shared" ref="L127:P142" si="44">IF(K127&gt;26,K127-28, 0)</f>
         <v>19</v>
       </c>
       <c r="M127">
@@ -9260,38 +9338,38 @@
         <v xml:space="preserve">「最近学園の近くにパンケー </v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C137" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <f t="shared" ref="C131:C164" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
         <v>キ屋さんができたんだって〜！</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D137" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <f t="shared" ref="D131:D164" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
         <v>今度行かない？」</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E137" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E131:E164" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F137" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F131:F164" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G137" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G131:G164" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H137" si="50">LENB(I131)</f>
+        <f t="shared" ref="H131:H164" si="50">LENB(I131)</f>
         <v>69</v>
       </c>
       <c r="I131" t="s">
         <v>143</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J137" si="51">IF(H131&gt;26, 1, 0)</f>
+        <f t="shared" ref="J131:J164" si="51">IF(H131&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K137" si="52">IF(J131,H131-26, 0)</f>
+        <f t="shared" ref="K131:K164" si="52">IF(J131,H131-26, 0)</f>
         <v>43</v>
       </c>
       <c r="L131">
@@ -9320,7 +9398,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B137" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <f t="shared" ref="B132:B164" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
         <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
       </c>
       <c r="C132" t="str">
@@ -9696,6 +9774,1734 @@
       </c>
       <c r="P137">
         <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>150</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">桜児くんと仲良くなるチャン </v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="45"/>
+        <v>スだし行くしかないよね！ここ</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="46"/>
+        <v>のパンケーキ屋さん気になって</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> たし楽しみだなぁ。</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="50"/>
+        <v>100</v>
+      </c>
+      <c r="I139" t="s">
+        <v>151</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="52"/>
+        <v>74</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="44"/>
+        <v>46</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="44"/>
+        <v>18</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="53"/>
+        <v>[当日]</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="I140" t="s">
+        <v>152</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>136</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">……早めに着いちゃった。さ </v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="45"/>
+        <v>すがに桜児くんも来てないみた</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="46"/>
+        <v>い。</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="50"/>
+        <v>58</v>
+      </c>
+      <c r="I141" t="s">
+        <v>153</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="52"/>
+        <v>32</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>136</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「ごっめ〜ん！先にきてたん </v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="45"/>
+        <v>だね、待った？」</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="50"/>
+        <v>41</v>
+      </c>
+      <c r="I142" t="s">
+        <v>154</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="52"/>
+        <v>15</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>136</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「こっちが早めに着いちゃっ </v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="45"/>
+        <v>ただけだから大丈夫だよ。」</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="50"/>
+        <v>52</v>
+      </c>
+      <c r="I143" t="s">
+        <v>155</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="L143">
+        <f t="shared" ref="L143:P158" si="54">IF(K143&gt;26,K143-28, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>136</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">私達はそれぞれ好みのトッピ </v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="45"/>
+        <v>ングが乗ったパンケーキを選ん</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="46"/>
+        <v>だ。</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="50"/>
+        <v>58</v>
+      </c>
+      <c r="I144" t="s">
+        <v>156</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="52"/>
+        <v>32</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>136</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「お待たせいたしました。ご </v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="45"/>
+        <v>注文のパンケーキでございます</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="46"/>
+        <v>。」</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="50"/>
+        <v>58</v>
+      </c>
+      <c r="I145" t="s">
+        <v>157</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="52"/>
+        <v>32</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>136</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「わ〜っ！おいしそう！みて </v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="45"/>
+        <v>みて！この飾りのクッキー可愛</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="46"/>
+        <v>い〜っ！イ〇スタに載せちゃお</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> ！」</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="50"/>
+        <v>84</v>
+      </c>
+      <c r="I146" t="s">
+        <v>158</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="52"/>
+        <v>58</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="54"/>
+        <v>30</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>136</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">桜児くんいつもよりテンショ </v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="45"/>
+        <v>ン高い。見た目はおじさんに見</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="46"/>
+        <v>えてるけど私より女子高生みた</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> いなテンションだ……</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="50"/>
+        <v>102</v>
+      </c>
+      <c r="I147" t="s">
+        <v>159</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="52"/>
+        <v>76</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="54"/>
+        <v>48</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="54"/>
+        <v>20</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>136</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「私もイ〇スタにパンケーキ </v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="45"/>
+        <v>の写真のせよう！」</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="50"/>
+        <v>44</v>
+      </c>
+      <c r="I148" t="s">
+        <v>160</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="52"/>
+        <v>18</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>136</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">元々乙女ゲームしてばっかり </v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="45"/>
+        <v>しててイ○スタは投稿してなか</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="46"/>
+        <v>ったけど、桜児くんといると私</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> もつられてイ〇スタに投稿し </v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="48"/>
+        <v>たくなっちゃった。</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="50"/>
+        <v>126</v>
+      </c>
+      <c r="I149" t="s">
+        <v>161</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="52"/>
+        <v>100</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="54"/>
+        <v>72</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="54"/>
+        <v>44</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>136</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">           </v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="50"/>
+        <v>11</v>
+      </c>
+      <c r="I150" t="s">
+        <v>80</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>136</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「あ〜！パンケーキおいしか </v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="45"/>
+        <v>った！」</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="50"/>
+        <v>33</v>
+      </c>
+      <c r="I151" t="s">
+        <v>162</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="52"/>
+        <v>7</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>136</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「奢ってくれてありがとう… </v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="45"/>
+        <v>…本当に大丈夫なの？」</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="50"/>
+        <v>48</v>
+      </c>
+      <c r="I152" t="s">
+        <v>163</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>136</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「カップル割でパンケーキ食 </v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="45"/>
+        <v>べよって誘ったの僕だし全然い</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="46"/>
+        <v>いよー！ファンサだよっ！」</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="50"/>
+        <v>80</v>
+      </c>
+      <c r="I153" t="s">
+        <v>164</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="52"/>
+        <v>54</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="54"/>
+        <v>26</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>136</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">今の見た目がおじさんなせい </v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="45"/>
+        <v>でパパ活してる人みたいな気分</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="46"/>
+        <v>になっちゃったけど。</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="50"/>
+        <v>74</v>
+      </c>
+      <c r="I154" t="s">
+        <v>165</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="52"/>
+        <v>48</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="54"/>
+        <v>20</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>136</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「ねぇねぇ！折角だしツーシ </v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="45"/>
+        <v>ョ撮らない？これもファンサっ</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="46"/>
+        <v>てことで！」</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="50"/>
+        <v>66</v>
+      </c>
+      <c r="I155" t="s">
+        <v>166</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="52"/>
+        <v>40</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="54"/>
+        <v>12</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>136</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">桜児くんはファンサって言い </v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="45"/>
+        <v>ながら色んなことをしてくれる</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="46"/>
+        <v>なぁ。</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="50"/>
+        <v>60</v>
+      </c>
+      <c r="I156" t="s">
+        <v>167</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>136</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="53"/>
+        <v>「こっちきて！撮るよ〜」</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="50"/>
+        <v>23</v>
+      </c>
+      <c r="I157" t="s">
+        <v>168</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>136</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="53"/>
+        <v>「うん！いい感じ！[主人公の</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> 名前]ちゃんも僕も盛れてる〜</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="46"/>
+        <v>っ！」</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="50"/>
+        <v>59</v>
+      </c>
+      <c r="I158" t="s">
+        <v>169</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="52"/>
+        <v>33</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>136</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="45"/>
+        <v>が普通の男の子に戻った時のた</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="46"/>
+        <v>めに写真大切に残しとかなきゃ</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> ！</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="50"/>
+        <v>84</v>
+      </c>
+      <c r="I159" t="s">
+        <v>170</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="52"/>
+        <v>58</v>
+      </c>
+      <c r="L159">
+        <f t="shared" ref="L159:P164" si="55">IF(K159&gt;26,K159-28, 0)</f>
+        <v>30</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>136</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「これもイ〇スタにのせるの </v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="45"/>
+        <v>？」</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="50"/>
+        <v>30</v>
+      </c>
+      <c r="I160" t="s">
+        <v>171</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>136</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="53"/>
+        <v>「んーん！これは[主人公の名</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> 前]ちゃんと僕だけの写真だよ</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="46"/>
+        <v>。可愛い子との写真を載せたら</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> 他の子達が嫉妬しちゃうから </v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="48"/>
+        <v>！」</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="50"/>
+        <v>112</v>
+      </c>
+      <c r="I161" t="s">
+        <v>172</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="52"/>
+        <v>86</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="55"/>
+        <v>58</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="55"/>
+        <v>30</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>136</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="45"/>
+        <v>たかったよ〜！呪いを解くため</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="46"/>
+        <v>にがんばらなきゃ。</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="50"/>
+        <v>70</v>
+      </c>
+      <c r="I162" t="s">
+        <v>173</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="52"/>
+        <v>44</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>136</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「そういうときもあるよね〜 </v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="45"/>
+        <v>！他の人誘うから気にしないで</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="46"/>
+        <v>！」</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="50"/>
+        <v>57</v>
+      </c>
+      <c r="I163" t="s">
+        <v>174</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="52"/>
+        <v>31</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>136</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">か、悲しい……また金欠にな </v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="45"/>
+        <v>らないようにバイトして稼がな</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="46"/>
+        <v>いと！</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="50"/>
+        <v>60</v>
+      </c>
+      <c r="I164" t="s">
+        <v>175</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E386751E-933B-4F3C-A93F-017FD779A76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E4E28-7835-4565-8B79-7B79B496E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="348" windowWidth="19596" windowHeight="9636" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -556,9 +556,6 @@
     <t>銅像の呪いにかけられなければこんな乙女ゲームみたいな展開、純粋に楽しめたのに〜！</t>
   </si>
   <si>
-    <t>呪いのせいとはいえおじさんとカップルとしてデートかぁ。返信どうしようかな？</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -616,18 +613,12 @@
     <t>「こっちきて！撮るよ〜」</t>
   </si>
   <si>
-    <t>「うん！いい感じ！[主人公の名前]ちゃんも僕も盛れてる〜っ！」</t>
-  </si>
-  <si>
     <t>そ、そうなんだ……桜児くんが普通の男の子に戻った時のために写真大切に残しとかなきゃ！</t>
   </si>
   <si>
     <t>「これもイ〇スタにのせるの？」</t>
   </si>
   <si>
-    <t>「んーん！これは[主人公の名前]ちゃんと僕だけの写真だよ。可愛い子との写真を載せたら他の子達が嫉妬しちゃうから！」</t>
-  </si>
-  <si>
     <t>わ〜！これも元の姿で言われたかったよ〜！呪いを解くためにがんばらなきゃ。</t>
   </si>
   <si>
@@ -635,6 +626,41 @@
   </si>
   <si>
     <t>か、悲しい……また金欠にならないようにバイトして稼がないと！</t>
+  </si>
+  <si>
+    <t>呪いのせいとはいえおじさんとカップルとしてデートかぁ。</t>
+  </si>
+  <si>
+    <t>でもあのパンケーキ屋さん</t>
+  </si>
+  <si>
+    <t>返信どうしようかな？</t>
+  </si>
+  <si>
+    <t>「私もそこのパンケーキすごく食べたかったし、いいよー！」</t>
+  </si>
+  <si>
+    <t>「じゃあ土曜日に学校の近くの商店街で待ち合わせね！」</t>
+  </si>
+  <si>
+    <t>今月はお小遣い使い過ぎちゃってパンケーキを食べる余裕はないな……</t>
+  </si>
+  <si>
+    <t>「パンケーキ食べたかったけど今月金欠で行けそうにないな！ごめんね！」</t>
+  </si>
+  <si>
+    <t>「うん！いい感じ！二人とも盛れてる〜っ！」</t>
+    <rPh sb="9" eb="11">
+      <t>フタリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「んーん！これは二人だけの写真だよ。可愛い子との写真を載せたら他の子達が嫉妬しちゃうから！」</t>
+    <rPh sb="8" eb="10">
+      <t>フタリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1004,18 +1030,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P164"/>
+  <dimension ref="A1:P172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="28.59765625" customWidth="1"/>
     <col min="9" max="9" width="8.796875" style="1"/>
@@ -9338,38 +9364,38 @@
         <v xml:space="preserve">「最近学園の近くにパンケー </v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C164" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <f t="shared" ref="C131:C172" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
         <v>キ屋さんができたんだって〜！</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D164" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <f t="shared" ref="D131:D172" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
         <v>今度行かない？」</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E164" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E131:E172" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F164" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F131:F172" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G164" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G131:G172" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H164" si="50">LENB(I131)</f>
+        <f t="shared" ref="H131:H172" si="50">LENB(I131)</f>
         <v>69</v>
       </c>
       <c r="I131" t="s">
         <v>143</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J164" si="51">IF(H131&gt;26, 1, 0)</f>
+        <f t="shared" ref="J131:J172" si="51">IF(H131&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K164" si="52">IF(J131,H131-26, 0)</f>
+        <f t="shared" ref="K131:K172" si="52">IF(J131,H131-26, 0)</f>
         <v>43</v>
       </c>
       <c r="L131">
@@ -9398,7 +9424,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B164" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <f t="shared" ref="B132:B172" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
         <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
       </c>
       <c r="C132" t="str">
@@ -9725,9 +9751,9 @@
         <f t="shared" si="45"/>
         <v>とカップルとしてデートかぁ。</v>
       </c>
-      <c r="D137" t="str">
+      <c r="D137">
         <f t="shared" si="46"/>
-        <v>返信どうしようかな？</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <f t="shared" si="47"/>
@@ -9743,10 +9769,10 @@
       </c>
       <c r="H137">
         <f t="shared" si="50"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I137" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="J137">
         <f t="shared" si="51"/>
@@ -9754,11 +9780,11 @@
       </c>
       <c r="K137">
         <f t="shared" si="52"/>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L137">
         <f t="shared" si="44"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M137">
         <f t="shared" si="44"/>
@@ -9779,11 +9805,11 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve"> </v>
+        <v>でもあのパンケーキ屋さん</v>
       </c>
       <c r="C138">
         <f t="shared" si="45"/>
@@ -9807,10 +9833,10 @@
       </c>
       <c r="H138">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I138" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="J138">
         <f t="shared" si="51"/>
@@ -9843,183 +9869,183 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="53"/>
+        <v>返信どうしようかな？</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="50"/>
+        <v>20</v>
+      </c>
+      <c r="I139" t="s">
+        <v>175</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>149</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="53"/>
         <v xml:space="preserve">桜児くんと仲良くなるチャン </v>
       </c>
-      <c r="C139" t="str">
+      <c r="C141" t="str">
         <f t="shared" si="45"/>
         <v>スだし行くしかないよね！ここ</v>
       </c>
-      <c r="D139" t="str">
+      <c r="D141" t="str">
         <f t="shared" si="46"/>
         <v>のパンケーキ屋さん気になって</v>
       </c>
-      <c r="E139" t="str">
+      <c r="E141" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve"> たし楽しみだなぁ。</v>
       </c>
-      <c r="F139">
+      <c r="F141">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G139">
+      <c r="G141">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H139">
+      <c r="H141">
         <f t="shared" si="50"/>
         <v>100</v>
       </c>
-      <c r="I139" t="s">
-        <v>151</v>
-      </c>
-      <c r="J139">
+      <c r="I141" t="s">
+        <v>150</v>
+      </c>
+      <c r="J141">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K139">
+      <c r="K141">
         <f t="shared" si="52"/>
         <v>74</v>
       </c>
-      <c r="L139">
+      <c r="L141">
         <f t="shared" si="44"/>
         <v>46</v>
       </c>
-      <c r="M139">
+      <c r="M141">
         <f t="shared" si="44"/>
         <v>18</v>
       </c>
-      <c r="N139">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O139">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A140">
-        <v>136</v>
-      </c>
-      <c r="B140" t="str">
-        <f t="shared" si="53"/>
-        <v>[当日]</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="I140" t="s">
-        <v>152</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="P140">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A141">
-        <v>136</v>
-      </c>
-      <c r="B141" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">……早めに着いちゃった。さ </v>
-      </c>
-      <c r="C141" t="str">
-        <f t="shared" si="45"/>
-        <v>すがに桜児くんも来てないみた</v>
-      </c>
-      <c r="D141" t="str">
-        <f t="shared" si="46"/>
-        <v>い。</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <f t="shared" si="50"/>
-        <v>58</v>
-      </c>
-      <c r="I141" t="s">
-        <v>153</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="52"/>
-        <v>32</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="M141">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="N141">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -10035,19 +10061,19 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「ごっめ〜ん！先にきてたん </v>
+        <v xml:space="preserve">「私もそこのパンケーキすご </v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="45"/>
-        <v>だね、待った？」</v>
-      </c>
-      <c r="D142">
+        <v>く食べたかったし、いいよー！</v>
+      </c>
+      <c r="D142" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>」</v>
       </c>
       <c r="E142">
         <f t="shared" si="47"/>
@@ -10063,10 +10089,10 @@
       </c>
       <c r="H142">
         <f t="shared" si="50"/>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I142" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J142">
         <f t="shared" si="51"/>
@@ -10074,11 +10100,11 @@
       </c>
       <c r="K142">
         <f t="shared" si="52"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L142">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M142">
         <f t="shared" si="44"/>
@@ -10099,15 +10125,15 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「こっちが早めに着いちゃっ </v>
+        <v xml:space="preserve">「じゃあ土曜日に学校の近く </v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="45"/>
-        <v>ただけだから大丈夫だよ。」</v>
+        <v>の商店街で待ち合わせね！」</v>
       </c>
       <c r="D143">
         <f t="shared" si="46"/>
@@ -10130,7 +10156,7 @@
         <v>52</v>
       </c>
       <c r="I143" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="J143">
         <f t="shared" si="51"/>
@@ -10163,19 +10189,19 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">私達はそれぞれ好みのトッピ </v>
-      </c>
-      <c r="C144" t="str">
+        <v>[当日]</v>
+      </c>
+      <c r="C144">
         <f t="shared" si="45"/>
-        <v>ングが乗ったパンケーキを選ん</v>
-      </c>
-      <c r="D144" t="str">
+        <v>0</v>
+      </c>
+      <c r="D144">
         <f t="shared" si="46"/>
-        <v>だ。</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <f t="shared" si="47"/>
@@ -10191,22 +10217,22 @@
       </c>
       <c r="H144">
         <f t="shared" si="50"/>
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J144">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <f t="shared" si="52"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L144">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M144">
         <f t="shared" si="54"/>
@@ -10227,19 +10253,19 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「お待たせいたしました。ご </v>
+        <v xml:space="preserve">……早めに着いちゃった。さ </v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="45"/>
-        <v>注文のパンケーキでございます</v>
+        <v>すがに桜児くんも来てないみた</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="46"/>
-        <v>。」</v>
+        <v>い。</v>
       </c>
       <c r="E145">
         <f t="shared" si="47"/>
@@ -10258,7 +10284,7 @@
         <v>58</v>
       </c>
       <c r="I145" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J145">
         <f t="shared" si="51"/>
@@ -10291,1216 +10317,1726 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「わ〜っ！おいしそう！みて </v>
+        <v xml:space="preserve">「ごっめ〜ん！先にきてたん </v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="45"/>
+        <v>だね、待った？」</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="50"/>
+        <v>41</v>
+      </c>
+      <c r="I146" t="s">
+        <v>153</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="52"/>
+        <v>15</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「こっちが早めに着いちゃっ </v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="45"/>
+        <v>ただけだから大丈夫だよ。」</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="50"/>
+        <v>52</v>
+      </c>
+      <c r="I147" t="s">
+        <v>154</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I148"/>
+      <c r="J148">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">私達はそれぞれ好みのトッピ </v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="45"/>
+        <v>ングが乗ったパンケーキを選ん</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="46"/>
+        <v>だ。</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="50"/>
+        <v>58</v>
+      </c>
+      <c r="I149" t="s">
+        <v>155</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="52"/>
+        <v>32</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「お待たせいたしました。ご </v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="45"/>
+        <v>注文のパンケーキでございます</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="46"/>
+        <v>。」</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="50"/>
+        <v>58</v>
+      </c>
+      <c r="I150" t="s">
+        <v>156</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="52"/>
+        <v>32</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「わ〜っ！おいしそう！みて </v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="45"/>
         <v>みて！この飾りのクッキー可愛</v>
       </c>
-      <c r="D146" t="str">
+      <c r="D151" t="str">
         <f t="shared" si="46"/>
         <v>い〜っ！イ〇スタに載せちゃお</v>
       </c>
-      <c r="E146" t="str">
+      <c r="E151" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve"> ！」</v>
       </c>
-      <c r="F146">
+      <c r="F151">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G146">
+      <c r="G151">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H146">
+      <c r="H151">
         <f t="shared" si="50"/>
         <v>84</v>
       </c>
-      <c r="I146" t="s">
-        <v>158</v>
-      </c>
-      <c r="J146">
+      <c r="I151" t="s">
+        <v>157</v>
+      </c>
+      <c r="J151">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K146">
+      <c r="K151">
         <f t="shared" si="52"/>
         <v>58</v>
       </c>
-      <c r="L146">
+      <c r="L151">
         <f t="shared" si="54"/>
         <v>30</v>
       </c>
-      <c r="M146">
+      <c r="M151">
         <f t="shared" si="54"/>
         <v>2</v>
       </c>
-      <c r="N146">
+      <c r="N151">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O146">
+      <c r="O151">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P146">
+      <c r="P151">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A147">
-        <v>136</v>
-      </c>
-      <c r="B147" t="str">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">桜児くんいつもよりテンショ </v>
       </c>
-      <c r="C147" t="str">
+      <c r="C152" t="str">
         <f t="shared" si="45"/>
         <v>ン高い。見た目はおじさんに見</v>
       </c>
-      <c r="D147" t="str">
+      <c r="D152" t="str">
         <f t="shared" si="46"/>
         <v>えてるけど私より女子高生みた</v>
       </c>
-      <c r="E147" t="str">
+      <c r="E152" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve"> いなテンションだ……</v>
       </c>
-      <c r="F147">
+      <c r="F152">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G147">
+      <c r="G152">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H147">
+      <c r="H152">
         <f t="shared" si="50"/>
         <v>102</v>
       </c>
-      <c r="I147" t="s">
-        <v>159</v>
-      </c>
-      <c r="J147">
+      <c r="I152" t="s">
+        <v>158</v>
+      </c>
+      <c r="J152">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K147">
+      <c r="K152">
         <f t="shared" si="52"/>
         <v>76</v>
       </c>
-      <c r="L147">
+      <c r="L152">
         <f t="shared" si="54"/>
         <v>48</v>
       </c>
-      <c r="M147">
+      <c r="M152">
         <f t="shared" si="54"/>
         <v>20</v>
       </c>
-      <c r="N147">
+      <c r="N152">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O147">
+      <c r="O152">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P147">
+      <c r="P152">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A148">
-        <v>136</v>
-      </c>
-      <c r="B148" t="str">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">「私もイ〇スタにパンケーキ </v>
       </c>
-      <c r="C148" t="str">
+      <c r="C153" t="str">
         <f t="shared" si="45"/>
         <v>の写真のせよう！」</v>
       </c>
-      <c r="D148">
+      <c r="D153">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E148">
+      <c r="E153">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F148">
+      <c r="F153">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G148">
+      <c r="G153">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H148">
+      <c r="H153">
         <f t="shared" si="50"/>
         <v>44</v>
       </c>
-      <c r="I148" t="s">
-        <v>160</v>
-      </c>
-      <c r="J148">
+      <c r="I153" t="s">
+        <v>159</v>
+      </c>
+      <c r="J153">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K148">
+      <c r="K153">
         <f t="shared" si="52"/>
         <v>18</v>
       </c>
-      <c r="L148">
+      <c r="L153">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="M148">
+      <c r="M153">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="N148">
+      <c r="N153">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O148">
+      <c r="O153">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P148">
+      <c r="P153">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A149">
-        <v>136</v>
-      </c>
-      <c r="B149" t="str">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">元々乙女ゲームしてばっかり </v>
       </c>
-      <c r="C149" t="str">
+      <c r="C154" t="str">
         <f t="shared" si="45"/>
         <v>しててイ○スタは投稿してなか</v>
       </c>
-      <c r="D149" t="str">
+      <c r="D154" t="str">
         <f t="shared" si="46"/>
         <v>ったけど、桜児くんといると私</v>
       </c>
-      <c r="E149" t="str">
+      <c r="E154" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve"> もつられてイ〇スタに投稿し </v>
       </c>
-      <c r="F149" t="str">
+      <c r="F154" t="str">
         <f t="shared" si="48"/>
         <v>たくなっちゃった。</v>
       </c>
-      <c r="G149">
+      <c r="G154">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H149">
+      <c r="H154">
         <f t="shared" si="50"/>
         <v>126</v>
       </c>
-      <c r="I149" t="s">
-        <v>161</v>
-      </c>
-      <c r="J149">
+      <c r="I154" t="s">
+        <v>160</v>
+      </c>
+      <c r="J154">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K149">
+      <c r="K154">
         <f t="shared" si="52"/>
         <v>100</v>
       </c>
-      <c r="L149">
+      <c r="L154">
         <f t="shared" si="54"/>
         <v>72</v>
       </c>
-      <c r="M149">
+      <c r="M154">
         <f t="shared" si="54"/>
         <v>44</v>
       </c>
-      <c r="N149">
+      <c r="N154">
         <f t="shared" si="54"/>
         <v>16</v>
       </c>
-      <c r="O149">
+      <c r="O154">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P149">
+      <c r="P154">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A150">
-        <v>136</v>
-      </c>
-      <c r="B150" t="str">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">           </v>
       </c>
-      <c r="C150">
+      <c r="C155">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="D150">
+      <c r="D155">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E150">
+      <c r="E155">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F150">
+      <c r="F155">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G150">
+      <c r="G155">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H150">
+      <c r="H155">
         <f t="shared" si="50"/>
         <v>11</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I155" t="s">
         <v>80</v>
       </c>
-      <c r="J150">
+      <c r="J155">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="K150">
+      <c r="K155">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="L150">
+      <c r="L155">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="M150">
+      <c r="M155">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="N150">
+      <c r="N155">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O150">
+      <c r="O155">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P150">
+      <c r="P155">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A151">
-        <v>136</v>
-      </c>
-      <c r="B151" t="str">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">「あ〜！パンケーキおいしか </v>
       </c>
-      <c r="C151" t="str">
+      <c r="C156" t="str">
         <f t="shared" si="45"/>
         <v>った！」</v>
       </c>
-      <c r="D151">
+      <c r="D156">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E151">
+      <c r="E156">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F151">
+      <c r="F156">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G151">
+      <c r="G156">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H151">
+      <c r="H156">
         <f t="shared" si="50"/>
         <v>33</v>
       </c>
-      <c r="I151" t="s">
-        <v>162</v>
-      </c>
-      <c r="J151">
+      <c r="I156" t="s">
+        <v>161</v>
+      </c>
+      <c r="J156">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K151">
+      <c r="K156">
         <f t="shared" si="52"/>
         <v>7</v>
       </c>
-      <c r="L151">
+      <c r="L156">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="M151">
+      <c r="M156">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="N151">
+      <c r="N156">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O151">
+      <c r="O156">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P151">
+      <c r="P156">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A152">
-        <v>136</v>
-      </c>
-      <c r="B152" t="str">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">「奢ってくれてありがとう… </v>
       </c>
-      <c r="C152" t="str">
+      <c r="C157" t="str">
         <f t="shared" si="45"/>
         <v>…本当に大丈夫なの？」</v>
       </c>
-      <c r="D152">
+      <c r="D157">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E152">
+      <c r="E157">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F152">
+      <c r="F157">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G152">
+      <c r="G157">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H152">
+      <c r="H157">
         <f t="shared" si="50"/>
         <v>48</v>
       </c>
-      <c r="I152" t="s">
-        <v>163</v>
-      </c>
-      <c r="J152">
+      <c r="I157" t="s">
+        <v>162</v>
+      </c>
+      <c r="J157">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K152">
+      <c r="K157">
         <f t="shared" si="52"/>
         <v>22</v>
       </c>
-      <c r="L152">
+      <c r="L157">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="M152">
+      <c r="M157">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="N152">
+      <c r="N157">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O152">
+      <c r="O157">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P152">
+      <c r="P157">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A153">
-        <v>136</v>
-      </c>
-      <c r="B153" t="str">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">「カップル割でパンケーキ食 </v>
       </c>
-      <c r="C153" t="str">
+      <c r="C158" t="str">
         <f t="shared" si="45"/>
         <v>べよって誘ったの僕だし全然い</v>
       </c>
-      <c r="D153" t="str">
+      <c r="D158" t="str">
         <f t="shared" si="46"/>
         <v>いよー！ファンサだよっ！」</v>
       </c>
-      <c r="E153">
+      <c r="E158">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F153">
+      <c r="F158">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G153">
+      <c r="G158">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H153">
+      <c r="H158">
         <f t="shared" si="50"/>
         <v>80</v>
       </c>
-      <c r="I153" t="s">
-        <v>164</v>
-      </c>
-      <c r="J153">
+      <c r="I158" t="s">
+        <v>163</v>
+      </c>
+      <c r="J158">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K153">
+      <c r="K158">
         <f t="shared" si="52"/>
         <v>54</v>
       </c>
-      <c r="L153">
+      <c r="L158">
         <f t="shared" si="54"/>
         <v>26</v>
       </c>
-      <c r="M153">
+      <c r="M158">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="N153">
+      <c r="N158">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O153">
+      <c r="O158">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P153">
+      <c r="P158">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A154">
-        <v>136</v>
-      </c>
-      <c r="B154" t="str">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">今の見た目がおじさんなせい </v>
       </c>
-      <c r="C154" t="str">
+      <c r="C159" t="str">
         <f t="shared" si="45"/>
         <v>でパパ活してる人みたいな気分</v>
       </c>
-      <c r="D154" t="str">
+      <c r="D159" t="str">
         <f t="shared" si="46"/>
         <v>になっちゃったけど。</v>
       </c>
-      <c r="E154">
+      <c r="E159">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F154">
+      <c r="F159">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G154">
+      <c r="G159">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H154">
+      <c r="H159">
         <f t="shared" si="50"/>
         <v>74</v>
       </c>
-      <c r="I154" t="s">
-        <v>165</v>
-      </c>
-      <c r="J154">
+      <c r="I159" t="s">
+        <v>164</v>
+      </c>
+      <c r="J159">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K154">
+      <c r="K159">
         <f t="shared" si="52"/>
         <v>48</v>
       </c>
-      <c r="L154">
-        <f t="shared" si="54"/>
+      <c r="L159">
+        <f t="shared" ref="L159:P172" si="55">IF(K159&gt;26,K159-28, 0)</f>
         <v>20</v>
       </c>
-      <c r="M154">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N154">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O154">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P154">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A155">
-        <v>136</v>
-      </c>
-      <c r="B155" t="str">
+      <c r="M159">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">「ねぇねぇ！折角だしツーシ </v>
       </c>
-      <c r="C155" t="str">
+      <c r="C160" t="str">
         <f t="shared" si="45"/>
         <v>ョ撮らない？これもファンサっ</v>
       </c>
-      <c r="D155" t="str">
+      <c r="D160" t="str">
         <f t="shared" si="46"/>
         <v>てことで！」</v>
       </c>
-      <c r="E155">
+      <c r="E160">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F155">
+      <c r="F160">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G155">
+      <c r="G160">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H155">
+      <c r="H160">
         <f t="shared" si="50"/>
         <v>66</v>
       </c>
-      <c r="I155" t="s">
-        <v>166</v>
-      </c>
-      <c r="J155">
+      <c r="I160" t="s">
+        <v>165</v>
+      </c>
+      <c r="J160">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K155">
+      <c r="K160">
         <f t="shared" si="52"/>
         <v>40</v>
       </c>
-      <c r="L155">
-        <f t="shared" si="54"/>
+      <c r="L160">
+        <f t="shared" si="55"/>
         <v>12</v>
       </c>
-      <c r="M155">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N155">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O155">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A156">
-        <v>136</v>
-      </c>
-      <c r="B156" t="str">
+      <c r="M160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">桜児くんはファンサって言い </v>
       </c>
-      <c r="C156" t="str">
+      <c r="C161" t="str">
         <f t="shared" si="45"/>
         <v>ながら色んなことをしてくれる</v>
       </c>
-      <c r="D156" t="str">
+      <c r="D161" t="str">
         <f t="shared" si="46"/>
         <v>なぁ。</v>
       </c>
-      <c r="E156">
+      <c r="E161">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F156">
+      <c r="F161">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G156">
+      <c r="G161">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H156">
+      <c r="H161">
         <f t="shared" si="50"/>
         <v>60</v>
       </c>
-      <c r="I156" t="s">
-        <v>167</v>
-      </c>
-      <c r="J156">
+      <c r="I161" t="s">
+        <v>166</v>
+      </c>
+      <c r="J161">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K156">
+      <c r="K161">
         <f t="shared" si="52"/>
         <v>34</v>
       </c>
-      <c r="L156">
-        <f t="shared" si="54"/>
+      <c r="L161">
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
-      <c r="M156">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O156">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P156">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A157">
-        <v>136</v>
-      </c>
-      <c r="B157" t="str">
+      <c r="M161">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="str">
         <f t="shared" si="53"/>
         <v>「こっちきて！撮るよ〜」</v>
       </c>
-      <c r="C157">
+      <c r="C162">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="D157">
+      <c r="D162">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E157">
+      <c r="E162">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F157">
+      <c r="F162">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G157">
+      <c r="G162">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H157">
+      <c r="H162">
         <f t="shared" si="50"/>
         <v>23</v>
       </c>
-      <c r="I157" t="s">
-        <v>168</v>
-      </c>
-      <c r="J157">
+      <c r="I162" t="s">
+        <v>167</v>
+      </c>
+      <c r="J162">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="K157">
+      <c r="K162">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="L157">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O157">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P157">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A158">
-        <v>136</v>
-      </c>
-      <c r="B158" t="str">
+      <c r="L162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="str">
         <f t="shared" si="53"/>
-        <v>「うん！いい感じ！[主人公の</v>
-      </c>
-      <c r="C158" t="str">
+        <v xml:space="preserve">「うん！いい感じ！二人とも </v>
+      </c>
+      <c r="C163" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> 名前]ちゃんも僕も盛れてる〜</v>
-      </c>
-      <c r="D158" t="str">
+        <v>盛れてる〜っ！」</v>
+      </c>
+      <c r="D163">
         <f t="shared" si="46"/>
-        <v>っ！」</v>
-      </c>
-      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="E163">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F158">
+      <c r="F163">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G158">
+      <c r="G163">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H158">
+      <c r="H163">
         <f t="shared" si="50"/>
-        <v>59</v>
-      </c>
-      <c r="I158" t="s">
-        <v>169</v>
-      </c>
-      <c r="J158">
+        <v>41</v>
+      </c>
+      <c r="I163" t="s">
+        <v>180</v>
+      </c>
+      <c r="J163">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K158">
+      <c r="K163">
         <f t="shared" si="52"/>
-        <v>33</v>
-      </c>
-      <c r="L158">
-        <f t="shared" si="54"/>
-        <v>5</v>
-      </c>
-      <c r="M158">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N158">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O158">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P158">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A159">
-        <v>136</v>
-      </c>
-      <c r="B159" t="str">
+        <v>15</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
       </c>
-      <c r="C159" t="str">
+      <c r="C164" t="str">
         <f t="shared" si="45"/>
         <v>が普通の男の子に戻った時のた</v>
       </c>
-      <c r="D159" t="str">
+      <c r="D164" t="str">
         <f t="shared" si="46"/>
         <v>めに写真大切に残しとかなきゃ</v>
       </c>
-      <c r="E159" t="str">
+      <c r="E164" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve"> ！</v>
       </c>
-      <c r="F159">
+      <c r="F164">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G159">
+      <c r="G164">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H159">
+      <c r="H164">
         <f t="shared" si="50"/>
         <v>84</v>
       </c>
-      <c r="I159" t="s">
-        <v>170</v>
-      </c>
-      <c r="J159">
+      <c r="I164" t="s">
+        <v>168</v>
+      </c>
+      <c r="J164">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K159">
+      <c r="K164">
         <f t="shared" si="52"/>
         <v>58</v>
       </c>
-      <c r="L159">
-        <f t="shared" ref="L159:P164" si="55">IF(K159&gt;26,K159-28, 0)</f>
+      <c r="L164">
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
-      <c r="M159">
+      <c r="M164">
         <f t="shared" si="55"/>
         <v>2</v>
       </c>
-      <c r="N159">
+      <c r="N164">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="O159">
+      <c r="O164">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="P159">
+      <c r="P164">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A160">
-        <v>136</v>
-      </c>
-      <c r="B160" t="str">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">「これもイ〇スタにのせるの </v>
       </c>
-      <c r="C160" t="str">
+      <c r="C165" t="str">
         <f t="shared" si="45"/>
         <v>？」</v>
       </c>
-      <c r="D160">
+      <c r="D165">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E160">
+      <c r="E165">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F160">
+      <c r="F165">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G160">
+      <c r="G165">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H160">
+      <c r="H165">
         <f t="shared" si="50"/>
         <v>30</v>
       </c>
-      <c r="I160" t="s">
-        <v>171</v>
-      </c>
-      <c r="J160">
+      <c r="I165" t="s">
+        <v>169</v>
+      </c>
+      <c r="J165">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K160">
+      <c r="K165">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="L160">
+      <c r="L165">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="M160">
+      <c r="M165">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N160">
+      <c r="N165">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="O160">
+      <c r="O165">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="P160">
+      <c r="P165">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A161">
-        <v>136</v>
-      </c>
-      <c r="B161" t="str">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="str">
         <f t="shared" si="53"/>
-        <v>「んーん！これは[主人公の名</v>
-      </c>
-      <c r="C161" t="str">
+        <v xml:space="preserve">「んーん！これは二人だけの </v>
+      </c>
+      <c r="C166" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> 前]ちゃんと僕だけの写真だよ</v>
-      </c>
-      <c r="D161" t="str">
+        <v>写真だよ。可愛い子との写真を</v>
+      </c>
+      <c r="D166" t="str">
         <f t="shared" si="46"/>
-        <v>。可愛い子との写真を載せたら</v>
-      </c>
-      <c r="E161" t="str">
+        <v>載せたら他の子達が嫉妬しちゃ</v>
+      </c>
+      <c r="E166" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve"> 他の子達が嫉妬しちゃうから </v>
-      </c>
-      <c r="F161" t="str">
+        <v xml:space="preserve"> うから！」</v>
+      </c>
+      <c r="F166">
         <f t="shared" si="48"/>
-        <v>！」</v>
-      </c>
-      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="G166">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H161">
+      <c r="H166">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="I161" t="s">
-        <v>172</v>
-      </c>
-      <c r="J161">
+        <v>92</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J166">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K161">
+      <c r="K166">
         <f t="shared" si="52"/>
-        <v>86</v>
-      </c>
-      <c r="L161">
+        <v>66</v>
+      </c>
+      <c r="L166">
         <f t="shared" si="55"/>
-        <v>58</v>
-      </c>
-      <c r="M161">
+        <v>38</v>
+      </c>
+      <c r="M166">
         <f t="shared" si="55"/>
-        <v>30</v>
-      </c>
-      <c r="N161">
+        <v>10</v>
+      </c>
+      <c r="N166">
         <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="O166">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="P161">
+      <c r="P166">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A162">
-        <v>136</v>
-      </c>
-      <c r="B162" t="str">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
       </c>
-      <c r="C162" t="str">
+      <c r="C167" t="str">
         <f t="shared" si="45"/>
         <v>たかったよ〜！呪いを解くため</v>
       </c>
-      <c r="D162" t="str">
+      <c r="D167" t="str">
         <f t="shared" si="46"/>
         <v>にがんばらなきゃ。</v>
       </c>
-      <c r="E162">
+      <c r="E167">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F162">
+      <c r="F167">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G162">
+      <c r="G167">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H162">
+      <c r="H167">
         <f t="shared" si="50"/>
         <v>70</v>
       </c>
-      <c r="I162" t="s">
-        <v>173</v>
-      </c>
-      <c r="J162">
+      <c r="I167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J167">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K162">
+      <c r="K167">
         <f t="shared" si="52"/>
         <v>44</v>
       </c>
-      <c r="L162">
+      <c r="L167">
         <f t="shared" si="55"/>
         <v>16</v>
       </c>
-      <c r="M162">
+      <c r="M167">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N162">
+      <c r="N167">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="O162">
+      <c r="O167">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="P162">
+      <c r="P167">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A163">
-        <v>136</v>
-      </c>
-      <c r="B163" t="str">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">今月はお小遣い使い過ぎちゃ </v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="45"/>
+        <v>ってパンケーキを食べる余裕は</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="46"/>
+        <v>ないな……</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="50"/>
+        <v>64</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="52"/>
+        <v>38</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">「パンケーキ食べたかったけ </v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="45"/>
+        <v>ど今月金欠で行けそうにないな</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="46"/>
+        <v>！ごめんね！」</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="50"/>
+        <v>68</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="52"/>
+        <v>42</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="55"/>
+        <v>14</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">「そういうときもあるよね〜 </v>
       </c>
-      <c r="C163" t="str">
+      <c r="C170" t="str">
         <f t="shared" si="45"/>
         <v>！他の人誘うから気にしないで</v>
       </c>
-      <c r="D163" t="str">
+      <c r="D170" t="str">
         <f t="shared" si="46"/>
         <v>！」</v>
       </c>
-      <c r="E163">
+      <c r="E170">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F163">
+      <c r="F170">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G163">
+      <c r="G170">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H163">
+      <c r="H170">
         <f t="shared" si="50"/>
         <v>57</v>
       </c>
-      <c r="I163" t="s">
-        <v>174</v>
-      </c>
-      <c r="J163">
+      <c r="I170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J170">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K163">
+      <c r="K170">
         <f t="shared" si="52"/>
         <v>31</v>
       </c>
-      <c r="L163">
+      <c r="L170">
         <f t="shared" si="55"/>
         <v>3</v>
       </c>
-      <c r="M163">
+      <c r="M170">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N163">
+      <c r="N170">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="O163">
+      <c r="O170">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="P163">
+      <c r="P170">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A164">
-        <v>136</v>
-      </c>
-      <c r="B164" t="str">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">か、悲しい……また金欠にな </v>
       </c>
-      <c r="C164" t="str">
+      <c r="C171" t="str">
         <f t="shared" si="45"/>
         <v>らないようにバイトして稼がな</v>
       </c>
-      <c r="D164" t="str">
+      <c r="D171" t="str">
         <f t="shared" si="46"/>
         <v>いと！</v>
       </c>
-      <c r="E164">
+      <c r="E171">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F164">
+      <c r="F171">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G164">
+      <c r="G171">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="H164">
+      <c r="H171">
         <f t="shared" si="50"/>
         <v>60</v>
       </c>
-      <c r="I164" t="s">
-        <v>175</v>
-      </c>
-      <c r="J164">
+      <c r="I171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J171">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="K164">
+      <c r="K171">
         <f t="shared" si="52"/>
         <v>34</v>
       </c>
-      <c r="L164">
+      <c r="L171">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
-      <c r="M164">
+      <c r="M171">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N164">
+      <c r="N171">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="O164">
+      <c r="O171">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="P164">
+      <c r="P171">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">                           </v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="50"/>
+        <v>27</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P172">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E4E28-7835-4565-8B79-7B79B496E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F968394-5735-48FC-A543-7E3CE64722CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -661,6 +661,186 @@
       <t>フタリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[体育館]</t>
+  </si>
+  <si>
+    <t>今日は体育祭。昨日まで天気が不安だったけど、無事に晴れてよかった！</t>
+  </si>
+  <si>
+    <t>私は小道具の係になったから朝から忙しいし気合い入れて頑張ろう！</t>
+  </si>
+  <si>
+    <t>────皆よりもちょっと遅めに来ちゃったから軽めの荷物は運ばれちゃったみたい……</t>
+  </si>
+  <si>
+    <t>さっき気合い入れて頑張ろうとしてたのに、重そうな小道具ばかりでやる気なくなりそう。</t>
+  </si>
+  <si>
+    <t>でも係の仕事だしそんなこと言ってられないよね。頑張るぞ！</t>
+  </si>
+  <si>
+    <t>｢ぐぐぐ、重い！｣</t>
+  </si>
+  <si>
+    <t>なんとか持てたけどフラフラしちゃう、よ……わっ！</t>
+  </si>
+  <si>
+    <t>｢［主人公の名前］先輩、大丈夫？！｣</t>
+  </si>
+  <si>
+    <t>｢琉絆空くん？！｣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>｢女の子がこんなに重い荷物持っちゃだめだろ？俺が持つからさ！｣</t>
+  </si>
+  <si>
+    <t>｢あ、ありがとう……！｣</t>
+  </si>
+  <si>
+    <t>へ〜、おじさんって力持ちなんだな〜。</t>
+  </si>
+  <si>
+    <t>ってちがうちがう！呪いのせいでそう見えてるだけで高校生の男子なんだった。</t>
+  </si>
+  <si>
+    <t>最近おじさんの姿のOG☆3に見慣れてきてる！あの性格の悪い銅像に洗脳されちゃうよ〜！</t>
+  </si>
+  <si>
+    <t>[運動場]</t>
+  </si>
+  <si>
+    <t>琉絆空くんの協力のおかげで無事に係の仕事も終わってよかった！</t>
+  </si>
+  <si>
+    <t>私の出番はまだだから友達の応援でもしようかな。</t>
+  </si>
+  <si>
+    <t>｢キャーーーーｯ！！｣</t>
+  </si>
+  <si>
+    <t>？！！</t>
+  </si>
+  <si>
+    <t>女子たちの歓声が聞こえてくる。なんだろう？</t>
+  </si>
+  <si>
+    <t>｢桜児くんがんばってー！｣</t>
+  </si>
+  <si>
+    <t>歓声を向けられている方を見ると、リレーのアンカーとしてバトンを待つ桜児くんが見えた。</t>
+  </si>
+  <si>
+    <t>桜児くんの前の人は一位と大差つけられて二位みたい。</t>
+  </si>
+  <si>
+    <t>おじさんの呪いをかけられる前の桜児くんを思い出すと、小柄で女の子みたいだし大丈夫かな……？</t>
+  </si>
+  <si>
+    <t>ちょっと心配だけど桜児くんにがんばってほしいし私も応援しよう！</t>
+  </si>
+  <si>
+    <t>｢桜児くんがんばれーー！！｣</t>
+  </si>
+  <si>
+    <t>ついに桜児くんにバトンが渡ったその時​─────</t>
+  </si>
+  <si>
+    <t>｢おまたせ〜！ごめんね一位の人！抜かしちゃうよ！｣</t>
+  </si>
+  <si>
+    <t>｢キャーーー！｣</t>
+  </si>
+  <si>
+    <t>桜児くん速い！あっという間に一位の人を抜かしちゃった！</t>
+  </si>
+  <si>
+    <t>桜児くんって見かけによらず運動神経よかったんだ……</t>
+  </si>
+  <si>
+    <t>リレーが終わって桜児くんは応援席にきてくれた。</t>
+  </si>
+  <si>
+    <t>｢桜児くんお疲れ様！｣</t>
+  </si>
+  <si>
+    <t>｢[主人公の名前]ちゃん、応援ありがとうね！次の綱引き出るんだよね？がんばれ〜！｣</t>
+  </si>
+  <si>
+    <t>桜児くんはやっぱりファンサが手厚いな〜。応援してくれてるし、綱引きがんばるぞ！</t>
+  </si>
+  <si>
+    <t>｢位置について、よーい……｣</t>
+  </si>
+  <si>
+    <t>ピストルの音がなる。</t>
+  </si>
+  <si>
+    <t>相手のチームすごい力だ……！力には自信ないけど頑張らなくちゃ！</t>
+  </si>
+  <si>
+    <t>自分たちのチームも負けじと綱を引いている。いい感じ！</t>
+  </si>
+  <si>
+    <t>｢うっ！痛い｣</t>
+  </si>
+  <si>
+    <t>手と綱が擦れてすごく痛い……！</t>
+  </si>
+  <si>
+    <t>でも、もう少しで勝てそう！我慢我慢……</t>
+  </si>
+  <si>
+    <t>その時、相手チームか凄い力で綱を引いてきた。</t>
+  </si>
+  <si>
+    <t>｢わっ！｣</t>
+  </si>
+  <si>
+    <t>｢っ……！｣</t>
+  </si>
+  <si>
+    <t>凄い勢いで転けちゃった、恥ずかしい……</t>
+  </si>
+  <si>
+    <t>｢怪我をしている……この様子だと大丈夫そうではないな。保健室に向かおう。｣</t>
+  </si>
+  <si>
+    <t>｢なんで先輩が……って、えっ？！！｣</t>
+  </si>
+  <si>
+    <t>私、お姫様だっこされてる？！！</t>
+  </si>
+  <si>
+    <t>｢僕はリレーなどは得意ではないから綱引きに出たんだ。おかげで[主人公の名前]を助けることができてよかった。｣</t>
+  </si>
+  <si>
+    <t>｢あの子目鏡生徒会長にお姫様だっこされてる、いいな〜……｣</t>
+  </si>
+  <si>
+    <t>ひぃ、そうだった、光先輩って本来はイケメンなんだった。</t>
+  </si>
+  <si>
+    <t>周りの女子たちに羨望の眼差しで見られてる……</t>
+  </si>
+  <si>
+    <t>[保健室]</t>
+  </si>
+  <si>
+    <t>｢あの、光先輩！保健室まで運んでくださってありがとうございます。すみません、迷惑をかけちゃって……｣</t>
+  </si>
+  <si>
+    <t>｢気にしないでくれ。一生懸命頑張った結果だからな。｣</t>
+  </si>
+  <si>
+    <t>やっぱり光先輩って優しいな……</t>
+  </si>
+  <si>
+    <t>無事に体育祭が終わった。今日は色んな人に助けられた一日だったな……今度お礼をしなくちゃ！</t>
   </si>
 </sst>
 </file>
@@ -1030,13 +1210,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P172"/>
+  <dimension ref="A1:P237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C172" sqref="C172"/>
+      <selection pane="bottomRight" activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9364,38 +9544,38 @@
         <v xml:space="preserve">「最近学園の近くにパンケー </v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C172" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <f t="shared" ref="C131:C194" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
         <v>キ屋さんができたんだって〜！</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D172" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <f t="shared" ref="D131:D194" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
         <v>今度行かない？」</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E172" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E131:E194" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F172" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F131:F194" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G172" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G131:G194" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H172" si="50">LENB(I131)</f>
+        <f t="shared" ref="H131:H194" si="50">LENB(I131)</f>
         <v>69</v>
       </c>
       <c r="I131" t="s">
         <v>143</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J172" si="51">IF(H131&gt;26, 1, 0)</f>
+        <f t="shared" ref="J131:J194" si="51">IF(H131&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K172" si="52">IF(J131,H131-26, 0)</f>
+        <f t="shared" ref="K131:K194" si="52">IF(J131,H131-26, 0)</f>
         <v>43</v>
       </c>
       <c r="L131">
@@ -9424,7 +9604,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B172" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <f t="shared" ref="B132:B195" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
         <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
       </c>
       <c r="C132" t="str">
@@ -11189,7 +11369,7 @@
         <v>48</v>
       </c>
       <c r="L159">
-        <f t="shared" ref="L159:P172" si="55">IF(K159&gt;26,K159-28, 0)</f>
+        <f t="shared" ref="L159:P174" si="55">IF(K159&gt;26,K159-28, 0)</f>
         <v>20</v>
       </c>
       <c r="M159">
@@ -12038,6 +12218,4166 @@
       </c>
       <c r="P172">
         <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="53"/>
+        <v>[体育館]</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">今日は体育祭。昨日まで天気 </v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="45"/>
+        <v>が不安だったけど、無事に晴れ</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="46"/>
+        <v>てよかった！</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="50"/>
+        <v>66</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="52"/>
+        <v>40</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="55"/>
+        <v>12</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">私は小道具の係になったから </v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="45"/>
+        <v>朝から忙しいし気合い入れて頑</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="46"/>
+        <v>張ろう！</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="50"/>
+        <v>62</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="52"/>
+        <v>36</v>
+      </c>
+      <c r="L175">
+        <f t="shared" ref="L175:P237" si="56">IF(K175&gt;26,K175-28, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">────皆よりもちょっと遅 </v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="45"/>
+        <v>めに来ちゃったから軽めの荷物</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="46"/>
+        <v>は運ばれちゃったみたい……</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="50"/>
+        <v>80</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="52"/>
+        <v>54</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="56"/>
+        <v>26</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">さっき気合い入れて頑張ろう </v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="45"/>
+        <v>としてたのに、重そうな小道具</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="46"/>
+        <v>ばかりでやる気なくなりそう。</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="50"/>
+        <v>82</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="52"/>
+        <v>56</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">でも係の仕事だしそんなこと </v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="45"/>
+        <v>言ってられないよね。頑張るぞ</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="46"/>
+        <v>！</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="50"/>
+        <v>56</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="52"/>
+        <v>30</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <f t="shared" ref="P178:P237" si="57">IF(O178&gt;26,O178-28, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="53"/>
+        <v>｢ぐぐぐ、重い！｣</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">なんとか持てたけどフラフラ </v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="45"/>
+        <v>しちゃう、よ……わっ！</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="50"/>
+        <v>48</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="53"/>
+        <v>｢［主人公の名前］先輩、大丈</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> 夫？！｣</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="53"/>
+        <v>｢琉絆空くん？！｣</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="53"/>
+        <v>｢女の子がこんなに重い荷物持</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> っちゃだめだろ？俺が持つか </v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> さ！｣</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="50"/>
+        <v>60</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="53"/>
+        <v>｢あ、ありがとう……！｣</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="50"/>
+        <v>22</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">へ〜、おじさんって力持ちな </v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="45"/>
+        <v>んだな〜。</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">ってちがうちがう！呪いのせ </v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="45"/>
+        <v>いでそう見えてるだけで高校生</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="46"/>
+        <v>の男子なんだった。</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="50"/>
+        <v>72</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="52"/>
+        <v>46</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="53"/>
+        <v>最近おじさんの姿のOG☆3に見</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> 慣れてきてる！あの性格の悪 </v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> 銅像に洗脳されちゃうよ〜！</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="50"/>
+        <v>80</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="52"/>
+        <v>54</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="56"/>
+        <v>26</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="53"/>
+        <v>[運動場]</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">琉絆空くんの協力のおかげで </v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="45"/>
+        <v>無事に係の仕事も終わってよか</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="46"/>
+        <v>った！</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="50"/>
+        <v>60</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">私の出番はまだだから友達の </v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="45"/>
+        <v>応援でもしようかな。</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="50"/>
+        <v>46</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="53"/>
+        <v>｢キャーーーーｯ！！｣</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="50"/>
+        <v>19</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="53"/>
+        <v>？！！</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">女子たちの歓声が聞こえてく </v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="45"/>
+        <v>る。なんだろう？</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="50"/>
+        <v>42</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="52"/>
+        <v>16</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="53"/>
+        <v>｢桜児くんがんばってー！｣</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C237" si="58">IF(K195&gt;0,MIDB(I195, 27, 28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D237" si="59">IF(L195&gt;0, MIDB(I195, 27+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E238" si="60">IF(M195&gt;0, MIDB(I195, 27*2+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F237" si="61">IF(N195&gt;0, MIDB(I195, 27*3+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G237" si="62">IF(O195&gt;0, MIDB(I195, 27*4+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H237" si="63">LENB(I195)</f>
+        <v>24</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J195">
+        <f t="shared" ref="J195:J237" si="64">IF(H195&gt;26, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <f t="shared" ref="K195:K237" si="65">IF(J195,H195-26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" ref="B196:B237" si="66">IF(J196,LEFTB(I196, 27), I196)</f>
+        <v xml:space="preserve">歓声を向けられている方を見 </v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="58"/>
+        <v>ると、リレーのアンカーとして</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="59"/>
+        <v>バトンを待つ桜児くんが見えた</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> 。</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="63"/>
+        <v>84</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="65"/>
+        <v>58</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くんの前の人は一位と大 </v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="58"/>
+        <v>差つけられて二位みたい。</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="63"/>
+        <v>50</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="65"/>
+        <v>24</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">おじさんの呪いをかけられる </v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="58"/>
+        <v>前の桜児くんを思い出すと、小</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="59"/>
+        <v>柄で女の子みたいだし大丈夫か</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> な……？</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="63"/>
+        <v>90</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="65"/>
+        <v>64</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="56"/>
+        <v>36</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">ちょっと心配だけど桜児くん </v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="58"/>
+        <v>にがんばってほしいし私も応援</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="59"/>
+        <v>しよう！</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="63"/>
+        <v>62</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="65"/>
+        <v>36</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="66"/>
+        <v>｢桜児くんがんばれーー！！｣</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="63"/>
+        <v>26</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">ついに桜児くんにバトンが渡 </v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="58"/>
+        <v>ったその時​─────</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="63"/>
+        <v>47</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="65"/>
+        <v>21</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="66"/>
+        <v>｢おまたせ〜！ごめんね一位の</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> 人！抜かしちゃうよ！｣</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="63"/>
+        <v>47</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="65"/>
+        <v>21</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="66"/>
+        <v>｢キャーーー！｣</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くん速い！あっという間 </v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="58"/>
+        <v>に一位の人を抜かしちゃった！</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="63"/>
+        <v>54</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="65"/>
+        <v>28</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くんって見かけによらず </v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="58"/>
+        <v>運動神経よかったんだ……</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="63"/>
+        <v>50</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="65"/>
+        <v>24</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">リレーが終わって桜児くんは </v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="58"/>
+        <v>応援席にきてくれた。</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="63"/>
+        <v>46</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="65"/>
+        <v>20</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="66"/>
+        <v>｢桜児くんお疲れ様！｣</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="63"/>
+        <v>20</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="66"/>
+        <v>｢[主人公の名前]ちゃん、応援</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="63"/>
+        <v>77</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="65"/>
+        <v>51</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くんはやっぱりファンサ </v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="58"/>
+        <v>が手厚いな〜。応援してくれて</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="59"/>
+        <v>るし、綱引きがんばるぞ！</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="63"/>
+        <v>77</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="65"/>
+        <v>51</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
+      <c r="M210">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="66"/>
+        <v>｢位置について、よーい……｣</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="63"/>
+        <v>26</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="66"/>
+        <v>ピストルの音がなる。</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="63"/>
+        <v>20</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">相手のチームすごい力だ…… </v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="58"/>
+        <v>！力には自信ないけど頑張らな</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="59"/>
+        <v>くちゃ！</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="63"/>
+        <v>62</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="65"/>
+        <v>36</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">自分たちのチームも負けじと </v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="58"/>
+        <v>綱を引いている。いい感じ！</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="63"/>
+        <v>52</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="65"/>
+        <v>26</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="66"/>
+        <v>｢うっ！痛い｣</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">手と綱が擦れてすごく痛い… </v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="58"/>
+        <v>…！</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">でも、もう少しで勝てそう！ </v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="58"/>
+        <v>我慢我慢……</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="63"/>
+        <v>38</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="65"/>
+        <v>12</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">その時、相手チームか凄い力 </v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="58"/>
+        <v>で綱を引いてきた。</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="63"/>
+        <v>44</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="65"/>
+        <v>18</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="66"/>
+        <v>｢わっ！｣</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="66"/>
+        <v>｢っ……！｣</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">凄い勢いで転けちゃった、恥 </v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="58"/>
+        <v>ずかしい……</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="63"/>
+        <v>38</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="65"/>
+        <v>12</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="66"/>
+        <v>｢怪我をしている……この様子</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> だと大丈夫そうではないな。 </v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> 健室に向かおう。｣</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="63"/>
+        <v>72</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="65"/>
+        <v>46</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="66"/>
+        <v>｢なんで先輩が……って、えっ</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> ？！！｣</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="63"/>
+        <v>34</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">私、お姫様だっこされてる？ </v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="58"/>
+        <v>！！</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="66"/>
+        <v>｢僕はリレーなどは得意ではな</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> いから綱引きに出たんだ。お </v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="60"/>
+        <v>ことができてよかった。｣</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="63"/>
+        <v>104</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="65"/>
+        <v>78</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="56"/>
+        <v>50</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="56"/>
+        <v>22</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="66"/>
+        <v>｢あの子目鏡生徒会長にお姫様</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> だっこされてる、いいな〜… </v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> ｣</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="63"/>
+        <v>55</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="65"/>
+        <v>29</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">ひぃ、そうだった、光先輩っ </v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="58"/>
+        <v>て本来はイケメンなんだった。</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="63"/>
+        <v>54</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="65"/>
+        <v>28</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">周りの女子たちに羨望の眼差 </v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="58"/>
+        <v>しで見られてる……</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="63"/>
+        <v>44</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="65"/>
+        <v>18</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="66"/>
+        <v>[保健室]</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="66"/>
+        <v>｢あの、光先輩！保健室まで運</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> んでくださってありがとうご </v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> います。すみません、迷惑を </v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="60"/>
+        <v>かけちゃって……｣</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="63"/>
+        <v>98</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="65"/>
+        <v>72</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="56"/>
+        <v>44</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="56"/>
+        <v>16</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="66"/>
+        <v>｢気にしないでくれ。一生懸命</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> 頑張った結果だからな。｣</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="63"/>
+        <v>50</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="65"/>
+        <v>24</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">やっぱり光先輩って優しいな </v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="58"/>
+        <v>……</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="66"/>
+        <v>[運動場]</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">無事に体育祭が終わった。今 </v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="58"/>
+        <v>日は色んな人に助けられた一日</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="59"/>
+        <v>だったな……今度お礼をしなく</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> ちゃ！</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="63"/>
+        <v>88</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="65"/>
+        <v>62</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="56"/>
+        <v>34</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F968394-5735-48FC-A543-7E3CE64722CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642F9D2E-070C-4DA6-BE2B-7FC6A2CE7E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="6168" yWindow="1368" windowWidth="13524" windowHeight="9552" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="243">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -841,6 +841,10 @@
   </si>
   <si>
     <t>無事に体育祭が終わった。今日は色んな人に助けられた一日だったな……今度お礼をしなくちゃ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1210,13 +1214,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P237"/>
+  <dimension ref="A1:P238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E195" sqref="E195"/>
+      <selection pane="bottomRight" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9544,38 +9548,38 @@
         <v xml:space="preserve">「最近学園の近くにパンケー </v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <f t="shared" ref="C131:C195" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
         <v>キ屋さんができたんだって〜！</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <f t="shared" ref="D131:D195" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
         <v>今度行かない？」</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E131:E195" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F131:F195" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G131:G195" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="50">LENB(I131)</f>
+        <f t="shared" ref="H131:H195" si="50">LENB(I131)</f>
         <v>69</v>
       </c>
       <c r="I131" t="s">
         <v>143</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="51">IF(H131&gt;26, 1, 0)</f>
+        <f t="shared" ref="J131:J195" si="51">IF(H131&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="52">IF(J131,H131-26, 0)</f>
+        <f t="shared" ref="K131:K195" si="52">IF(J131,H131-26, 0)</f>
         <v>43</v>
       </c>
       <c r="L131">
@@ -9604,7 +9608,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B195" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <f t="shared" ref="B132:B196" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
         <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
       </c>
       <c r="C132" t="str">
@@ -11369,7 +11373,7 @@
         <v>48</v>
       </c>
       <c r="L159">
-        <f t="shared" ref="L159:P174" si="55">IF(K159&gt;26,K159-28, 0)</f>
+        <f t="shared" ref="L159:P175" si="55">IF(K159&gt;26,K159-28, 0)</f>
         <v>20</v>
       </c>
       <c r="M159">
@@ -11587,11 +11591,11 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「うん！いい感じ！二人とも </v>
-      </c>
-      <c r="C163" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C163">
         <f t="shared" si="45"/>
-        <v>盛れてる〜っ！」</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <f t="shared" si="46"/>
@@ -11611,18 +11615,18 @@
       </c>
       <c r="H163">
         <f t="shared" si="50"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="J163">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <f t="shared" si="52"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L163">
         <f t="shared" si="55"/>
@@ -11651,19 +11655,19 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
+        <v xml:space="preserve">「うん！いい感じ！二人とも </v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="45"/>
-        <v>が普通の男の子に戻った時のた</v>
-      </c>
-      <c r="D164" t="str">
+        <v>盛れてる〜っ！」</v>
+      </c>
+      <c r="D164">
         <f t="shared" si="46"/>
-        <v>めに写真大切に残しとかなきゃ</v>
-      </c>
-      <c r="E164" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164">
         <f t="shared" si="47"/>
-        <v xml:space="preserve"> ！</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <f t="shared" si="48"/>
@@ -11675,10 +11679,10 @@
       </c>
       <c r="H164">
         <f t="shared" si="50"/>
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I164" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J164">
         <f t="shared" si="51"/>
@@ -11686,15 +11690,15 @@
       </c>
       <c r="K164">
         <f t="shared" si="52"/>
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L164">
         <f t="shared" si="55"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M164">
         <f t="shared" si="55"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N164">
         <f t="shared" si="55"/>
@@ -11715,19 +11719,19 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「これもイ〇スタにのせるの </v>
+        <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="45"/>
-        <v>？」</v>
-      </c>
-      <c r="D165">
+        <v>が普通の男の子に戻った時のた</v>
+      </c>
+      <c r="D165" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E165">
+        <v>めに写真大切に残しとかなきゃ</v>
+      </c>
+      <c r="E165" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v xml:space="preserve"> ！</v>
       </c>
       <c r="F165">
         <f t="shared" si="48"/>
@@ -11739,10 +11743,10 @@
       </c>
       <c r="H165">
         <f t="shared" si="50"/>
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J165">
         <f t="shared" si="51"/>
@@ -11750,15 +11754,15 @@
       </c>
       <c r="K165">
         <f t="shared" si="52"/>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="L165">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M165">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N165">
         <f t="shared" si="55"/>
@@ -11779,19 +11783,19 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「んーん！これは二人だけの </v>
+        <v xml:space="preserve">「これもイ〇スタにのせるの </v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="45"/>
-        <v>写真だよ。可愛い子との写真を</v>
-      </c>
-      <c r="D166" t="str">
+        <v>？」</v>
+      </c>
+      <c r="D166">
         <f t="shared" si="46"/>
-        <v>載せたら他の子達が嫉妬しちゃ</v>
-      </c>
-      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+      <c r="E166">
         <f t="shared" si="47"/>
-        <v xml:space="preserve"> うから！」</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <f t="shared" si="48"/>
@@ -11803,10 +11807,10 @@
       </c>
       <c r="H166">
         <f t="shared" si="50"/>
-        <v>92</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>181</v>
+        <v>30</v>
+      </c>
+      <c r="I166" t="s">
+        <v>169</v>
       </c>
       <c r="J166">
         <f t="shared" si="51"/>
@@ -11814,15 +11818,15 @@
       </c>
       <c r="K166">
         <f t="shared" si="52"/>
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="L166">
         <f t="shared" si="55"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M166">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N166">
         <f t="shared" si="55"/>
@@ -11843,19 +11847,19 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
+        <v xml:space="preserve">「んーん！これは二人だけの </v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="45"/>
-        <v>たかったよ〜！呪いを解くため</v>
+        <v>写真だよ。可愛い子との写真を</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="46"/>
-        <v>にがんばらなきゃ。</v>
-      </c>
-      <c r="E167">
+        <v>載せたら他の子達が嫉妬しちゃ</v>
+      </c>
+      <c r="E167" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v xml:space="preserve"> うから！」</v>
       </c>
       <c r="F167">
         <f t="shared" si="48"/>
@@ -11867,10 +11871,10 @@
       </c>
       <c r="H167">
         <f t="shared" si="50"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J167">
         <f t="shared" si="51"/>
@@ -11878,15 +11882,15 @@
       </c>
       <c r="K167">
         <f t="shared" si="52"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="L167">
         <f t="shared" si="55"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M167">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N167">
         <f t="shared" si="55"/>
@@ -11907,15 +11911,15 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">今月はお小遣い使い過ぎちゃ </v>
+        <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="45"/>
-        <v>ってパンケーキを食べる余裕は</v>
+        <v>たかったよ〜！呪いを解くため</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="46"/>
-        <v>ないな……</v>
+        <v>にがんばらなきゃ。</v>
       </c>
       <c r="E168">
         <f t="shared" si="47"/>
@@ -11931,10 +11935,10 @@
       </c>
       <c r="H168">
         <f t="shared" si="50"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J168">
         <f t="shared" si="51"/>
@@ -11942,11 +11946,11 @@
       </c>
       <c r="K168">
         <f t="shared" si="52"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L168">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M168">
         <f t="shared" si="55"/>
@@ -11971,15 +11975,15 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「パンケーキ食べたかったけ </v>
+        <v xml:space="preserve">今月はお小遣い使い過ぎちゃ </v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="45"/>
-        <v>ど今月金欠で行けそうにないな</v>
+        <v>ってパンケーキを食べる余裕は</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="46"/>
-        <v>！ごめんね！」</v>
+        <v>ないな……</v>
       </c>
       <c r="E169">
         <f t="shared" si="47"/>
@@ -11995,10 +11999,10 @@
       </c>
       <c r="H169">
         <f t="shared" si="50"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J169">
         <f t="shared" si="51"/>
@@ -12006,11 +12010,11 @@
       </c>
       <c r="K169">
         <f t="shared" si="52"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L169">
         <f t="shared" si="55"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M169">
         <f t="shared" si="55"/>
@@ -12035,15 +12039,15 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「そういうときもあるよね〜 </v>
+        <v xml:space="preserve">「パンケーキ食べたかったけ </v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="45"/>
-        <v>！他の人誘うから気にしないで</v>
+        <v>ど今月金欠で行けそうにないな</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="46"/>
-        <v>！」</v>
+        <v>！ごめんね！」</v>
       </c>
       <c r="E170">
         <f t="shared" si="47"/>
@@ -12059,10 +12063,10 @@
       </c>
       <c r="H170">
         <f t="shared" si="50"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="J170">
         <f t="shared" si="51"/>
@@ -12070,11 +12074,11 @@
       </c>
       <c r="K170">
         <f t="shared" si="52"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L170">
         <f t="shared" si="55"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M170">
         <f t="shared" si="55"/>
@@ -12099,15 +12103,15 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">か、悲しい……また金欠にな </v>
+        <v xml:space="preserve">「そういうときもあるよね〜 </v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="45"/>
-        <v>らないようにバイトして稼がな</v>
+        <v>！他の人誘うから気にしないで</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="46"/>
-        <v>いと！</v>
+        <v>！」</v>
       </c>
       <c r="E171">
         <f t="shared" si="47"/>
@@ -12123,10 +12127,10 @@
       </c>
       <c r="H171">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J171">
         <f t="shared" si="51"/>
@@ -12134,11 +12138,11 @@
       </c>
       <c r="K171">
         <f t="shared" si="52"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L171">
         <f t="shared" si="55"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M171">
         <f t="shared" si="55"/>
@@ -12163,15 +12167,15 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">                           </v>
+        <v xml:space="preserve">か、悲しい……また金欠にな </v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D172">
+        <v>らないようにバイトして稼がな</v>
+      </c>
+      <c r="D172" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>いと！</v>
       </c>
       <c r="E172">
         <f t="shared" si="47"/>
@@ -12187,10 +12191,10 @@
       </c>
       <c r="H172">
         <f t="shared" si="50"/>
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="J172">
         <f t="shared" si="51"/>
@@ -12198,11 +12202,11 @@
       </c>
       <c r="K172">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="L172">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M172">
         <f t="shared" si="55"/>
@@ -12227,11 +12231,11 @@
       </c>
       <c r="B173" t="str">
         <f t="shared" si="53"/>
-        <v>[体育館]</v>
-      </c>
-      <c r="C173">
+        <v xml:space="preserve">                           </v>
+      </c>
+      <c r="C173" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D173">
         <f t="shared" si="46"/>
@@ -12251,18 +12255,18 @@
       </c>
       <c r="H173">
         <f t="shared" si="50"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="J173">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173">
         <f t="shared" si="55"/>
@@ -12291,15 +12295,15 @@
       </c>
       <c r="B174" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">今日は体育祭。昨日まで天気 </v>
-      </c>
-      <c r="C174" t="str">
+        <v>[体育館]</v>
+      </c>
+      <c r="C174">
         <f t="shared" si="45"/>
-        <v>が不安だったけど、無事に晴れ</v>
-      </c>
-      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="D174">
         <f t="shared" si="46"/>
-        <v>てよかった！</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <f t="shared" si="47"/>
@@ -12315,22 +12319,22 @@
       </c>
       <c r="H174">
         <f t="shared" si="50"/>
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J174">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L174">
         <f t="shared" si="55"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M174">
         <f t="shared" si="55"/>
@@ -12355,15 +12359,15 @@
       </c>
       <c r="B175" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">私は小道具の係になったから </v>
+        <v xml:space="preserve">今日は体育祭。昨日まで天気 </v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="45"/>
-        <v>朝から忙しいし気合い入れて頑</v>
+        <v>が不安だったけど、無事に晴れ</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="46"/>
-        <v>張ろう！</v>
+        <v>てよかった！</v>
       </c>
       <c r="E175">
         <f t="shared" si="47"/>
@@ -12379,10 +12383,10 @@
       </c>
       <c r="H175">
         <f t="shared" si="50"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J175">
         <f t="shared" si="51"/>
@@ -12390,26 +12394,26 @@
       </c>
       <c r="K175">
         <f t="shared" si="52"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L175">
-        <f t="shared" ref="L175:P237" si="56">IF(K175&gt;26,K175-28, 0)</f>
-        <v>8</v>
+        <f t="shared" si="55"/>
+        <v>12</v>
       </c>
       <c r="M175">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N175">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O175">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P175">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -12419,15 +12423,15 @@
       </c>
       <c r="B176" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">────皆よりもちょっと遅 </v>
+        <v xml:space="preserve">私は小道具の係になったから </v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="45"/>
-        <v>めに来ちゃったから軽めの荷物</v>
+        <v>朝から忙しいし気合い入れて頑</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="46"/>
-        <v>は運ばれちゃったみたい……</v>
+        <v>張ろう！</v>
       </c>
       <c r="E176">
         <f t="shared" si="47"/>
@@ -12443,10 +12447,10 @@
       </c>
       <c r="H176">
         <f t="shared" si="50"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J176">
         <f t="shared" si="51"/>
@@ -12454,11 +12458,11 @@
       </c>
       <c r="K176">
         <f t="shared" si="52"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L176">
-        <f t="shared" si="56"/>
-        <v>26</v>
+        <f t="shared" ref="L176:P238" si="56">IF(K176&gt;26,K176-28, 0)</f>
+        <v>8</v>
       </c>
       <c r="M176">
         <f t="shared" si="56"/>
@@ -12483,15 +12487,15 @@
       </c>
       <c r="B177" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">さっき気合い入れて頑張ろう </v>
+        <v xml:space="preserve">────皆よりもちょっと遅 </v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="45"/>
-        <v>としてたのに、重そうな小道具</v>
+        <v>めに来ちゃったから軽めの荷物</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="46"/>
-        <v>ばかりでやる気なくなりそう。</v>
+        <v>は運ばれちゃったみたい……</v>
       </c>
       <c r="E177">
         <f t="shared" si="47"/>
@@ -12507,10 +12511,10 @@
       </c>
       <c r="H177">
         <f t="shared" si="50"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J177">
         <f t="shared" si="51"/>
@@ -12518,11 +12522,11 @@
       </c>
       <c r="K177">
         <f t="shared" si="52"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L177">
         <f t="shared" si="56"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M177">
         <f t="shared" si="56"/>
@@ -12547,15 +12551,15 @@
       </c>
       <c r="B178" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">でも係の仕事だしそんなこと </v>
+        <v xml:space="preserve">さっき気合い入れて頑張ろう </v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="45"/>
-        <v>言ってられないよね。頑張るぞ</v>
+        <v>としてたのに、重そうな小道具</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="46"/>
-        <v>！</v>
+        <v>ばかりでやる気なくなりそう。</v>
       </c>
       <c r="E178">
         <f t="shared" si="47"/>
@@ -12571,10 +12575,10 @@
       </c>
       <c r="H178">
         <f t="shared" si="50"/>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J178">
         <f t="shared" si="51"/>
@@ -12582,11 +12586,11 @@
       </c>
       <c r="K178">
         <f t="shared" si="52"/>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="L178">
         <f t="shared" si="56"/>
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="M178">
         <f t="shared" si="56"/>
@@ -12601,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="P178">
-        <f t="shared" ref="P178:P237" si="57">IF(O178&gt;26,O178-28, 0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -12611,15 +12615,15 @@
       </c>
       <c r="B179" t="str">
         <f t="shared" si="53"/>
-        <v>｢ぐぐぐ、重い！｣</v>
-      </c>
-      <c r="C179">
+        <v xml:space="preserve">でも係の仕事だしそんなこと </v>
+      </c>
+      <c r="C179" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D179">
+        <v>言ってられないよね。頑張るぞ</v>
+      </c>
+      <c r="D179" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>！</v>
       </c>
       <c r="E179">
         <f t="shared" si="47"/>
@@ -12635,22 +12639,22 @@
       </c>
       <c r="H179">
         <f t="shared" si="50"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J179">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L179">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <f t="shared" si="56"/>
@@ -12665,7 +12669,7 @@
         <v>0</v>
       </c>
       <c r="P179">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="P179:P238" si="57">IF(O179&gt;26,O179-28, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12675,11 +12679,11 @@
       </c>
       <c r="B180" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">なんとか持てたけどフラフラ </v>
-      </c>
-      <c r="C180" t="str">
+        <v>｢ぐぐぐ、重い！｣</v>
+      </c>
+      <c r="C180">
         <f t="shared" si="45"/>
-        <v>しちゃう、よ……わっ！</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <f t="shared" si="46"/>
@@ -12699,18 +12703,18 @@
       </c>
       <c r="H180">
         <f t="shared" si="50"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J180">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180">
         <f t="shared" si="52"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L180">
         <f t="shared" si="56"/>
@@ -12739,11 +12743,11 @@
       </c>
       <c r="B181" t="str">
         <f t="shared" si="53"/>
-        <v>｢［主人公の名前］先輩、大丈</v>
+        <v xml:space="preserve">なんとか持てたけどフラフラ </v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> 夫？！｣</v>
+        <v>しちゃう、よ……わっ！</v>
       </c>
       <c r="D181">
         <f t="shared" si="46"/>
@@ -12763,10 +12767,10 @@
       </c>
       <c r="H181">
         <f t="shared" si="50"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J181">
         <f t="shared" si="51"/>
@@ -12774,7 +12778,7 @@
       </c>
       <c r="K181">
         <f t="shared" si="52"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L181">
         <f t="shared" si="56"/>
@@ -12803,11 +12807,11 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="53"/>
-        <v>｢琉絆空くん？！｣</v>
-      </c>
-      <c r="C182">
+        <v>｢［主人公の名前］先輩、大丈</v>
+      </c>
+      <c r="C182" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v xml:space="preserve"> 夫？！｣</v>
       </c>
       <c r="D182">
         <f t="shared" si="46"/>
@@ -12827,18 +12831,18 @@
       </c>
       <c r="H182">
         <f t="shared" si="50"/>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J182">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L182">
         <f t="shared" si="56"/>
@@ -12867,7 +12871,7 @@
       </c>
       <c r="B183" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">  </v>
+        <v>｢琉絆空くん？！｣</v>
       </c>
       <c r="C183">
         <f t="shared" si="45"/>
@@ -12891,10 +12895,10 @@
       </c>
       <c r="H183">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J183">
         <f t="shared" si="51"/>
@@ -12931,15 +12935,15 @@
       </c>
       <c r="B184" t="str">
         <f t="shared" si="53"/>
-        <v>｢女の子がこんなに重い荷物持</v>
-      </c>
-      <c r="C184" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C184">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> っちゃだめだろ？俺が持つか </v>
-      </c>
-      <c r="D184" t="str">
+        <v>0</v>
+      </c>
+      <c r="D184">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> さ！｣</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <f t="shared" si="47"/>
@@ -12955,22 +12959,22 @@
       </c>
       <c r="H184">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J184">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184">
         <f t="shared" si="52"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L184">
         <f t="shared" si="56"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M184">
         <f t="shared" si="56"/>
@@ -12995,15 +12999,15 @@
       </c>
       <c r="B185" t="str">
         <f t="shared" si="53"/>
-        <v>｢あ、ありがとう……！｣</v>
-      </c>
-      <c r="C185">
+        <v>｢女の子がこんなに重い荷物持</v>
+      </c>
+      <c r="C185" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D185">
+        <v xml:space="preserve"> っちゃだめだろ？俺が持つか </v>
+      </c>
+      <c r="D185" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v xml:space="preserve"> さ！｣</v>
       </c>
       <c r="E185">
         <f t="shared" si="47"/>
@@ -13019,22 +13023,22 @@
       </c>
       <c r="H185">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J185">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L185">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M185">
         <f t="shared" si="56"/>
@@ -13059,11 +13063,11 @@
       </c>
       <c r="B186" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">へ〜、おじさんって力持ちな </v>
-      </c>
-      <c r="C186" t="str">
+        <v>｢あ、ありがとう……！｣</v>
+      </c>
+      <c r="C186">
         <f t="shared" si="45"/>
-        <v>んだな〜。</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <f t="shared" si="46"/>
@@ -13083,18 +13087,18 @@
       </c>
       <c r="H186">
         <f t="shared" si="50"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J186">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186">
         <f t="shared" si="52"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L186">
         <f t="shared" si="56"/>
@@ -13123,15 +13127,15 @@
       </c>
       <c r="B187" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">ってちがうちがう！呪いのせ </v>
+        <v xml:space="preserve">へ〜、おじさんって力持ちな </v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="45"/>
-        <v>いでそう見えてるだけで高校生</v>
-      </c>
-      <c r="D187" t="str">
+        <v>んだな〜。</v>
+      </c>
+      <c r="D187">
         <f t="shared" si="46"/>
-        <v>の男子なんだった。</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <f t="shared" si="47"/>
@@ -13147,10 +13151,10 @@
       </c>
       <c r="H187">
         <f t="shared" si="50"/>
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J187">
         <f t="shared" si="51"/>
@@ -13158,11 +13162,11 @@
       </c>
       <c r="K187">
         <f t="shared" si="52"/>
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="L187">
         <f t="shared" si="56"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M187">
         <f t="shared" si="56"/>
@@ -13187,15 +13191,15 @@
       </c>
       <c r="B188" t="str">
         <f t="shared" si="53"/>
-        <v>最近おじさんの姿のOG☆3に見</v>
+        <v xml:space="preserve">ってちがうちがう！呪いのせ </v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> 慣れてきてる！あの性格の悪 </v>
+        <v>いでそう見えてるだけで高校生</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> 銅像に洗脳されちゃうよ〜！</v>
+        <v>の男子なんだった。</v>
       </c>
       <c r="E188">
         <f t="shared" si="47"/>
@@ -13211,10 +13215,10 @@
       </c>
       <c r="H188">
         <f t="shared" si="50"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J188">
         <f t="shared" si="51"/>
@@ -13222,11 +13226,11 @@
       </c>
       <c r="K188">
         <f t="shared" si="52"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L188">
         <f t="shared" si="56"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M188">
         <f t="shared" si="56"/>
@@ -13251,15 +13255,15 @@
       </c>
       <c r="B189" t="str">
         <f t="shared" si="53"/>
-        <v>[運動場]</v>
-      </c>
-      <c r="C189">
+        <v>最近おじさんの姿のOG☆3に見</v>
+      </c>
+      <c r="C189" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D189">
+        <v xml:space="preserve"> 慣れてきてる！あの性格の悪 </v>
+      </c>
+      <c r="D189" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v xml:space="preserve"> 銅像に洗脳されちゃうよ〜！</v>
       </c>
       <c r="E189">
         <f t="shared" si="47"/>
@@ -13275,22 +13279,22 @@
       </c>
       <c r="H189">
         <f t="shared" si="50"/>
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J189">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L189">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M189">
         <f t="shared" si="56"/>
@@ -13315,15 +13319,15 @@
       </c>
       <c r="B190" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">琉絆空くんの協力のおかげで </v>
-      </c>
-      <c r="C190" t="str">
+        <v>[運動場]</v>
+      </c>
+      <c r="C190">
         <f t="shared" si="45"/>
-        <v>無事に係の仕事も終わってよか</v>
-      </c>
-      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="D190">
         <f t="shared" si="46"/>
-        <v>った！</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <f t="shared" si="47"/>
@@ -13339,22 +13343,22 @@
       </c>
       <c r="H190">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J190">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190">
         <f t="shared" si="52"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L190">
         <f t="shared" si="56"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M190">
         <f t="shared" si="56"/>
@@ -13379,15 +13383,15 @@
       </c>
       <c r="B191" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">私の出番はまだだから友達の </v>
+        <v xml:space="preserve">琉絆空くんの協力のおかげで </v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="45"/>
-        <v>応援でもしようかな。</v>
-      </c>
-      <c r="D191">
+        <v>無事に係の仕事も終わってよか</v>
+      </c>
+      <c r="D191" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>った！</v>
       </c>
       <c r="E191">
         <f t="shared" si="47"/>
@@ -13403,10 +13407,10 @@
       </c>
       <c r="H191">
         <f t="shared" si="50"/>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J191">
         <f t="shared" si="51"/>
@@ -13414,11 +13418,11 @@
       </c>
       <c r="K191">
         <f t="shared" si="52"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L191">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M191">
         <f t="shared" si="56"/>
@@ -13443,11 +13447,11 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="53"/>
-        <v>｢キャーーーーｯ！！｣</v>
-      </c>
-      <c r="C192">
+        <v xml:space="preserve">私の出番はまだだから友達の </v>
+      </c>
+      <c r="C192" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>応援でもしようかな。</v>
       </c>
       <c r="D192">
         <f t="shared" si="46"/>
@@ -13467,18 +13471,18 @@
       </c>
       <c r="H192">
         <f t="shared" si="50"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J192">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L192">
         <f t="shared" si="56"/>
@@ -13507,7 +13511,7 @@
       </c>
       <c r="B193" t="str">
         <f t="shared" si="53"/>
-        <v>？！！</v>
+        <v>｢キャーーーーｯ！！｣</v>
       </c>
       <c r="C193">
         <f t="shared" si="45"/>
@@ -13531,10 +13535,10 @@
       </c>
       <c r="H193">
         <f t="shared" si="50"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J193">
         <f t="shared" si="51"/>
@@ -13571,11 +13575,11 @@
       </c>
       <c r="B194" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">女子たちの歓声が聞こえてく </v>
-      </c>
-      <c r="C194" t="str">
+        <v>？！！</v>
+      </c>
+      <c r="C194">
         <f t="shared" si="45"/>
-        <v>る。なんだろう？</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <f t="shared" si="46"/>
@@ -13595,18 +13599,18 @@
       </c>
       <c r="H194">
         <f t="shared" si="50"/>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J194">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <f t="shared" si="52"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L194">
         <f t="shared" si="56"/>
@@ -13635,42 +13639,42 @@
       </c>
       <c r="B195" t="str">
         <f t="shared" si="53"/>
-        <v>｢桜児くんがんばってー！｣</v>
-      </c>
-      <c r="C195">
-        <f t="shared" ref="C195:C237" si="58">IF(K195&gt;0,MIDB(I195, 27, 28),0)</f>
-        <v>0</v>
+        <v xml:space="preserve">女子たちの歓声が聞こえてく </v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="45"/>
+        <v>る。なんだろう？</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D237" si="59">IF(L195&gt;0, MIDB(I195, 27+28, 28), 0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E238" si="60">IF(M195&gt;0, MIDB(I195, 27*2+28, 28), 0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F237" si="61">IF(N195&gt;0, MIDB(I195, 27*3+28, 28), 0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G237" si="62">IF(O195&gt;0, MIDB(I195, 27*4+28, 28), 0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H237" si="63">LENB(I195)</f>
-        <v>24</v>
+        <f t="shared" si="50"/>
+        <v>42</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J237" si="64">IF(H195&gt;26, 1, 0)</f>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K237" si="65">IF(J195,H195-26, 0)</f>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>16</v>
       </c>
       <c r="L195">
         <f t="shared" si="56"/>
@@ -13698,51 +13702,51 @@
         <v>195</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" ref="B196:B237" si="66">IF(J196,LEFTB(I196, 27), I196)</f>
-        <v xml:space="preserve">歓声を向けられている方を見 </v>
-      </c>
-      <c r="C196" t="str">
-        <f t="shared" si="58"/>
-        <v>ると、リレーのアンカーとして</v>
-      </c>
-      <c r="D196" t="str">
-        <f t="shared" si="59"/>
-        <v>バトンを待つ桜児くんが見えた</v>
-      </c>
-      <c r="E196" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> 。</v>
+        <f t="shared" si="53"/>
+        <v>｢桜児くんがんばってー！｣</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:C238" si="58">IF(K196&gt;0,MIDB(I196, 27, 28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <f t="shared" ref="D196:D238" si="59">IF(L196&gt;0, MIDB(I196, 27+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ref="E196:E238" si="60">IF(M196&gt;0, MIDB(I196, 27*2+28, 28), 0)</f>
+        <v>0</v>
       </c>
       <c r="F196">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="F196:F238" si="61">IF(N196&gt;0, MIDB(I196, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G196">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="G196:G238" si="62">IF(O196&gt;0, MIDB(I196, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" si="63"/>
-        <v>84</v>
+        <f t="shared" ref="H196:H238" si="63">LENB(I196)</f>
+        <v>24</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J196">
-        <f t="shared" si="64"/>
-        <v>1</v>
+        <f t="shared" ref="J196:J238" si="64">IF(H196&gt;26, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K196">
-        <f t="shared" si="65"/>
-        <v>58</v>
+        <f t="shared" ref="K196:K238" si="65">IF(J196,H196-26, 0)</f>
+        <v>0</v>
       </c>
       <c r="L196">
         <f t="shared" si="56"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M196">
         <f t="shared" si="56"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N196">
         <f t="shared" si="56"/>
@@ -13762,20 +13766,20 @@
         <v>196</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんの前の人は一位と大 </v>
+        <f t="shared" ref="B197:B238" si="66">IF(J197,LEFTB(I197, 27), I197)</f>
+        <v xml:space="preserve">歓声を向けられている方を見 </v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="58"/>
-        <v>差つけられて二位みたい。</v>
-      </c>
-      <c r="D197">
+        <v>ると、リレーのアンカーとして</v>
+      </c>
+      <c r="D197" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E197">
+        <v>バトンを待つ桜児くんが見えた</v>
+      </c>
+      <c r="E197" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v xml:space="preserve"> 。</v>
       </c>
       <c r="F197">
         <f t="shared" si="61"/>
@@ -13787,10 +13791,10 @@
       </c>
       <c r="H197">
         <f t="shared" si="63"/>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J197">
         <f t="shared" si="64"/>
@@ -13798,15 +13802,15 @@
       </c>
       <c r="K197">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="L197">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M197">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N197">
         <f t="shared" si="56"/>
@@ -13827,19 +13831,19 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">おじさんの呪いをかけられる </v>
+        <v xml:space="preserve">桜児くんの前の人は一位と大 </v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="58"/>
-        <v>前の桜児くんを思い出すと、小</v>
-      </c>
-      <c r="D198" t="str">
+        <v>差つけられて二位みたい。</v>
+      </c>
+      <c r="D198">
         <f t="shared" si="59"/>
-        <v>柄で女の子みたいだし大丈夫か</v>
-      </c>
-      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+      <c r="E198">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> な……？</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <f t="shared" si="61"/>
@@ -13851,10 +13855,10 @@
       </c>
       <c r="H198">
         <f t="shared" si="63"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J198">
         <f t="shared" si="64"/>
@@ -13862,15 +13866,15 @@
       </c>
       <c r="K198">
         <f t="shared" si="65"/>
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="L198">
         <f t="shared" si="56"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M198">
         <f t="shared" si="56"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N198">
         <f t="shared" si="56"/>
@@ -13891,19 +13895,19 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">ちょっと心配だけど桜児くん </v>
+        <v xml:space="preserve">おじさんの呪いをかけられる </v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="58"/>
-        <v>にがんばってほしいし私も応援</v>
+        <v>前の桜児くんを思い出すと、小</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="59"/>
-        <v>しよう！</v>
-      </c>
-      <c r="E199">
+        <v>柄で女の子みたいだし大丈夫か</v>
+      </c>
+      <c r="E199" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v xml:space="preserve"> な……？</v>
       </c>
       <c r="F199">
         <f t="shared" si="61"/>
@@ -13915,10 +13919,10 @@
       </c>
       <c r="H199">
         <f t="shared" si="63"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J199">
         <f t="shared" si="64"/>
@@ -13926,15 +13930,15 @@
       </c>
       <c r="K199">
         <f t="shared" si="65"/>
+        <v>64</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="56"/>
         <v>36</v>
       </c>
-      <c r="L199">
+      <c r="M199">
         <f t="shared" si="56"/>
         <v>8</v>
-      </c>
-      <c r="M199">
-        <f t="shared" si="56"/>
-        <v>0</v>
       </c>
       <c r="N199">
         <f t="shared" si="56"/>
@@ -13955,15 +13959,15 @@
       </c>
       <c r="B200" t="str">
         <f t="shared" si="66"/>
-        <v>｢桜児くんがんばれーー！！｣</v>
-      </c>
-      <c r="C200">
+        <v xml:space="preserve">ちょっと心配だけど桜児くん </v>
+      </c>
+      <c r="C200" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D200">
+        <v>にがんばってほしいし私も応援</v>
+      </c>
+      <c r="D200" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>しよう！</v>
       </c>
       <c r="E200">
         <f t="shared" si="60"/>
@@ -13979,22 +13983,22 @@
       </c>
       <c r="H200">
         <f t="shared" si="63"/>
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J200">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L200">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M200">
         <f t="shared" si="56"/>
@@ -14019,11 +14023,11 @@
       </c>
       <c r="B201" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">ついに桜児くんにバトンが渡 </v>
-      </c>
-      <c r="C201" t="str">
+        <v>｢桜児くんがんばれーー！！｣</v>
+      </c>
+      <c r="C201">
         <f t="shared" si="58"/>
-        <v>ったその時​─────</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <f t="shared" si="59"/>
@@ -14043,18 +14047,18 @@
       </c>
       <c r="H201">
         <f t="shared" si="63"/>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J201">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201">
         <f t="shared" si="65"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L201">
         <f t="shared" si="56"/>
@@ -14083,11 +14087,11 @@
       </c>
       <c r="B202" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C202">
+        <v xml:space="preserve">ついに桜児くんにバトンが渡 </v>
+      </c>
+      <c r="C202" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>ったその時​─────</v>
       </c>
       <c r="D202">
         <f t="shared" si="59"/>
@@ -14107,18 +14111,18 @@
       </c>
       <c r="H202">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J202">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L202">
         <f t="shared" si="56"/>
@@ -14147,11 +14151,11 @@
       </c>
       <c r="B203" t="str">
         <f t="shared" si="66"/>
-        <v>｢おまたせ〜！ごめんね一位の</v>
-      </c>
-      <c r="C203" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C203">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> 人！抜かしちゃうよ！｣</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <f t="shared" si="59"/>
@@ -14171,18 +14175,18 @@
       </c>
       <c r="H203">
         <f t="shared" si="63"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J203">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203">
         <f t="shared" si="65"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L203">
         <f t="shared" si="56"/>
@@ -14211,11 +14215,11 @@
       </c>
       <c r="B204" t="str">
         <f t="shared" si="66"/>
-        <v>｢キャーーー！｣</v>
-      </c>
-      <c r="C204">
+        <v>｢おまたせ〜！ごめんね一位の</v>
+      </c>
+      <c r="C204" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v xml:space="preserve"> 人！抜かしちゃうよ！｣</v>
       </c>
       <c r="D204">
         <f t="shared" si="59"/>
@@ -14235,18 +14239,18 @@
       </c>
       <c r="H204">
         <f t="shared" si="63"/>
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J204">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L204">
         <f t="shared" si="56"/>
@@ -14275,11 +14279,11 @@
       </c>
       <c r="B205" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くん速い！あっという間 </v>
-      </c>
-      <c r="C205" t="str">
+        <v>｢キャーーー！｣</v>
+      </c>
+      <c r="C205">
         <f t="shared" si="58"/>
-        <v>に一位の人を抜かしちゃった！</v>
+        <v>0</v>
       </c>
       <c r="D205">
         <f t="shared" si="59"/>
@@ -14299,18 +14303,18 @@
       </c>
       <c r="H205">
         <f t="shared" si="63"/>
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J205">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L205">
         <f t="shared" si="56"/>
@@ -14339,11 +14343,11 @@
       </c>
       <c r="B206" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんって見かけによらず </v>
+        <v xml:space="preserve">桜児くん速い！あっという間 </v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="58"/>
-        <v>運動神経よかったんだ……</v>
+        <v>に一位の人を抜かしちゃった！</v>
       </c>
       <c r="D206">
         <f t="shared" si="59"/>
@@ -14363,10 +14367,10 @@
       </c>
       <c r="H206">
         <f t="shared" si="63"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J206">
         <f t="shared" si="64"/>
@@ -14374,7 +14378,7 @@
       </c>
       <c r="K206">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L206">
         <f t="shared" si="56"/>
@@ -14403,11 +14407,11 @@
       </c>
       <c r="B207" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">リレーが終わって桜児くんは </v>
+        <v xml:space="preserve">桜児くんって見かけによらず </v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="58"/>
-        <v>応援席にきてくれた。</v>
+        <v>運動神経よかったんだ……</v>
       </c>
       <c r="D207">
         <f t="shared" si="59"/>
@@ -14427,10 +14431,10 @@
       </c>
       <c r="H207">
         <f t="shared" si="63"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J207">
         <f t="shared" si="64"/>
@@ -14438,7 +14442,7 @@
       </c>
       <c r="K207">
         <f t="shared" si="65"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L207">
         <f t="shared" si="56"/>
@@ -14467,11 +14471,11 @@
       </c>
       <c r="B208" t="str">
         <f t="shared" si="66"/>
-        <v>｢桜児くんお疲れ様！｣</v>
-      </c>
-      <c r="C208">
+        <v xml:space="preserve">リレーが終わって桜児くんは </v>
+      </c>
+      <c r="C208" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>応援席にきてくれた。</v>
       </c>
       <c r="D208">
         <f t="shared" si="59"/>
@@ -14491,18 +14495,18 @@
       </c>
       <c r="H208">
         <f t="shared" si="63"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J208">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L208">
         <f t="shared" si="56"/>
@@ -14531,15 +14535,15 @@
       </c>
       <c r="B209" t="str">
         <f t="shared" si="66"/>
-        <v>｢[主人公の名前]ちゃん、応援</v>
-      </c>
-      <c r="C209" t="str">
+        <v>｢桜児くんお疲れ様！｣</v>
+      </c>
+      <c r="C209">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
-      </c>
-      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="D209">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
+        <v>0</v>
       </c>
       <c r="E209">
         <f t="shared" si="60"/>
@@ -14555,22 +14559,22 @@
       </c>
       <c r="H209">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J209">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209">
         <f t="shared" si="65"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L209">
         <f t="shared" si="56"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M209">
         <f t="shared" si="56"/>
@@ -14595,15 +14599,15 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんはやっぱりファンサ </v>
+        <v>｢[主人公の名前]ちゃん、応援</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="58"/>
-        <v>が手厚いな〜。応援してくれて</v>
+        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="59"/>
-        <v>るし、綱引きがんばるぞ！</v>
+        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
       </c>
       <c r="E210">
         <f t="shared" si="60"/>
@@ -14622,7 +14626,7 @@
         <v>77</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J210">
         <f t="shared" si="64"/>
@@ -14659,15 +14663,15 @@
       </c>
       <c r="B211" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C211">
+        <v xml:space="preserve">桜児くんはやっぱりファンサ </v>
+      </c>
+      <c r="C211" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D211">
+        <v>が手厚いな〜。応援してくれて</v>
+      </c>
+      <c r="D211" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>るし、綱引きがんばるぞ！</v>
       </c>
       <c r="E211">
         <f t="shared" si="60"/>
@@ -14683,22 +14687,22 @@
       </c>
       <c r="H211">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="J211">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L211">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M211">
         <f t="shared" si="56"/>
@@ -14787,7 +14791,7 @@
       </c>
       <c r="B213" t="str">
         <f t="shared" si="66"/>
-        <v>｢位置について、よーい……｣</v>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C213">
         <f t="shared" si="58"/>
@@ -14811,10 +14815,10 @@
       </c>
       <c r="H213">
         <f t="shared" si="63"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="J213">
         <f t="shared" si="64"/>
@@ -14851,7 +14855,7 @@
       </c>
       <c r="B214" t="str">
         <f t="shared" si="66"/>
-        <v>ピストルの音がなる。</v>
+        <v>｢位置について、よーい……｣</v>
       </c>
       <c r="C214">
         <f t="shared" si="58"/>
@@ -14875,10 +14879,10 @@
       </c>
       <c r="H214">
         <f t="shared" si="63"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J214">
         <f t="shared" si="64"/>
@@ -14915,15 +14919,15 @@
       </c>
       <c r="B215" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">相手のチームすごい力だ…… </v>
-      </c>
-      <c r="C215" t="str">
+        <v>ピストルの音がなる。</v>
+      </c>
+      <c r="C215">
         <f t="shared" si="58"/>
-        <v>！力には自信ないけど頑張らな</v>
-      </c>
-      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="D215">
         <f t="shared" si="59"/>
-        <v>くちゃ！</v>
+        <v>0</v>
       </c>
       <c r="E215">
         <f t="shared" si="60"/>
@@ -14939,22 +14943,22 @@
       </c>
       <c r="H215">
         <f t="shared" si="63"/>
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J215">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215">
         <f t="shared" si="65"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L215">
         <f t="shared" si="56"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M215">
         <f t="shared" si="56"/>
@@ -14979,15 +14983,15 @@
       </c>
       <c r="B216" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">自分たちのチームも負けじと </v>
+        <v xml:space="preserve">相手のチームすごい力だ…… </v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="58"/>
-        <v>綱を引いている。いい感じ！</v>
-      </c>
-      <c r="D216">
+        <v>！力には自信ないけど頑張らな</v>
+      </c>
+      <c r="D216" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>くちゃ！</v>
       </c>
       <c r="E216">
         <f t="shared" si="60"/>
@@ -15003,10 +15007,10 @@
       </c>
       <c r="H216">
         <f t="shared" si="63"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J216">
         <f t="shared" si="64"/>
@@ -15014,11 +15018,11 @@
       </c>
       <c r="K216">
         <f t="shared" si="65"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L216">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M216">
         <f t="shared" si="56"/>
@@ -15043,11 +15047,11 @@
       </c>
       <c r="B217" t="str">
         <f t="shared" si="66"/>
-        <v>｢うっ！痛い｣</v>
-      </c>
-      <c r="C217">
+        <v xml:space="preserve">自分たちのチームも負けじと </v>
+      </c>
+      <c r="C217" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>綱を引いている。いい感じ！</v>
       </c>
       <c r="D217">
         <f t="shared" si="59"/>
@@ -15067,18 +15071,18 @@
       </c>
       <c r="H217">
         <f t="shared" si="63"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J217">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L217">
         <f t="shared" si="56"/>
@@ -15107,11 +15111,11 @@
       </c>
       <c r="B218" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">手と綱が擦れてすごく痛い… </v>
-      </c>
-      <c r="C218" t="str">
+        <v>｢うっ！痛い｣</v>
+      </c>
+      <c r="C218">
         <f t="shared" si="58"/>
-        <v>…！</v>
+        <v>0</v>
       </c>
       <c r="D218">
         <f t="shared" si="59"/>
@@ -15131,18 +15135,18 @@
       </c>
       <c r="H218">
         <f t="shared" si="63"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J218">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L218">
         <f t="shared" si="56"/>
@@ -15171,11 +15175,11 @@
       </c>
       <c r="B219" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">でも、もう少しで勝てそう！ </v>
+        <v xml:space="preserve">手と綱が擦れてすごく痛い… </v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="58"/>
-        <v>我慢我慢……</v>
+        <v>…！</v>
       </c>
       <c r="D219">
         <f t="shared" si="59"/>
@@ -15195,10 +15199,10 @@
       </c>
       <c r="H219">
         <f t="shared" si="63"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J219">
         <f t="shared" si="64"/>
@@ -15206,7 +15210,7 @@
       </c>
       <c r="K219">
         <f t="shared" si="65"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L219">
         <f t="shared" si="56"/>
@@ -15235,11 +15239,11 @@
       </c>
       <c r="B220" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">その時、相手チームか凄い力 </v>
+        <v xml:space="preserve">でも、もう少しで勝てそう！ </v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="58"/>
-        <v>で綱を引いてきた。</v>
+        <v>我慢我慢……</v>
       </c>
       <c r="D220">
         <f t="shared" si="59"/>
@@ -15259,10 +15263,10 @@
       </c>
       <c r="H220">
         <f t="shared" si="63"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J220">
         <f t="shared" si="64"/>
@@ -15270,7 +15274,7 @@
       </c>
       <c r="K220">
         <f t="shared" si="65"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L220">
         <f t="shared" si="56"/>
@@ -15299,11 +15303,11 @@
       </c>
       <c r="B221" t="str">
         <f t="shared" si="66"/>
-        <v>｢わっ！｣</v>
-      </c>
-      <c r="C221">
+        <v xml:space="preserve">その時、相手チームか凄い力 </v>
+      </c>
+      <c r="C221" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>で綱を引いてきた。</v>
       </c>
       <c r="D221">
         <f t="shared" si="59"/>
@@ -15323,18 +15327,18 @@
       </c>
       <c r="H221">
         <f t="shared" si="63"/>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J221">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K221">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L221">
         <f t="shared" si="56"/>
@@ -15363,7 +15367,7 @@
       </c>
       <c r="B222" t="str">
         <f t="shared" si="66"/>
-        <v>｢っ……！｣</v>
+        <v>｢わっ！｣</v>
       </c>
       <c r="C222">
         <f t="shared" si="58"/>
@@ -15387,10 +15391,10 @@
       </c>
       <c r="H222">
         <f t="shared" si="63"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J222">
         <f t="shared" si="64"/>
@@ -15427,11 +15431,11 @@
       </c>
       <c r="B223" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">凄い勢いで転けちゃった、恥 </v>
-      </c>
-      <c r="C223" t="str">
+        <v>｢っ……！｣</v>
+      </c>
+      <c r="C223">
         <f t="shared" si="58"/>
-        <v>ずかしい……</v>
+        <v>0</v>
       </c>
       <c r="D223">
         <f t="shared" si="59"/>
@@ -15451,18 +15455,18 @@
       </c>
       <c r="H223">
         <f t="shared" si="63"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J223">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K223">
         <f t="shared" si="65"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L223">
         <f t="shared" si="56"/>
@@ -15491,15 +15495,15 @@
       </c>
       <c r="B224" t="str">
         <f t="shared" si="66"/>
-        <v>｢怪我をしている……この様子</v>
+        <v xml:space="preserve">凄い勢いで転けちゃった、恥 </v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> だと大丈夫そうではないな。 </v>
-      </c>
-      <c r="D224" t="str">
+        <v>ずかしい……</v>
+      </c>
+      <c r="D224">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> 健室に向かおう。｣</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <f t="shared" si="60"/>
@@ -15515,10 +15519,10 @@
       </c>
       <c r="H224">
         <f t="shared" si="63"/>
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J224">
         <f t="shared" si="64"/>
@@ -15526,11 +15530,11 @@
       </c>
       <c r="K224">
         <f t="shared" si="65"/>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L224">
         <f t="shared" si="56"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M224">
         <f t="shared" si="56"/>
@@ -15555,15 +15559,15 @@
       </c>
       <c r="B225" t="str">
         <f t="shared" si="66"/>
-        <v>｢なんで先輩が……って、えっ</v>
+        <v>｢怪我をしている……この様子</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> ？！！｣</v>
-      </c>
-      <c r="D225">
+        <v xml:space="preserve"> だと大丈夫そうではないな。 </v>
+      </c>
+      <c r="D225" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v xml:space="preserve"> 健室に向かおう。｣</v>
       </c>
       <c r="E225">
         <f t="shared" si="60"/>
@@ -15579,10 +15583,10 @@
       </c>
       <c r="H225">
         <f t="shared" si="63"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J225">
         <f t="shared" si="64"/>
@@ -15590,11 +15594,11 @@
       </c>
       <c r="K225">
         <f t="shared" si="65"/>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="L225">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M225">
         <f t="shared" si="56"/>
@@ -15619,11 +15623,11 @@
       </c>
       <c r="B226" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C226">
+        <v>｢なんで先輩が……って、えっ</v>
+      </c>
+      <c r="C226" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v xml:space="preserve"> ？！！｣</v>
       </c>
       <c r="D226">
         <f t="shared" si="59"/>
@@ -15643,18 +15647,18 @@
       </c>
       <c r="H226">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="J226">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K226">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L226">
         <f t="shared" si="56"/>
@@ -15683,11 +15687,11 @@
       </c>
       <c r="B227" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">私、お姫様だっこされてる？ </v>
-      </c>
-      <c r="C227" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C227">
         <f t="shared" si="58"/>
-        <v>！！</v>
+        <v>0</v>
       </c>
       <c r="D227">
         <f t="shared" si="59"/>
@@ -15707,18 +15711,18 @@
       </c>
       <c r="H227">
         <f t="shared" si="63"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="J227">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L227">
         <f t="shared" si="56"/>
@@ -15747,19 +15751,19 @@
       </c>
       <c r="B228" t="str">
         <f t="shared" si="66"/>
-        <v>｢僕はリレーなどは得意ではな</v>
+        <v xml:space="preserve">私、お姫様だっこされてる？ </v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> いから綱引きに出たんだ。お </v>
-      </c>
-      <c r="D228" t="str">
+        <v>！！</v>
+      </c>
+      <c r="D228">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
-      </c>
-      <c r="E228" t="str">
+        <v>0</v>
+      </c>
+      <c r="E228">
         <f t="shared" si="60"/>
-        <v>ことができてよかった。｣</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <f t="shared" si="61"/>
@@ -15771,10 +15775,10 @@
       </c>
       <c r="H228">
         <f t="shared" si="63"/>
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J228">
         <f t="shared" si="64"/>
@@ -15782,15 +15786,15 @@
       </c>
       <c r="K228">
         <f t="shared" si="65"/>
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="L228">
         <f t="shared" si="56"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M228">
         <f t="shared" si="56"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N228">
         <f t="shared" si="56"/>
@@ -15811,19 +15815,19 @@
       </c>
       <c r="B229" t="str">
         <f t="shared" si="66"/>
-        <v>｢あの子目鏡生徒会長にお姫様</v>
+        <v>｢僕はリレーなどは得意ではな</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> だっこされてる、いいな〜… </v>
+        <v xml:space="preserve"> いから綱引きに出たんだ。お </v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> ｣</v>
-      </c>
-      <c r="E229">
+        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
+      </c>
+      <c r="E229" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>ことができてよかった。｣</v>
       </c>
       <c r="F229">
         <f t="shared" si="61"/>
@@ -15835,10 +15839,10 @@
       </c>
       <c r="H229">
         <f t="shared" si="63"/>
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J229">
         <f t="shared" si="64"/>
@@ -15846,15 +15850,15 @@
       </c>
       <c r="K229">
         <f t="shared" si="65"/>
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="L229">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M229">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N229">
         <f t="shared" si="56"/>
@@ -15875,15 +15879,15 @@
       </c>
       <c r="B230" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">ひぃ、そうだった、光先輩っ </v>
+        <v>｢あの子目鏡生徒会長にお姫様</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="58"/>
-        <v>て本来はイケメンなんだった。</v>
-      </c>
-      <c r="D230">
+        <v xml:space="preserve"> だっこされてる、いいな〜… </v>
+      </c>
+      <c r="D230" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v xml:space="preserve"> ｣</v>
       </c>
       <c r="E230">
         <f t="shared" si="60"/>
@@ -15899,10 +15903,10 @@
       </c>
       <c r="H230">
         <f t="shared" si="63"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J230">
         <f t="shared" si="64"/>
@@ -15910,11 +15914,11 @@
       </c>
       <c r="K230">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L230">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230">
         <f t="shared" si="56"/>
@@ -15939,11 +15943,11 @@
       </c>
       <c r="B231" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">周りの女子たちに羨望の眼差 </v>
+        <v xml:space="preserve">ひぃ、そうだった、光先輩っ </v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="58"/>
-        <v>しで見られてる……</v>
+        <v>て本来はイケメンなんだった。</v>
       </c>
       <c r="D231">
         <f t="shared" si="59"/>
@@ -15963,10 +15967,10 @@
       </c>
       <c r="H231">
         <f t="shared" si="63"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J231">
         <f t="shared" si="64"/>
@@ -15974,7 +15978,7 @@
       </c>
       <c r="K231">
         <f t="shared" si="65"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L231">
         <f t="shared" si="56"/>
@@ -16003,11 +16007,11 @@
       </c>
       <c r="B232" t="str">
         <f t="shared" si="66"/>
-        <v>[保健室]</v>
-      </c>
-      <c r="C232">
+        <v xml:space="preserve">周りの女子たちに羨望の眼差 </v>
+      </c>
+      <c r="C232" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>しで見られてる……</v>
       </c>
       <c r="D232">
         <f t="shared" si="59"/>
@@ -16027,18 +16031,18 @@
       </c>
       <c r="H232">
         <f t="shared" si="63"/>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J232">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L232">
         <f t="shared" si="56"/>
@@ -16067,19 +16071,19 @@
       </c>
       <c r="B233" t="str">
         <f t="shared" si="66"/>
-        <v>｢あの、光先輩！保健室まで運</v>
-      </c>
-      <c r="C233" t="str">
+        <v>[保健室]</v>
+      </c>
+      <c r="C233">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> んでくださってありがとうご </v>
-      </c>
-      <c r="D233" t="str">
+        <v>0</v>
+      </c>
+      <c r="D233">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> います。すみません、迷惑を </v>
-      </c>
-      <c r="E233" t="str">
+        <v>0</v>
+      </c>
+      <c r="E233">
         <f t="shared" si="60"/>
-        <v>かけちゃって……｣</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <f t="shared" si="61"/>
@@ -16091,26 +16095,26 @@
       </c>
       <c r="H233">
         <f t="shared" si="63"/>
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J233">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233">
         <f t="shared" si="65"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L233">
         <f t="shared" si="56"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="M233">
         <f t="shared" si="56"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N233">
         <f t="shared" si="56"/>
@@ -16131,19 +16135,19 @@
       </c>
       <c r="B234" t="str">
         <f t="shared" si="66"/>
-        <v>｢気にしないでくれ。一生懸命</v>
+        <v>｢あの、光先輩！保健室まで運</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> 頑張った結果だからな。｣</v>
-      </c>
-      <c r="D234">
+        <v xml:space="preserve"> んでくださってありがとうご </v>
+      </c>
+      <c r="D234" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E234">
+        <v xml:space="preserve"> います。すみません、迷惑を </v>
+      </c>
+      <c r="E234" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>かけちゃって……｣</v>
       </c>
       <c r="F234">
         <f t="shared" si="61"/>
@@ -16155,10 +16159,10 @@
       </c>
       <c r="H234">
         <f t="shared" si="63"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J234">
         <f t="shared" si="64"/>
@@ -16166,15 +16170,15 @@
       </c>
       <c r="K234">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="L234">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M234">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N234">
         <f t="shared" si="56"/>
@@ -16195,11 +16199,11 @@
       </c>
       <c r="B235" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">やっぱり光先輩って優しいな </v>
+        <v>｢気にしないでくれ。一生懸命</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="58"/>
-        <v>……</v>
+        <v xml:space="preserve"> 頑張った結果だからな。｣</v>
       </c>
       <c r="D235">
         <f t="shared" si="59"/>
@@ -16219,10 +16223,10 @@
       </c>
       <c r="H235">
         <f t="shared" si="63"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J235">
         <f t="shared" si="64"/>
@@ -16230,7 +16234,7 @@
       </c>
       <c r="K235">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L235">
         <f t="shared" si="56"/>
@@ -16259,11 +16263,11 @@
       </c>
       <c r="B236" t="str">
         <f t="shared" si="66"/>
-        <v>[運動場]</v>
-      </c>
-      <c r="C236">
+        <v xml:space="preserve">やっぱり光先輩って優しいな </v>
+      </c>
+      <c r="C236" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>……</v>
       </c>
       <c r="D236">
         <f t="shared" si="59"/>
@@ -16283,18 +16287,18 @@
       </c>
       <c r="H236">
         <f t="shared" si="63"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="J236">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L236">
         <f t="shared" si="56"/>
@@ -16323,60 +16327,124 @@
       </c>
       <c r="B237" t="str">
         <f t="shared" si="66"/>
+        <v>[運動場]</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="66"/>
         <v xml:space="preserve">無事に体育祭が終わった。今 </v>
       </c>
-      <c r="C237" t="str">
+      <c r="C238" t="str">
         <f t="shared" si="58"/>
         <v>日は色んな人に助けられた一日</v>
       </c>
-      <c r="D237" t="str">
+      <c r="D238" t="str">
         <f t="shared" si="59"/>
         <v>だったな……今度お礼をしなく</v>
       </c>
-      <c r="E237" t="str">
+      <c r="E238" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> ちゃ！</v>
       </c>
-      <c r="F237">
+      <c r="F238">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="G237">
+      <c r="G238">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="H237">
+      <c r="H238">
         <f t="shared" si="63"/>
         <v>88</v>
       </c>
-      <c r="I237" s="1" t="s">
+      <c r="I238" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J237">
+      <c r="J238">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="K237">
+      <c r="K238">
         <f t="shared" si="65"/>
         <v>62</v>
       </c>
-      <c r="L237">
+      <c r="L238">
         <f t="shared" si="56"/>
         <v>34</v>
       </c>
-      <c r="M237">
+      <c r="M238">
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="N237">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O237">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P237">
+      <c r="N238">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P238">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642F9D2E-070C-4DA6-BE2B-7FC6A2CE7E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F968394-5735-48FC-A543-7E3CE64722CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6168" yWindow="1368" windowWidth="13524" windowHeight="9552" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -841,10 +841,6 @@
   </si>
   <si>
     <t>無事に体育祭が終わった。今日は色んな人に助けられた一日だったな……今度お礼をしなくちゃ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1214,13 +1210,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P238"/>
+  <dimension ref="A1:P237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomRight" activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9548,38 +9544,38 @@
         <v xml:space="preserve">「最近学園の近くにパンケー </v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C195" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <f t="shared" ref="C131:C194" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
         <v>キ屋さんができたんだって〜！</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D195" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <f t="shared" ref="D131:D194" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
         <v>今度行かない？」</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E195" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E131:E194" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F195" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F131:F194" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G195" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G131:G194" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H195" si="50">LENB(I131)</f>
+        <f t="shared" ref="H131:H194" si="50">LENB(I131)</f>
         <v>69</v>
       </c>
       <c r="I131" t="s">
         <v>143</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J195" si="51">IF(H131&gt;26, 1, 0)</f>
+        <f t="shared" ref="J131:J194" si="51">IF(H131&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K195" si="52">IF(J131,H131-26, 0)</f>
+        <f t="shared" ref="K131:K194" si="52">IF(J131,H131-26, 0)</f>
         <v>43</v>
       </c>
       <c r="L131">
@@ -9608,7 +9604,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B196" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <f t="shared" ref="B132:B195" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
         <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
       </c>
       <c r="C132" t="str">
@@ -11373,7 +11369,7 @@
         <v>48</v>
       </c>
       <c r="L159">
-        <f t="shared" ref="L159:P175" si="55">IF(K159&gt;26,K159-28, 0)</f>
+        <f t="shared" ref="L159:P174" si="55">IF(K159&gt;26,K159-28, 0)</f>
         <v>20</v>
       </c>
       <c r="M159">
@@ -11591,11 +11587,11 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C163">
+        <v xml:space="preserve">「うん！いい感じ！二人とも </v>
+      </c>
+      <c r="C163" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>盛れてる〜っ！」</v>
       </c>
       <c r="D163">
         <f t="shared" si="46"/>
@@ -11615,18 +11611,18 @@
       </c>
       <c r="H163">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I163" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="J163">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L163">
         <f t="shared" si="55"/>
@@ -11655,19 +11651,19 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「うん！いい感じ！二人とも </v>
+        <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="45"/>
-        <v>盛れてる〜っ！」</v>
-      </c>
-      <c r="D164">
+        <v>が普通の男の子に戻った時のた</v>
+      </c>
+      <c r="D164" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E164">
+        <v>めに写真大切に残しとかなきゃ</v>
+      </c>
+      <c r="E164" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v xml:space="preserve"> ！</v>
       </c>
       <c r="F164">
         <f t="shared" si="48"/>
@@ -11679,10 +11675,10 @@
       </c>
       <c r="H164">
         <f t="shared" si="50"/>
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I164" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J164">
         <f t="shared" si="51"/>
@@ -11690,15 +11686,15 @@
       </c>
       <c r="K164">
         <f t="shared" si="52"/>
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="L164">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M164">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N164">
         <f t="shared" si="55"/>
@@ -11719,19 +11715,19 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
+        <v xml:space="preserve">「これもイ〇スタにのせるの </v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="45"/>
-        <v>が普通の男の子に戻った時のた</v>
-      </c>
-      <c r="D165" t="str">
+        <v>？」</v>
+      </c>
+      <c r="D165">
         <f t="shared" si="46"/>
-        <v>めに写真大切に残しとかなきゃ</v>
-      </c>
-      <c r="E165" t="str">
+        <v>0</v>
+      </c>
+      <c r="E165">
         <f t="shared" si="47"/>
-        <v xml:space="preserve"> ！</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <f t="shared" si="48"/>
@@ -11743,10 +11739,10 @@
       </c>
       <c r="H165">
         <f t="shared" si="50"/>
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J165">
         <f t="shared" si="51"/>
@@ -11754,15 +11750,15 @@
       </c>
       <c r="K165">
         <f t="shared" si="52"/>
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="L165">
         <f t="shared" si="55"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <f t="shared" si="55"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N165">
         <f t="shared" si="55"/>
@@ -11783,19 +11779,19 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「これもイ〇スタにのせるの </v>
+        <v xml:space="preserve">「んーん！これは二人だけの </v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="45"/>
-        <v>？」</v>
-      </c>
-      <c r="D166">
+        <v>写真だよ。可愛い子との写真を</v>
+      </c>
+      <c r="D166" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E166">
+        <v>載せたら他の子達が嫉妬しちゃ</v>
+      </c>
+      <c r="E166" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v xml:space="preserve"> うから！」</v>
       </c>
       <c r="F166">
         <f t="shared" si="48"/>
@@ -11807,10 +11803,10 @@
       </c>
       <c r="H166">
         <f t="shared" si="50"/>
-        <v>30</v>
-      </c>
-      <c r="I166" t="s">
-        <v>169</v>
+        <v>92</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="J166">
         <f t="shared" si="51"/>
@@ -11818,15 +11814,15 @@
       </c>
       <c r="K166">
         <f t="shared" si="52"/>
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="L166">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M166">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N166">
         <f t="shared" si="55"/>
@@ -11847,19 +11843,19 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「んーん！これは二人だけの </v>
+        <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="45"/>
-        <v>写真だよ。可愛い子との写真を</v>
+        <v>たかったよ〜！呪いを解くため</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="46"/>
-        <v>載せたら他の子達が嫉妬しちゃ</v>
-      </c>
-      <c r="E167" t="str">
+        <v>にがんばらなきゃ。</v>
+      </c>
+      <c r="E167">
         <f t="shared" si="47"/>
-        <v xml:space="preserve"> うから！」</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <f t="shared" si="48"/>
@@ -11871,10 +11867,10 @@
       </c>
       <c r="H167">
         <f t="shared" si="50"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J167">
         <f t="shared" si="51"/>
@@ -11882,15 +11878,15 @@
       </c>
       <c r="K167">
         <f t="shared" si="52"/>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="L167">
         <f t="shared" si="55"/>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M167">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <f t="shared" si="55"/>
@@ -11911,15 +11907,15 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
+        <v xml:space="preserve">今月はお小遣い使い過ぎちゃ </v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="45"/>
-        <v>たかったよ〜！呪いを解くため</v>
+        <v>ってパンケーキを食べる余裕は</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="46"/>
-        <v>にがんばらなきゃ。</v>
+        <v>ないな……</v>
       </c>
       <c r="E168">
         <f t="shared" si="47"/>
@@ -11935,10 +11931,10 @@
       </c>
       <c r="H168">
         <f t="shared" si="50"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J168">
         <f t="shared" si="51"/>
@@ -11946,11 +11942,11 @@
       </c>
       <c r="K168">
         <f t="shared" si="52"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L168">
         <f t="shared" si="55"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M168">
         <f t="shared" si="55"/>
@@ -11975,15 +11971,15 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">今月はお小遣い使い過ぎちゃ </v>
+        <v xml:space="preserve">「パンケーキ食べたかったけ </v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="45"/>
-        <v>ってパンケーキを食べる余裕は</v>
+        <v>ど今月金欠で行けそうにないな</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="46"/>
-        <v>ないな……</v>
+        <v>！ごめんね！」</v>
       </c>
       <c r="E169">
         <f t="shared" si="47"/>
@@ -11999,10 +11995,10 @@
       </c>
       <c r="H169">
         <f t="shared" si="50"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J169">
         <f t="shared" si="51"/>
@@ -12010,11 +12006,11 @@
       </c>
       <c r="K169">
         <f t="shared" si="52"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L169">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M169">
         <f t="shared" si="55"/>
@@ -12039,15 +12035,15 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「パンケーキ食べたかったけ </v>
+        <v xml:space="preserve">「そういうときもあるよね〜 </v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="45"/>
-        <v>ど今月金欠で行けそうにないな</v>
+        <v>！他の人誘うから気にしないで</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="46"/>
-        <v>！ごめんね！」</v>
+        <v>！」</v>
       </c>
       <c r="E170">
         <f t="shared" si="47"/>
@@ -12063,10 +12059,10 @@
       </c>
       <c r="H170">
         <f t="shared" si="50"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J170">
         <f t="shared" si="51"/>
@@ -12074,11 +12070,11 @@
       </c>
       <c r="K170">
         <f t="shared" si="52"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L170">
         <f t="shared" si="55"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M170">
         <f t="shared" si="55"/>
@@ -12103,15 +12099,15 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「そういうときもあるよね〜 </v>
+        <v xml:space="preserve">か、悲しい……また金欠にな </v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="45"/>
-        <v>！他の人誘うから気にしないで</v>
+        <v>らないようにバイトして稼がな</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="46"/>
-        <v>！」</v>
+        <v>いと！</v>
       </c>
       <c r="E171">
         <f t="shared" si="47"/>
@@ -12127,10 +12123,10 @@
       </c>
       <c r="H171">
         <f t="shared" si="50"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J171">
         <f t="shared" si="51"/>
@@ -12138,11 +12134,11 @@
       </c>
       <c r="K171">
         <f t="shared" si="52"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L171">
         <f t="shared" si="55"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M171">
         <f t="shared" si="55"/>
@@ -12167,15 +12163,15 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">か、悲しい……また金欠にな </v>
+        <v xml:space="preserve">                           </v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="45"/>
-        <v>らないようにバイトして稼がな</v>
-      </c>
-      <c r="D172" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D172">
         <f t="shared" si="46"/>
-        <v>いと！</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <f t="shared" si="47"/>
@@ -12191,10 +12187,10 @@
       </c>
       <c r="H172">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="J172">
         <f t="shared" si="51"/>
@@ -12202,11 +12198,11 @@
       </c>
       <c r="K172">
         <f t="shared" si="52"/>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L172">
         <f t="shared" si="55"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M172">
         <f t="shared" si="55"/>
@@ -12231,11 +12227,11 @@
       </c>
       <c r="B173" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">                           </v>
-      </c>
-      <c r="C173" t="str">
+        <v>[体育館]</v>
+      </c>
+      <c r="C173">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="D173">
         <f t="shared" si="46"/>
@@ -12255,18 +12251,18 @@
       </c>
       <c r="H173">
         <f t="shared" si="50"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="J173">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173">
         <f t="shared" si="55"/>
@@ -12295,15 +12291,15 @@
       </c>
       <c r="B174" t="str">
         <f t="shared" si="53"/>
-        <v>[体育館]</v>
-      </c>
-      <c r="C174">
+        <v xml:space="preserve">今日は体育祭。昨日まで天気 </v>
+      </c>
+      <c r="C174" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D174">
+        <v>が不安だったけど、無事に晴れ</v>
+      </c>
+      <c r="D174" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>てよかった！</v>
       </c>
       <c r="E174">
         <f t="shared" si="47"/>
@@ -12319,22 +12315,22 @@
       </c>
       <c r="H174">
         <f t="shared" si="50"/>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J174">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L174">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M174">
         <f t="shared" si="55"/>
@@ -12359,15 +12355,15 @@
       </c>
       <c r="B175" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">今日は体育祭。昨日まで天気 </v>
+        <v xml:space="preserve">私は小道具の係になったから </v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="45"/>
-        <v>が不安だったけど、無事に晴れ</v>
+        <v>朝から忙しいし気合い入れて頑</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="46"/>
-        <v>てよかった！</v>
+        <v>張ろう！</v>
       </c>
       <c r="E175">
         <f t="shared" si="47"/>
@@ -12383,10 +12379,10 @@
       </c>
       <c r="H175">
         <f t="shared" si="50"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J175">
         <f t="shared" si="51"/>
@@ -12394,26 +12390,26 @@
       </c>
       <c r="K175">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L175">
-        <f t="shared" si="55"/>
-        <v>12</v>
+        <f t="shared" ref="L175:P237" si="56">IF(K175&gt;26,K175-28, 0)</f>
+        <v>8</v>
       </c>
       <c r="M175">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N175">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="O175">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P175">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -12423,15 +12419,15 @@
       </c>
       <c r="B176" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">私は小道具の係になったから </v>
+        <v xml:space="preserve">────皆よりもちょっと遅 </v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="45"/>
-        <v>朝から忙しいし気合い入れて頑</v>
+        <v>めに来ちゃったから軽めの荷物</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="46"/>
-        <v>張ろう！</v>
+        <v>は運ばれちゃったみたい……</v>
       </c>
       <c r="E176">
         <f t="shared" si="47"/>
@@ -12447,10 +12443,10 @@
       </c>
       <c r="H176">
         <f t="shared" si="50"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J176">
         <f t="shared" si="51"/>
@@ -12458,11 +12454,11 @@
       </c>
       <c r="K176">
         <f t="shared" si="52"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L176">
-        <f t="shared" ref="L176:P238" si="56">IF(K176&gt;26,K176-28, 0)</f>
-        <v>8</v>
+        <f t="shared" si="56"/>
+        <v>26</v>
       </c>
       <c r="M176">
         <f t="shared" si="56"/>
@@ -12487,15 +12483,15 @@
       </c>
       <c r="B177" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">────皆よりもちょっと遅 </v>
+        <v xml:space="preserve">さっき気合い入れて頑張ろう </v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="45"/>
-        <v>めに来ちゃったから軽めの荷物</v>
+        <v>としてたのに、重そうな小道具</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="46"/>
-        <v>は運ばれちゃったみたい……</v>
+        <v>ばかりでやる気なくなりそう。</v>
       </c>
       <c r="E177">
         <f t="shared" si="47"/>
@@ -12511,10 +12507,10 @@
       </c>
       <c r="H177">
         <f t="shared" si="50"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J177">
         <f t="shared" si="51"/>
@@ -12522,11 +12518,11 @@
       </c>
       <c r="K177">
         <f t="shared" si="52"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L177">
         <f t="shared" si="56"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M177">
         <f t="shared" si="56"/>
@@ -12551,15 +12547,15 @@
       </c>
       <c r="B178" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">さっき気合い入れて頑張ろう </v>
+        <v xml:space="preserve">でも係の仕事だしそんなこと </v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="45"/>
-        <v>としてたのに、重そうな小道具</v>
+        <v>言ってられないよね。頑張るぞ</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="46"/>
-        <v>ばかりでやる気なくなりそう。</v>
+        <v>！</v>
       </c>
       <c r="E178">
         <f t="shared" si="47"/>
@@ -12575,10 +12571,10 @@
       </c>
       <c r="H178">
         <f t="shared" si="50"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J178">
         <f t="shared" si="51"/>
@@ -12586,11 +12582,11 @@
       </c>
       <c r="K178">
         <f t="shared" si="52"/>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L178">
         <f t="shared" si="56"/>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="M178">
         <f t="shared" si="56"/>
@@ -12605,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="P178">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="P178:P237" si="57">IF(O178&gt;26,O178-28, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12615,15 +12611,15 @@
       </c>
       <c r="B179" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">でも係の仕事だしそんなこと </v>
-      </c>
-      <c r="C179" t="str">
+        <v>｢ぐぐぐ、重い！｣</v>
+      </c>
+      <c r="C179">
         <f t="shared" si="45"/>
-        <v>言ってられないよね。頑張るぞ</v>
-      </c>
-      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="D179">
         <f t="shared" si="46"/>
-        <v>！</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <f t="shared" si="47"/>
@@ -12639,22 +12635,22 @@
       </c>
       <c r="H179">
         <f t="shared" si="50"/>
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J179">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
         <f t="shared" si="52"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L179">
         <f t="shared" si="56"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M179">
         <f t="shared" si="56"/>
@@ -12669,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="P179">
-        <f t="shared" ref="P179:P238" si="57">IF(O179&gt;26,O179-28, 0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -12679,11 +12675,11 @@
       </c>
       <c r="B180" t="str">
         <f t="shared" si="53"/>
-        <v>｢ぐぐぐ、重い！｣</v>
-      </c>
-      <c r="C180">
+        <v xml:space="preserve">なんとか持てたけどフラフラ </v>
+      </c>
+      <c r="C180" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>しちゃう、よ……わっ！</v>
       </c>
       <c r="D180">
         <f t="shared" si="46"/>
@@ -12703,18 +12699,18 @@
       </c>
       <c r="H180">
         <f t="shared" si="50"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J180">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L180">
         <f t="shared" si="56"/>
@@ -12743,11 +12739,11 @@
       </c>
       <c r="B181" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">なんとか持てたけどフラフラ </v>
+        <v>｢［主人公の名前］先輩、大丈</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="45"/>
-        <v>しちゃう、よ……わっ！</v>
+        <v xml:space="preserve"> 夫？！｣</v>
       </c>
       <c r="D181">
         <f t="shared" si="46"/>
@@ -12767,10 +12763,10 @@
       </c>
       <c r="H181">
         <f t="shared" si="50"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J181">
         <f t="shared" si="51"/>
@@ -12778,7 +12774,7 @@
       </c>
       <c r="K181">
         <f t="shared" si="52"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L181">
         <f t="shared" si="56"/>
@@ -12807,11 +12803,11 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="53"/>
-        <v>｢［主人公の名前］先輩、大丈</v>
-      </c>
-      <c r="C182" t="str">
+        <v>｢琉絆空くん？！｣</v>
+      </c>
+      <c r="C182">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> 夫？！｣</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <f t="shared" si="46"/>
@@ -12831,18 +12827,18 @@
       </c>
       <c r="H182">
         <f t="shared" si="50"/>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J182">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <f t="shared" si="52"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <f t="shared" si="56"/>
@@ -12871,7 +12867,7 @@
       </c>
       <c r="B183" t="str">
         <f t="shared" si="53"/>
-        <v>｢琉絆空くん？！｣</v>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C183">
         <f t="shared" si="45"/>
@@ -12895,10 +12891,10 @@
       </c>
       <c r="H183">
         <f t="shared" si="50"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J183">
         <f t="shared" si="51"/>
@@ -12935,15 +12931,15 @@
       </c>
       <c r="B184" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C184">
+        <v>｢女の子がこんなに重い荷物持</v>
+      </c>
+      <c r="C184" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D184">
+        <v xml:space="preserve"> っちゃだめだろ？俺が持つか </v>
+      </c>
+      <c r="D184" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v xml:space="preserve"> さ！｣</v>
       </c>
       <c r="E184">
         <f t="shared" si="47"/>
@@ -12959,22 +12955,22 @@
       </c>
       <c r="H184">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J184">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L184">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M184">
         <f t="shared" si="56"/>
@@ -12999,15 +12995,15 @@
       </c>
       <c r="B185" t="str">
         <f t="shared" si="53"/>
-        <v>｢女の子がこんなに重い荷物持</v>
-      </c>
-      <c r="C185" t="str">
+        <v>｢あ、ありがとう……！｣</v>
+      </c>
+      <c r="C185">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> っちゃだめだろ？俺が持つか </v>
-      </c>
-      <c r="D185" t="str">
+        <v>0</v>
+      </c>
+      <c r="D185">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> さ！｣</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <f t="shared" si="47"/>
@@ -13023,22 +13019,22 @@
       </c>
       <c r="H185">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J185">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185">
         <f t="shared" si="52"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L185">
         <f t="shared" si="56"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M185">
         <f t="shared" si="56"/>
@@ -13063,11 +13059,11 @@
       </c>
       <c r="B186" t="str">
         <f t="shared" si="53"/>
-        <v>｢あ、ありがとう……！｣</v>
-      </c>
-      <c r="C186">
+        <v xml:space="preserve">へ〜、おじさんって力持ちな </v>
+      </c>
+      <c r="C186" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>んだな〜。</v>
       </c>
       <c r="D186">
         <f t="shared" si="46"/>
@@ -13087,18 +13083,18 @@
       </c>
       <c r="H186">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J186">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L186">
         <f t="shared" si="56"/>
@@ -13127,15 +13123,15 @@
       </c>
       <c r="B187" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">へ〜、おじさんって力持ちな </v>
+        <v xml:space="preserve">ってちがうちがう！呪いのせ </v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="45"/>
-        <v>んだな〜。</v>
-      </c>
-      <c r="D187">
+        <v>いでそう見えてるだけで高校生</v>
+      </c>
+      <c r="D187" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>の男子なんだった。</v>
       </c>
       <c r="E187">
         <f t="shared" si="47"/>
@@ -13151,10 +13147,10 @@
       </c>
       <c r="H187">
         <f t="shared" si="50"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J187">
         <f t="shared" si="51"/>
@@ -13162,11 +13158,11 @@
       </c>
       <c r="K187">
         <f t="shared" si="52"/>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="L187">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M187">
         <f t="shared" si="56"/>
@@ -13191,15 +13187,15 @@
       </c>
       <c r="B188" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">ってちがうちがう！呪いのせ </v>
+        <v>最近おじさんの姿のOG☆3に見</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="45"/>
-        <v>いでそう見えてるだけで高校生</v>
+        <v xml:space="preserve"> 慣れてきてる！あの性格の悪 </v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="46"/>
-        <v>の男子なんだった。</v>
+        <v xml:space="preserve"> 銅像に洗脳されちゃうよ〜！</v>
       </c>
       <c r="E188">
         <f t="shared" si="47"/>
@@ -13215,10 +13211,10 @@
       </c>
       <c r="H188">
         <f t="shared" si="50"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J188">
         <f t="shared" si="51"/>
@@ -13226,11 +13222,11 @@
       </c>
       <c r="K188">
         <f t="shared" si="52"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L188">
         <f t="shared" si="56"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M188">
         <f t="shared" si="56"/>
@@ -13255,15 +13251,15 @@
       </c>
       <c r="B189" t="str">
         <f t="shared" si="53"/>
-        <v>最近おじさんの姿のOG☆3に見</v>
-      </c>
-      <c r="C189" t="str">
+        <v>[運動場]</v>
+      </c>
+      <c r="C189">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> 慣れてきてる！あの性格の悪 </v>
-      </c>
-      <c r="D189" t="str">
+        <v>0</v>
+      </c>
+      <c r="D189">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> 銅像に洗脳されちゃうよ〜！</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <f t="shared" si="47"/>
@@ -13279,22 +13275,22 @@
       </c>
       <c r="H189">
         <f t="shared" si="50"/>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J189">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <f t="shared" si="52"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <f t="shared" si="56"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M189">
         <f t="shared" si="56"/>
@@ -13319,15 +13315,15 @@
       </c>
       <c r="B190" t="str">
         <f t="shared" si="53"/>
-        <v>[運動場]</v>
-      </c>
-      <c r="C190">
+        <v xml:space="preserve">琉絆空くんの協力のおかげで </v>
+      </c>
+      <c r="C190" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D190">
+        <v>無事に係の仕事も終わってよか</v>
+      </c>
+      <c r="D190" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>った！</v>
       </c>
       <c r="E190">
         <f t="shared" si="47"/>
@@ -13343,22 +13339,22 @@
       </c>
       <c r="H190">
         <f t="shared" si="50"/>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J190">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L190">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M190">
         <f t="shared" si="56"/>
@@ -13383,15 +13379,15 @@
       </c>
       <c r="B191" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">琉絆空くんの協力のおかげで </v>
+        <v xml:space="preserve">私の出番はまだだから友達の </v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="45"/>
-        <v>無事に係の仕事も終わってよか</v>
-      </c>
-      <c r="D191" t="str">
+        <v>応援でもしようかな。</v>
+      </c>
+      <c r="D191">
         <f t="shared" si="46"/>
-        <v>った！</v>
+        <v>0</v>
       </c>
       <c r="E191">
         <f t="shared" si="47"/>
@@ -13407,10 +13403,10 @@
       </c>
       <c r="H191">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J191">
         <f t="shared" si="51"/>
@@ -13418,11 +13414,11 @@
       </c>
       <c r="K191">
         <f t="shared" si="52"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L191">
         <f t="shared" si="56"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M191">
         <f t="shared" si="56"/>
@@ -13447,11 +13443,11 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">私の出番はまだだから友達の </v>
-      </c>
-      <c r="C192" t="str">
+        <v>｢キャーーーーｯ！！｣</v>
+      </c>
+      <c r="C192">
         <f t="shared" si="45"/>
-        <v>応援でもしようかな。</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <f t="shared" si="46"/>
@@ -13471,18 +13467,18 @@
       </c>
       <c r="H192">
         <f t="shared" si="50"/>
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J192">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <f t="shared" si="52"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L192">
         <f t="shared" si="56"/>
@@ -13511,7 +13507,7 @@
       </c>
       <c r="B193" t="str">
         <f t="shared" si="53"/>
-        <v>｢キャーーーーｯ！！｣</v>
+        <v>？！！</v>
       </c>
       <c r="C193">
         <f t="shared" si="45"/>
@@ -13535,10 +13531,10 @@
       </c>
       <c r="H193">
         <f t="shared" si="50"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J193">
         <f t="shared" si="51"/>
@@ -13575,11 +13571,11 @@
       </c>
       <c r="B194" t="str">
         <f t="shared" si="53"/>
-        <v>？！！</v>
-      </c>
-      <c r="C194">
+        <v xml:space="preserve">女子たちの歓声が聞こえてく </v>
+      </c>
+      <c r="C194" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>る。なんだろう？</v>
       </c>
       <c r="D194">
         <f t="shared" si="46"/>
@@ -13599,18 +13595,18 @@
       </c>
       <c r="H194">
         <f t="shared" si="50"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J194">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L194">
         <f t="shared" si="56"/>
@@ -13639,42 +13635,42 @@
       </c>
       <c r="B195" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">女子たちの歓声が聞こえてく </v>
-      </c>
-      <c r="C195" t="str">
-        <f t="shared" si="45"/>
-        <v>る。なんだろう？</v>
+        <v>｢桜児くんがんばってー！｣</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C237" si="58">IF(K195&gt;0,MIDB(I195, 27, 28),0)</f>
+        <v>0</v>
       </c>
       <c r="D195">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="D195:D237" si="59">IF(L195&gt;0, MIDB(I195, 27+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E195:E238" si="60">IF(M195&gt;0, MIDB(I195, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F195">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="F195:F237" si="61">IF(N195&gt;0, MIDB(I195, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G195">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="G195:G237" si="62">IF(O195&gt;0, MIDB(I195, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" si="50"/>
-        <v>42</v>
+        <f t="shared" ref="H195:H237" si="63">LENB(I195)</f>
+        <v>24</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J195">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" ref="J195:J237" si="64">IF(H195&gt;26, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" si="52"/>
-        <v>16</v>
+        <f t="shared" ref="K195:K237" si="65">IF(J195,H195-26, 0)</f>
+        <v>0</v>
       </c>
       <c r="L195">
         <f t="shared" si="56"/>
@@ -13702,51 +13698,51 @@
         <v>195</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="53"/>
-        <v>｢桜児くんがんばってー！｣</v>
-      </c>
-      <c r="C196">
-        <f t="shared" ref="C196:C238" si="58">IF(K196&gt;0,MIDB(I196, 27, 28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <f t="shared" ref="D196:D238" si="59">IF(L196&gt;0, MIDB(I196, 27+28, 28), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <f t="shared" ref="E196:E238" si="60">IF(M196&gt;0, MIDB(I196, 27*2+28, 28), 0)</f>
-        <v>0</v>
+        <f t="shared" ref="B196:B237" si="66">IF(J196,LEFTB(I196, 27), I196)</f>
+        <v xml:space="preserve">歓声を向けられている方を見 </v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="58"/>
+        <v>ると、リレーのアンカーとして</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="59"/>
+        <v>バトンを待つ桜児くんが見えた</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> 。</v>
       </c>
       <c r="F196">
-        <f t="shared" ref="F196:F238" si="61">IF(N196&gt;0, MIDB(I196, 27*3+28, 28), 0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G196">
-        <f t="shared" ref="G196:G238" si="62">IF(O196&gt;0, MIDB(I196, 27*4+28, 28), 0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" ref="H196:H238" si="63">LENB(I196)</f>
-        <v>24</v>
+        <f t="shared" si="63"/>
+        <v>84</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J196">
-        <f t="shared" ref="J196:J238" si="64">IF(H196&gt;26, 1, 0)</f>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>1</v>
       </c>
       <c r="K196">
-        <f t="shared" ref="K196:K238" si="65">IF(J196,H196-26, 0)</f>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>58</v>
       </c>
       <c r="L196">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M196">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N196">
         <f t="shared" si="56"/>
@@ -13766,20 +13762,20 @@
         <v>196</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" ref="B197:B238" si="66">IF(J197,LEFTB(I197, 27), I197)</f>
-        <v xml:space="preserve">歓声を向けられている方を見 </v>
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くんの前の人は一位と大 </v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="58"/>
-        <v>ると、リレーのアンカーとして</v>
-      </c>
-      <c r="D197" t="str">
+        <v>差つけられて二位みたい。</v>
+      </c>
+      <c r="D197">
         <f t="shared" si="59"/>
-        <v>バトンを待つ桜児くんが見えた</v>
-      </c>
-      <c r="E197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> 。</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <f t="shared" si="61"/>
@@ -13791,10 +13787,10 @@
       </c>
       <c r="H197">
         <f t="shared" si="63"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J197">
         <f t="shared" si="64"/>
@@ -13802,15 +13798,15 @@
       </c>
       <c r="K197">
         <f t="shared" si="65"/>
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="L197">
         <f t="shared" si="56"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M197">
         <f t="shared" si="56"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N197">
         <f t="shared" si="56"/>
@@ -13831,19 +13827,19 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんの前の人は一位と大 </v>
+        <v xml:space="preserve">おじさんの呪いをかけられる </v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="58"/>
-        <v>差つけられて二位みたい。</v>
-      </c>
-      <c r="D198">
+        <v>前の桜児くんを思い出すと、小</v>
+      </c>
+      <c r="D198" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E198">
+        <v>柄で女の子みたいだし大丈夫か</v>
+      </c>
+      <c r="E198" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v xml:space="preserve"> な……？</v>
       </c>
       <c r="F198">
         <f t="shared" si="61"/>
@@ -13855,10 +13851,10 @@
       </c>
       <c r="H198">
         <f t="shared" si="63"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J198">
         <f t="shared" si="64"/>
@@ -13866,15 +13862,15 @@
       </c>
       <c r="K198">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="L198">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M198">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N198">
         <f t="shared" si="56"/>
@@ -13895,19 +13891,19 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">おじさんの呪いをかけられる </v>
+        <v xml:space="preserve">ちょっと心配だけど桜児くん </v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="58"/>
-        <v>前の桜児くんを思い出すと、小</v>
+        <v>にがんばってほしいし私も応援</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="59"/>
-        <v>柄で女の子みたいだし大丈夫か</v>
-      </c>
-      <c r="E199" t="str">
+        <v>しよう！</v>
+      </c>
+      <c r="E199">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> な……？</v>
+        <v>0</v>
       </c>
       <c r="F199">
         <f t="shared" si="61"/>
@@ -13919,10 +13915,10 @@
       </c>
       <c r="H199">
         <f t="shared" si="63"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J199">
         <f t="shared" si="64"/>
@@ -13930,15 +13926,15 @@
       </c>
       <c r="K199">
         <f t="shared" si="65"/>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="L199">
         <f t="shared" si="56"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="M199">
         <f t="shared" si="56"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <f t="shared" si="56"/>
@@ -13959,15 +13955,15 @@
       </c>
       <c r="B200" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">ちょっと心配だけど桜児くん </v>
-      </c>
-      <c r="C200" t="str">
+        <v>｢桜児くんがんばれーー！！｣</v>
+      </c>
+      <c r="C200">
         <f t="shared" si="58"/>
-        <v>にがんばってほしいし私も応援</v>
-      </c>
-      <c r="D200" t="str">
+        <v>0</v>
+      </c>
+      <c r="D200">
         <f t="shared" si="59"/>
-        <v>しよう！</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <f t="shared" si="60"/>
@@ -13983,22 +13979,22 @@
       </c>
       <c r="H200">
         <f t="shared" si="63"/>
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J200">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <f t="shared" si="65"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L200">
         <f t="shared" si="56"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M200">
         <f t="shared" si="56"/>
@@ -14023,11 +14019,11 @@
       </c>
       <c r="B201" t="str">
         <f t="shared" si="66"/>
-        <v>｢桜児くんがんばれーー！！｣</v>
-      </c>
-      <c r="C201">
+        <v xml:space="preserve">ついに桜児くんにバトンが渡 </v>
+      </c>
+      <c r="C201" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>ったその時​─────</v>
       </c>
       <c r="D201">
         <f t="shared" si="59"/>
@@ -14047,18 +14043,18 @@
       </c>
       <c r="H201">
         <f t="shared" si="63"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J201">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L201">
         <f t="shared" si="56"/>
@@ -14087,11 +14083,11 @@
       </c>
       <c r="B202" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">ついに桜児くんにバトンが渡 </v>
-      </c>
-      <c r="C202" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C202">
         <f t="shared" si="58"/>
-        <v>ったその時​─────</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <f t="shared" si="59"/>
@@ -14111,18 +14107,18 @@
       </c>
       <c r="H202">
         <f t="shared" si="63"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J202">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202">
         <f t="shared" si="65"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L202">
         <f t="shared" si="56"/>
@@ -14151,11 +14147,11 @@
       </c>
       <c r="B203" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C203">
+        <v>｢おまたせ〜！ごめんね一位の</v>
+      </c>
+      <c r="C203" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v xml:space="preserve"> 人！抜かしちゃうよ！｣</v>
       </c>
       <c r="D203">
         <f t="shared" si="59"/>
@@ -14175,18 +14171,18 @@
       </c>
       <c r="H203">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J203">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L203">
         <f t="shared" si="56"/>
@@ -14215,11 +14211,11 @@
       </c>
       <c r="B204" t="str">
         <f t="shared" si="66"/>
-        <v>｢おまたせ〜！ごめんね一位の</v>
-      </c>
-      <c r="C204" t="str">
+        <v>｢キャーーー！｣</v>
+      </c>
+      <c r="C204">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> 人！抜かしちゃうよ！｣</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <f t="shared" si="59"/>
@@ -14239,18 +14235,18 @@
       </c>
       <c r="H204">
         <f t="shared" si="63"/>
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J204">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204">
         <f t="shared" si="65"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L204">
         <f t="shared" si="56"/>
@@ -14279,11 +14275,11 @@
       </c>
       <c r="B205" t="str">
         <f t="shared" si="66"/>
-        <v>｢キャーーー！｣</v>
-      </c>
-      <c r="C205">
+        <v xml:space="preserve">桜児くん速い！あっという間 </v>
+      </c>
+      <c r="C205" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>に一位の人を抜かしちゃった！</v>
       </c>
       <c r="D205">
         <f t="shared" si="59"/>
@@ -14303,18 +14299,18 @@
       </c>
       <c r="H205">
         <f t="shared" si="63"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J205">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L205">
         <f t="shared" si="56"/>
@@ -14343,11 +14339,11 @@
       </c>
       <c r="B206" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くん速い！あっという間 </v>
+        <v xml:space="preserve">桜児くんって見かけによらず </v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="58"/>
-        <v>に一位の人を抜かしちゃった！</v>
+        <v>運動神経よかったんだ……</v>
       </c>
       <c r="D206">
         <f t="shared" si="59"/>
@@ -14367,10 +14363,10 @@
       </c>
       <c r="H206">
         <f t="shared" si="63"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J206">
         <f t="shared" si="64"/>
@@ -14378,7 +14374,7 @@
       </c>
       <c r="K206">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L206">
         <f t="shared" si="56"/>
@@ -14407,11 +14403,11 @@
       </c>
       <c r="B207" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんって見かけによらず </v>
+        <v xml:space="preserve">リレーが終わって桜児くんは </v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="58"/>
-        <v>運動神経よかったんだ……</v>
+        <v>応援席にきてくれた。</v>
       </c>
       <c r="D207">
         <f t="shared" si="59"/>
@@ -14431,10 +14427,10 @@
       </c>
       <c r="H207">
         <f t="shared" si="63"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J207">
         <f t="shared" si="64"/>
@@ -14442,7 +14438,7 @@
       </c>
       <c r="K207">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L207">
         <f t="shared" si="56"/>
@@ -14471,11 +14467,11 @@
       </c>
       <c r="B208" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">リレーが終わって桜児くんは </v>
-      </c>
-      <c r="C208" t="str">
+        <v>｢桜児くんお疲れ様！｣</v>
+      </c>
+      <c r="C208">
         <f t="shared" si="58"/>
-        <v>応援席にきてくれた。</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <f t="shared" si="59"/>
@@ -14495,18 +14491,18 @@
       </c>
       <c r="H208">
         <f t="shared" si="63"/>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J208">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208">
         <f t="shared" si="65"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L208">
         <f t="shared" si="56"/>
@@ -14535,15 +14531,15 @@
       </c>
       <c r="B209" t="str">
         <f t="shared" si="66"/>
-        <v>｢桜児くんお疲れ様！｣</v>
-      </c>
-      <c r="C209">
+        <v>｢[主人公の名前]ちゃん、応援</v>
+      </c>
+      <c r="C209" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D209">
+        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
+      </c>
+      <c r="D209" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
       </c>
       <c r="E209">
         <f t="shared" si="60"/>
@@ -14559,22 +14555,22 @@
       </c>
       <c r="H209">
         <f t="shared" si="63"/>
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J209">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L209">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M209">
         <f t="shared" si="56"/>
@@ -14599,15 +14595,15 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="66"/>
-        <v>｢[主人公の名前]ちゃん、応援</v>
+        <v xml:space="preserve">桜児くんはやっぱりファンサ </v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
+        <v>が手厚いな〜。応援してくれて</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
+        <v>るし、綱引きがんばるぞ！</v>
       </c>
       <c r="E210">
         <f t="shared" si="60"/>
@@ -14626,7 +14622,7 @@
         <v>77</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J210">
         <f t="shared" si="64"/>
@@ -14663,15 +14659,15 @@
       </c>
       <c r="B211" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんはやっぱりファンサ </v>
-      </c>
-      <c r="C211" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C211">
         <f t="shared" si="58"/>
-        <v>が手厚いな〜。応援してくれて</v>
-      </c>
-      <c r="D211" t="str">
+        <v>0</v>
+      </c>
+      <c r="D211">
         <f t="shared" si="59"/>
-        <v>るし、綱引きがんばるぞ！</v>
+        <v>0</v>
       </c>
       <c r="E211">
         <f t="shared" si="60"/>
@@ -14687,22 +14683,22 @@
       </c>
       <c r="H211">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J211">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211">
         <f t="shared" si="65"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L211">
         <f t="shared" si="56"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M211">
         <f t="shared" si="56"/>
@@ -14791,7 +14787,7 @@
       </c>
       <c r="B213" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
+        <v>｢位置について、よーい……｣</v>
       </c>
       <c r="C213">
         <f t="shared" si="58"/>
@@ -14815,10 +14811,10 @@
       </c>
       <c r="H213">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="J213">
         <f t="shared" si="64"/>
@@ -14855,7 +14851,7 @@
       </c>
       <c r="B214" t="str">
         <f t="shared" si="66"/>
-        <v>｢位置について、よーい……｣</v>
+        <v>ピストルの音がなる。</v>
       </c>
       <c r="C214">
         <f t="shared" si="58"/>
@@ -14879,10 +14875,10 @@
       </c>
       <c r="H214">
         <f t="shared" si="63"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J214">
         <f t="shared" si="64"/>
@@ -14919,15 +14915,15 @@
       </c>
       <c r="B215" t="str">
         <f t="shared" si="66"/>
-        <v>ピストルの音がなる。</v>
-      </c>
-      <c r="C215">
+        <v xml:space="preserve">相手のチームすごい力だ…… </v>
+      </c>
+      <c r="C215" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D215">
+        <v>！力には自信ないけど頑張らな</v>
+      </c>
+      <c r="D215" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>くちゃ！</v>
       </c>
       <c r="E215">
         <f t="shared" si="60"/>
@@ -14943,22 +14939,22 @@
       </c>
       <c r="H215">
         <f t="shared" si="63"/>
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J215">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L215">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M215">
         <f t="shared" si="56"/>
@@ -14983,15 +14979,15 @@
       </c>
       <c r="B216" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">相手のチームすごい力だ…… </v>
+        <v xml:space="preserve">自分たちのチームも負けじと </v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="58"/>
-        <v>！力には自信ないけど頑張らな</v>
-      </c>
-      <c r="D216" t="str">
+        <v>綱を引いている。いい感じ！</v>
+      </c>
+      <c r="D216">
         <f t="shared" si="59"/>
-        <v>くちゃ！</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <f t="shared" si="60"/>
@@ -15007,10 +15003,10 @@
       </c>
       <c r="H216">
         <f t="shared" si="63"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J216">
         <f t="shared" si="64"/>
@@ -15018,11 +15014,11 @@
       </c>
       <c r="K216">
         <f t="shared" si="65"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L216">
         <f t="shared" si="56"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M216">
         <f t="shared" si="56"/>
@@ -15047,11 +15043,11 @@
       </c>
       <c r="B217" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">自分たちのチームも負けじと </v>
-      </c>
-      <c r="C217" t="str">
+        <v>｢うっ！痛い｣</v>
+      </c>
+      <c r="C217">
         <f t="shared" si="58"/>
-        <v>綱を引いている。いい感じ！</v>
+        <v>0</v>
       </c>
       <c r="D217">
         <f t="shared" si="59"/>
@@ -15071,18 +15067,18 @@
       </c>
       <c r="H217">
         <f t="shared" si="63"/>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J217">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217">
         <f t="shared" si="65"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L217">
         <f t="shared" si="56"/>
@@ -15111,11 +15107,11 @@
       </c>
       <c r="B218" t="str">
         <f t="shared" si="66"/>
-        <v>｢うっ！痛い｣</v>
-      </c>
-      <c r="C218">
+        <v xml:space="preserve">手と綱が擦れてすごく痛い… </v>
+      </c>
+      <c r="C218" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>…！</v>
       </c>
       <c r="D218">
         <f t="shared" si="59"/>
@@ -15135,18 +15131,18 @@
       </c>
       <c r="H218">
         <f t="shared" si="63"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J218">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L218">
         <f t="shared" si="56"/>
@@ -15175,11 +15171,11 @@
       </c>
       <c r="B219" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">手と綱が擦れてすごく痛い… </v>
+        <v xml:space="preserve">でも、もう少しで勝てそう！ </v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="58"/>
-        <v>…！</v>
+        <v>我慢我慢……</v>
       </c>
       <c r="D219">
         <f t="shared" si="59"/>
@@ -15199,10 +15195,10 @@
       </c>
       <c r="H219">
         <f t="shared" si="63"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J219">
         <f t="shared" si="64"/>
@@ -15210,7 +15206,7 @@
       </c>
       <c r="K219">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L219">
         <f t="shared" si="56"/>
@@ -15239,11 +15235,11 @@
       </c>
       <c r="B220" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">でも、もう少しで勝てそう！ </v>
+        <v xml:space="preserve">その時、相手チームか凄い力 </v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="58"/>
-        <v>我慢我慢……</v>
+        <v>で綱を引いてきた。</v>
       </c>
       <c r="D220">
         <f t="shared" si="59"/>
@@ -15263,10 +15259,10 @@
       </c>
       <c r="H220">
         <f t="shared" si="63"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J220">
         <f t="shared" si="64"/>
@@ -15274,7 +15270,7 @@
       </c>
       <c r="K220">
         <f t="shared" si="65"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L220">
         <f t="shared" si="56"/>
@@ -15303,11 +15299,11 @@
       </c>
       <c r="B221" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">その時、相手チームか凄い力 </v>
-      </c>
-      <c r="C221" t="str">
+        <v>｢わっ！｣</v>
+      </c>
+      <c r="C221">
         <f t="shared" si="58"/>
-        <v>で綱を引いてきた。</v>
+        <v>0</v>
       </c>
       <c r="D221">
         <f t="shared" si="59"/>
@@ -15327,18 +15323,18 @@
       </c>
       <c r="H221">
         <f t="shared" si="63"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J221">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221">
         <f t="shared" si="65"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L221">
         <f t="shared" si="56"/>
@@ -15367,7 +15363,7 @@
       </c>
       <c r="B222" t="str">
         <f t="shared" si="66"/>
-        <v>｢わっ！｣</v>
+        <v>｢っ……！｣</v>
       </c>
       <c r="C222">
         <f t="shared" si="58"/>
@@ -15391,10 +15387,10 @@
       </c>
       <c r="H222">
         <f t="shared" si="63"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J222">
         <f t="shared" si="64"/>
@@ -15431,11 +15427,11 @@
       </c>
       <c r="B223" t="str">
         <f t="shared" si="66"/>
-        <v>｢っ……！｣</v>
-      </c>
-      <c r="C223">
+        <v xml:space="preserve">凄い勢いで転けちゃった、恥 </v>
+      </c>
+      <c r="C223" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>ずかしい……</v>
       </c>
       <c r="D223">
         <f t="shared" si="59"/>
@@ -15455,18 +15451,18 @@
       </c>
       <c r="H223">
         <f t="shared" si="63"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J223">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L223">
         <f t="shared" si="56"/>
@@ -15495,15 +15491,15 @@
       </c>
       <c r="B224" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">凄い勢いで転けちゃった、恥 </v>
+        <v>｢怪我をしている……この様子</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="58"/>
-        <v>ずかしい……</v>
-      </c>
-      <c r="D224">
+        <v xml:space="preserve"> だと大丈夫そうではないな。 </v>
+      </c>
+      <c r="D224" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v xml:space="preserve"> 健室に向かおう。｣</v>
       </c>
       <c r="E224">
         <f t="shared" si="60"/>
@@ -15519,10 +15515,10 @@
       </c>
       <c r="H224">
         <f t="shared" si="63"/>
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J224">
         <f t="shared" si="64"/>
@@ -15530,11 +15526,11 @@
       </c>
       <c r="K224">
         <f t="shared" si="65"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L224">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M224">
         <f t="shared" si="56"/>
@@ -15559,15 +15555,15 @@
       </c>
       <c r="B225" t="str">
         <f t="shared" si="66"/>
-        <v>｢怪我をしている……この様子</v>
+        <v>｢なんで先輩が……って、えっ</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> だと大丈夫そうではないな。 </v>
-      </c>
-      <c r="D225" t="str">
+        <v xml:space="preserve"> ？！！｣</v>
+      </c>
+      <c r="D225">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> 健室に向かおう。｣</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <f t="shared" si="60"/>
@@ -15583,10 +15579,10 @@
       </c>
       <c r="H225">
         <f t="shared" si="63"/>
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J225">
         <f t="shared" si="64"/>
@@ -15594,11 +15590,11 @@
       </c>
       <c r="K225">
         <f t="shared" si="65"/>
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="L225">
         <f t="shared" si="56"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M225">
         <f t="shared" si="56"/>
@@ -15623,11 +15619,11 @@
       </c>
       <c r="B226" t="str">
         <f t="shared" si="66"/>
-        <v>｢なんで先輩が……って、えっ</v>
-      </c>
-      <c r="C226" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C226">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> ？！！｣</v>
+        <v>0</v>
       </c>
       <c r="D226">
         <f t="shared" si="59"/>
@@ -15647,18 +15643,18 @@
       </c>
       <c r="H226">
         <f t="shared" si="63"/>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="J226">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226">
         <f t="shared" si="65"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L226">
         <f t="shared" si="56"/>
@@ -15687,11 +15683,11 @@
       </c>
       <c r="B227" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C227">
+        <v xml:space="preserve">私、お姫様だっこされてる？ </v>
+      </c>
+      <c r="C227" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>！！</v>
       </c>
       <c r="D227">
         <f t="shared" si="59"/>
@@ -15711,18 +15707,18 @@
       </c>
       <c r="H227">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="J227">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L227">
         <f t="shared" si="56"/>
@@ -15751,19 +15747,19 @@
       </c>
       <c r="B228" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">私、お姫様だっこされてる？ </v>
+        <v>｢僕はリレーなどは得意ではな</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="58"/>
-        <v>！！</v>
-      </c>
-      <c r="D228">
+        <v xml:space="preserve"> いから綱引きに出たんだ。お </v>
+      </c>
+      <c r="D228" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E228">
+        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
+      </c>
+      <c r="E228" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>ことができてよかった。｣</v>
       </c>
       <c r="F228">
         <f t="shared" si="61"/>
@@ -15775,10 +15771,10 @@
       </c>
       <c r="H228">
         <f t="shared" si="63"/>
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J228">
         <f t="shared" si="64"/>
@@ -15786,15 +15782,15 @@
       </c>
       <c r="K228">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="L228">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M228">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N228">
         <f t="shared" si="56"/>
@@ -15815,19 +15811,19 @@
       </c>
       <c r="B229" t="str">
         <f t="shared" si="66"/>
-        <v>｢僕はリレーなどは得意ではな</v>
+        <v>｢あの子目鏡生徒会長にお姫様</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> いから綱引きに出たんだ。お </v>
+        <v xml:space="preserve"> だっこされてる、いいな〜… </v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
-      </c>
-      <c r="E229" t="str">
+        <v xml:space="preserve"> ｣</v>
+      </c>
+      <c r="E229">
         <f t="shared" si="60"/>
-        <v>ことができてよかった。｣</v>
+        <v>0</v>
       </c>
       <c r="F229">
         <f t="shared" si="61"/>
@@ -15839,10 +15835,10 @@
       </c>
       <c r="H229">
         <f t="shared" si="63"/>
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J229">
         <f t="shared" si="64"/>
@@ -15850,15 +15846,15 @@
       </c>
       <c r="K229">
         <f t="shared" si="65"/>
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="L229">
         <f t="shared" si="56"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M229">
         <f t="shared" si="56"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N229">
         <f t="shared" si="56"/>
@@ -15879,15 +15875,15 @@
       </c>
       <c r="B230" t="str">
         <f t="shared" si="66"/>
-        <v>｢あの子目鏡生徒会長にお姫様</v>
+        <v xml:space="preserve">ひぃ、そうだった、光先輩っ </v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> だっこされてる、いいな〜… </v>
-      </c>
-      <c r="D230" t="str">
+        <v>て本来はイケメンなんだった。</v>
+      </c>
+      <c r="D230">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> ｣</v>
+        <v>0</v>
       </c>
       <c r="E230">
         <f t="shared" si="60"/>
@@ -15903,10 +15899,10 @@
       </c>
       <c r="H230">
         <f t="shared" si="63"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J230">
         <f t="shared" si="64"/>
@@ -15914,11 +15910,11 @@
       </c>
       <c r="K230">
         <f t="shared" si="65"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L230">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M230">
         <f t="shared" si="56"/>
@@ -15943,11 +15939,11 @@
       </c>
       <c r="B231" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">ひぃ、そうだった、光先輩っ </v>
+        <v xml:space="preserve">周りの女子たちに羨望の眼差 </v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="58"/>
-        <v>て本来はイケメンなんだった。</v>
+        <v>しで見られてる……</v>
       </c>
       <c r="D231">
         <f t="shared" si="59"/>
@@ -15967,10 +15963,10 @@
       </c>
       <c r="H231">
         <f t="shared" si="63"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J231">
         <f t="shared" si="64"/>
@@ -15978,7 +15974,7 @@
       </c>
       <c r="K231">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L231">
         <f t="shared" si="56"/>
@@ -16007,11 +16003,11 @@
       </c>
       <c r="B232" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">周りの女子たちに羨望の眼差 </v>
-      </c>
-      <c r="C232" t="str">
+        <v>[保健室]</v>
+      </c>
+      <c r="C232">
         <f t="shared" si="58"/>
-        <v>しで見られてる……</v>
+        <v>0</v>
       </c>
       <c r="D232">
         <f t="shared" si="59"/>
@@ -16031,18 +16027,18 @@
       </c>
       <c r="H232">
         <f t="shared" si="63"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J232">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <f t="shared" si="65"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L232">
         <f t="shared" si="56"/>
@@ -16071,19 +16067,19 @@
       </c>
       <c r="B233" t="str">
         <f t="shared" si="66"/>
-        <v>[保健室]</v>
-      </c>
-      <c r="C233">
+        <v>｢あの、光先輩！保健室まで運</v>
+      </c>
+      <c r="C233" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D233">
+        <v xml:space="preserve"> んでくださってありがとうご </v>
+      </c>
+      <c r="D233" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E233">
+        <v xml:space="preserve"> います。すみません、迷惑を </v>
+      </c>
+      <c r="E233" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>かけちゃって……｣</v>
       </c>
       <c r="F233">
         <f t="shared" si="61"/>
@@ -16095,26 +16091,26 @@
       </c>
       <c r="H233">
         <f t="shared" si="63"/>
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J233">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L233">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M233">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N233">
         <f t="shared" si="56"/>
@@ -16135,19 +16131,19 @@
       </c>
       <c r="B234" t="str">
         <f t="shared" si="66"/>
-        <v>｢あの、光先輩！保健室まで運</v>
+        <v>｢気にしないでくれ。一生懸命</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> んでくださってありがとうご </v>
-      </c>
-      <c r="D234" t="str">
+        <v xml:space="preserve"> 頑張った結果だからな。｣</v>
+      </c>
+      <c r="D234">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> います。すみません、迷惑を </v>
-      </c>
-      <c r="E234" t="str">
+        <v>0</v>
+      </c>
+      <c r="E234">
         <f t="shared" si="60"/>
-        <v>かけちゃって……｣</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <f t="shared" si="61"/>
@@ -16159,10 +16155,10 @@
       </c>
       <c r="H234">
         <f t="shared" si="63"/>
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J234">
         <f t="shared" si="64"/>
@@ -16170,15 +16166,15 @@
       </c>
       <c r="K234">
         <f t="shared" si="65"/>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="L234">
         <f t="shared" si="56"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="M234">
         <f t="shared" si="56"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N234">
         <f t="shared" si="56"/>
@@ -16199,11 +16195,11 @@
       </c>
       <c r="B235" t="str">
         <f t="shared" si="66"/>
-        <v>｢気にしないでくれ。一生懸命</v>
+        <v xml:space="preserve">やっぱり光先輩って優しいな </v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> 頑張った結果だからな。｣</v>
+        <v>……</v>
       </c>
       <c r="D235">
         <f t="shared" si="59"/>
@@ -16223,10 +16219,10 @@
       </c>
       <c r="H235">
         <f t="shared" si="63"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J235">
         <f t="shared" si="64"/>
@@ -16234,7 +16230,7 @@
       </c>
       <c r="K235">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L235">
         <f t="shared" si="56"/>
@@ -16263,11 +16259,11 @@
       </c>
       <c r="B236" t="str">
         <f t="shared" si="66"/>
-        <v xml:space="preserve">やっぱり光先輩って優しいな </v>
-      </c>
-      <c r="C236" t="str">
+        <v>[運動場]</v>
+      </c>
+      <c r="C236">
         <f t="shared" si="58"/>
-        <v>……</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <f t="shared" si="59"/>
@@ -16287,18 +16283,18 @@
       </c>
       <c r="H236">
         <f t="shared" si="63"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="J236">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L236">
         <f t="shared" si="56"/>
@@ -16327,19 +16323,19 @@
       </c>
       <c r="B237" t="str">
         <f t="shared" si="66"/>
-        <v>[運動場]</v>
-      </c>
-      <c r="C237">
+        <v xml:space="preserve">無事に体育祭が終わった。今 </v>
+      </c>
+      <c r="C237" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D237">
+        <v>日は色んな人に助けられた一日</v>
+      </c>
+      <c r="D237" t="str">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E237">
+        <v>だったな……今度お礼をしなく</v>
+      </c>
+      <c r="E237" t="str">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v xml:space="preserve"> ちゃ！</v>
       </c>
       <c r="F237">
         <f t="shared" si="61"/>
@@ -16351,26 +16347,26 @@
       </c>
       <c r="H237">
         <f t="shared" si="63"/>
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="J237">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L237">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M237">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N237">
         <f t="shared" si="56"/>
@@ -16381,70 +16377,6 @@
         <v>0</v>
       </c>
       <c r="P237">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">無事に体育祭が終わった。今 </v>
-      </c>
-      <c r="C238" t="str">
-        <f t="shared" si="58"/>
-        <v>日は色んな人に助けられた一日</v>
-      </c>
-      <c r="D238" t="str">
-        <f t="shared" si="59"/>
-        <v>だったな……今度お礼をしなく</v>
-      </c>
-      <c r="E238" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> ちゃ！</v>
-      </c>
-      <c r="F238">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G238">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <f t="shared" si="63"/>
-        <v>88</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J238">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K238">
-        <f t="shared" si="65"/>
-        <v>62</v>
-      </c>
-      <c r="L238">
-        <f t="shared" si="56"/>
-        <v>34</v>
-      </c>
-      <c r="M238">
-        <f t="shared" si="56"/>
-        <v>6</v>
-      </c>
-      <c r="N238">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O238">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P238">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F968394-5735-48FC-A543-7E3CE64722CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E4E28-7835-4565-8B79-7B79B496E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -661,186 +661,6 @@
       <t>フタリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[体育館]</t>
-  </si>
-  <si>
-    <t>今日は体育祭。昨日まで天気が不安だったけど、無事に晴れてよかった！</t>
-  </si>
-  <si>
-    <t>私は小道具の係になったから朝から忙しいし気合い入れて頑張ろう！</t>
-  </si>
-  <si>
-    <t>────皆よりもちょっと遅めに来ちゃったから軽めの荷物は運ばれちゃったみたい……</t>
-  </si>
-  <si>
-    <t>さっき気合い入れて頑張ろうとしてたのに、重そうな小道具ばかりでやる気なくなりそう。</t>
-  </si>
-  <si>
-    <t>でも係の仕事だしそんなこと言ってられないよね。頑張るぞ！</t>
-  </si>
-  <si>
-    <t>｢ぐぐぐ、重い！｣</t>
-  </si>
-  <si>
-    <t>なんとか持てたけどフラフラしちゃう、よ……わっ！</t>
-  </si>
-  <si>
-    <t>｢［主人公の名前］先輩、大丈夫？！｣</t>
-  </si>
-  <si>
-    <t>｢琉絆空くん？！｣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>｢女の子がこんなに重い荷物持っちゃだめだろ？俺が持つからさ！｣</t>
-  </si>
-  <si>
-    <t>｢あ、ありがとう……！｣</t>
-  </si>
-  <si>
-    <t>へ〜、おじさんって力持ちなんだな〜。</t>
-  </si>
-  <si>
-    <t>ってちがうちがう！呪いのせいでそう見えてるだけで高校生の男子なんだった。</t>
-  </si>
-  <si>
-    <t>最近おじさんの姿のOG☆3に見慣れてきてる！あの性格の悪い銅像に洗脳されちゃうよ〜！</t>
-  </si>
-  <si>
-    <t>[運動場]</t>
-  </si>
-  <si>
-    <t>琉絆空くんの協力のおかげで無事に係の仕事も終わってよかった！</t>
-  </si>
-  <si>
-    <t>私の出番はまだだから友達の応援でもしようかな。</t>
-  </si>
-  <si>
-    <t>｢キャーーーーｯ！！｣</t>
-  </si>
-  <si>
-    <t>？！！</t>
-  </si>
-  <si>
-    <t>女子たちの歓声が聞こえてくる。なんだろう？</t>
-  </si>
-  <si>
-    <t>｢桜児くんがんばってー！｣</t>
-  </si>
-  <si>
-    <t>歓声を向けられている方を見ると、リレーのアンカーとしてバトンを待つ桜児くんが見えた。</t>
-  </si>
-  <si>
-    <t>桜児くんの前の人は一位と大差つけられて二位みたい。</t>
-  </si>
-  <si>
-    <t>おじさんの呪いをかけられる前の桜児くんを思い出すと、小柄で女の子みたいだし大丈夫かな……？</t>
-  </si>
-  <si>
-    <t>ちょっと心配だけど桜児くんにがんばってほしいし私も応援しよう！</t>
-  </si>
-  <si>
-    <t>｢桜児くんがんばれーー！！｣</t>
-  </si>
-  <si>
-    <t>ついに桜児くんにバトンが渡ったその時​─────</t>
-  </si>
-  <si>
-    <t>｢おまたせ〜！ごめんね一位の人！抜かしちゃうよ！｣</t>
-  </si>
-  <si>
-    <t>｢キャーーー！｣</t>
-  </si>
-  <si>
-    <t>桜児くん速い！あっという間に一位の人を抜かしちゃった！</t>
-  </si>
-  <si>
-    <t>桜児くんって見かけによらず運動神経よかったんだ……</t>
-  </si>
-  <si>
-    <t>リレーが終わって桜児くんは応援席にきてくれた。</t>
-  </si>
-  <si>
-    <t>｢桜児くんお疲れ様！｣</t>
-  </si>
-  <si>
-    <t>｢[主人公の名前]ちゃん、応援ありがとうね！次の綱引き出るんだよね？がんばれ〜！｣</t>
-  </si>
-  <si>
-    <t>桜児くんはやっぱりファンサが手厚いな〜。応援してくれてるし、綱引きがんばるぞ！</t>
-  </si>
-  <si>
-    <t>｢位置について、よーい……｣</t>
-  </si>
-  <si>
-    <t>ピストルの音がなる。</t>
-  </si>
-  <si>
-    <t>相手のチームすごい力だ……！力には自信ないけど頑張らなくちゃ！</t>
-  </si>
-  <si>
-    <t>自分たちのチームも負けじと綱を引いている。いい感じ！</t>
-  </si>
-  <si>
-    <t>｢うっ！痛い｣</t>
-  </si>
-  <si>
-    <t>手と綱が擦れてすごく痛い……！</t>
-  </si>
-  <si>
-    <t>でも、もう少しで勝てそう！我慢我慢……</t>
-  </si>
-  <si>
-    <t>その時、相手チームか凄い力で綱を引いてきた。</t>
-  </si>
-  <si>
-    <t>｢わっ！｣</t>
-  </si>
-  <si>
-    <t>｢っ……！｣</t>
-  </si>
-  <si>
-    <t>凄い勢いで転けちゃった、恥ずかしい……</t>
-  </si>
-  <si>
-    <t>｢怪我をしている……この様子だと大丈夫そうではないな。保健室に向かおう。｣</t>
-  </si>
-  <si>
-    <t>｢なんで先輩が……って、えっ？！！｣</t>
-  </si>
-  <si>
-    <t>私、お姫様だっこされてる？！！</t>
-  </si>
-  <si>
-    <t>｢僕はリレーなどは得意ではないから綱引きに出たんだ。おかげで[主人公の名前]を助けることができてよかった。｣</t>
-  </si>
-  <si>
-    <t>｢あの子目鏡生徒会長にお姫様だっこされてる、いいな〜……｣</t>
-  </si>
-  <si>
-    <t>ひぃ、そうだった、光先輩って本来はイケメンなんだった。</t>
-  </si>
-  <si>
-    <t>周りの女子たちに羨望の眼差しで見られてる……</t>
-  </si>
-  <si>
-    <t>[保健室]</t>
-  </si>
-  <si>
-    <t>｢あの、光先輩！保健室まで運んでくださってありがとうございます。すみません、迷惑をかけちゃって……｣</t>
-  </si>
-  <si>
-    <t>｢気にしないでくれ。一生懸命頑張った結果だからな。｣</t>
-  </si>
-  <si>
-    <t>やっぱり光先輩って優しいな……</t>
-  </si>
-  <si>
-    <t>無事に体育祭が終わった。今日は色んな人に助けられた一日だったな……今度お礼をしなくちゃ！</t>
   </si>
 </sst>
 </file>
@@ -1210,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P237"/>
+  <dimension ref="A1:P172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E195" sqref="E195"/>
+      <selection pane="bottomRight" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9544,38 +9364,38 @@
         <v xml:space="preserve">「最近学園の近くにパンケー </v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <f t="shared" ref="C131:C172" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
         <v>キ屋さんができたんだって〜！</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <f t="shared" ref="D131:D172" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
         <v>今度行かない？」</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E131:E172" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F131:F172" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G131:G172" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="50">LENB(I131)</f>
+        <f t="shared" ref="H131:H172" si="50">LENB(I131)</f>
         <v>69</v>
       </c>
       <c r="I131" t="s">
         <v>143</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="51">IF(H131&gt;26, 1, 0)</f>
+        <f t="shared" ref="J131:J172" si="51">IF(H131&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="52">IF(J131,H131-26, 0)</f>
+        <f t="shared" ref="K131:K172" si="52">IF(J131,H131-26, 0)</f>
         <v>43</v>
       </c>
       <c r="L131">
@@ -9604,7 +9424,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B195" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <f t="shared" ref="B132:B172" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
         <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
       </c>
       <c r="C132" t="str">
@@ -11369,7 +11189,7 @@
         <v>48</v>
       </c>
       <c r="L159">
-        <f t="shared" ref="L159:P174" si="55">IF(K159&gt;26,K159-28, 0)</f>
+        <f t="shared" ref="L159:P172" si="55">IF(K159&gt;26,K159-28, 0)</f>
         <v>20</v>
       </c>
       <c r="M159">
@@ -12218,4166 +12038,6 @@
       </c>
       <c r="P172">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="str">
-        <f t="shared" si="53"/>
-        <v>[体育館]</v>
-      </c>
-      <c r="C173">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <f t="shared" si="50"/>
-        <v>8</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J173">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="M173">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="N173">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="O173">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="P173">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">今日は体育祭。昨日まで天気 </v>
-      </c>
-      <c r="C174" t="str">
-        <f t="shared" si="45"/>
-        <v>が不安だったけど、無事に晴れ</v>
-      </c>
-      <c r="D174" t="str">
-        <f t="shared" si="46"/>
-        <v>てよかった！</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <f t="shared" si="50"/>
-        <v>66</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J174">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K174">
-        <f t="shared" si="52"/>
-        <v>40</v>
-      </c>
-      <c r="L174">
-        <f t="shared" si="55"/>
-        <v>12</v>
-      </c>
-      <c r="M174">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="N174">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="O174">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="P174">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">私は小道具の係になったから </v>
-      </c>
-      <c r="C175" t="str">
-        <f t="shared" si="45"/>
-        <v>朝から忙しいし気合い入れて頑</v>
-      </c>
-      <c r="D175" t="str">
-        <f t="shared" si="46"/>
-        <v>張ろう！</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <f t="shared" si="50"/>
-        <v>62</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J175">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K175">
-        <f t="shared" si="52"/>
-        <v>36</v>
-      </c>
-      <c r="L175">
-        <f t="shared" ref="L175:P237" si="56">IF(K175&gt;26,K175-28, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="M175">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N175">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O175">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P175">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">────皆よりもちょっと遅 </v>
-      </c>
-      <c r="C176" t="str">
-        <f t="shared" si="45"/>
-        <v>めに来ちゃったから軽めの荷物</v>
-      </c>
-      <c r="D176" t="str">
-        <f t="shared" si="46"/>
-        <v>は運ばれちゃったみたい……</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <f t="shared" si="50"/>
-        <v>80</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J176">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K176">
-        <f t="shared" si="52"/>
-        <v>54</v>
-      </c>
-      <c r="L176">
-        <f t="shared" si="56"/>
-        <v>26</v>
-      </c>
-      <c r="M176">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N176">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O176">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P176">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">さっき気合い入れて頑張ろう </v>
-      </c>
-      <c r="C177" t="str">
-        <f t="shared" si="45"/>
-        <v>としてたのに、重そうな小道具</v>
-      </c>
-      <c r="D177" t="str">
-        <f t="shared" si="46"/>
-        <v>ばかりでやる気なくなりそう。</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <f t="shared" si="50"/>
-        <v>82</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J177">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K177">
-        <f t="shared" si="52"/>
-        <v>56</v>
-      </c>
-      <c r="L177">
-        <f t="shared" si="56"/>
-        <v>28</v>
-      </c>
-      <c r="M177">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N177">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O177">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P177">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">でも係の仕事だしそんなこと </v>
-      </c>
-      <c r="C178" t="str">
-        <f t="shared" si="45"/>
-        <v>言ってられないよね。頑張るぞ</v>
-      </c>
-      <c r="D178" t="str">
-        <f t="shared" si="46"/>
-        <v>！</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <f t="shared" si="50"/>
-        <v>56</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J178">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K178">
-        <f t="shared" si="52"/>
-        <v>30</v>
-      </c>
-      <c r="L178">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="M178">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N178">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O178">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P178">
-        <f t="shared" ref="P178:P237" si="57">IF(O178&gt;26,O178-28, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="str">
-        <f t="shared" si="53"/>
-        <v>｢ぐぐぐ、重い！｣</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <f t="shared" si="50"/>
-        <v>16</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J179">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M179">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N179">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O179">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P179">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">なんとか持てたけどフラフラ </v>
-      </c>
-      <c r="C180" t="str">
-        <f t="shared" si="45"/>
-        <v>しちゃう、よ……わっ！</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <f t="shared" si="50"/>
-        <v>48</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J180">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K180">
-        <f t="shared" si="52"/>
-        <v>22</v>
-      </c>
-      <c r="L180">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M180">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N180">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O180">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P180">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="str">
-        <f t="shared" si="53"/>
-        <v>｢［主人公の名前］先輩、大丈</v>
-      </c>
-      <c r="C181" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve"> 夫？！｣</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <f t="shared" si="50"/>
-        <v>34</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J181">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K181">
-        <f t="shared" si="52"/>
-        <v>8</v>
-      </c>
-      <c r="L181">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M181">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N181">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O181">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P181">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" t="str">
-        <f t="shared" si="53"/>
-        <v>｢琉絆空くん？！｣</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <f t="shared" si="50"/>
-        <v>16</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J182">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M182">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N182">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O182">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P182">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C183">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <f t="shared" si="50"/>
-        <v>2</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J183">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M183">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N183">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O183">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P183">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="str">
-        <f t="shared" si="53"/>
-        <v>｢女の子がこんなに重い荷物持</v>
-      </c>
-      <c r="C184" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve"> っちゃだめだろ？俺が持つか </v>
-      </c>
-      <c r="D184" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve"> さ！｣</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <f t="shared" si="50"/>
-        <v>60</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J184">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K184">
-        <f t="shared" si="52"/>
-        <v>34</v>
-      </c>
-      <c r="L184">
-        <f t="shared" si="56"/>
-        <v>6</v>
-      </c>
-      <c r="M184">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N184">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O184">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P184">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" t="str">
-        <f t="shared" si="53"/>
-        <v>｢あ、ありがとう……！｣</v>
-      </c>
-      <c r="C185">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <f t="shared" si="50"/>
-        <v>22</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J185">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M185">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N185">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O185">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P185">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">へ〜、おじさんって力持ちな </v>
-      </c>
-      <c r="C186" t="str">
-        <f t="shared" si="45"/>
-        <v>んだな〜。</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <f t="shared" si="50"/>
-        <v>34</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J186">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K186">
-        <f t="shared" si="52"/>
-        <v>8</v>
-      </c>
-      <c r="L186">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M186">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N186">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O186">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P186">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">ってちがうちがう！呪いのせ </v>
-      </c>
-      <c r="C187" t="str">
-        <f t="shared" si="45"/>
-        <v>いでそう見えてるだけで高校生</v>
-      </c>
-      <c r="D187" t="str">
-        <f t="shared" si="46"/>
-        <v>の男子なんだった。</v>
-      </c>
-      <c r="E187">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <f t="shared" si="50"/>
-        <v>72</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J187">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K187">
-        <f t="shared" si="52"/>
-        <v>46</v>
-      </c>
-      <c r="L187">
-        <f t="shared" si="56"/>
-        <v>18</v>
-      </c>
-      <c r="M187">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N187">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O187">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P187">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" t="str">
-        <f t="shared" si="53"/>
-        <v>最近おじさんの姿のOG☆3に見</v>
-      </c>
-      <c r="C188" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve"> 慣れてきてる！あの性格の悪 </v>
-      </c>
-      <c r="D188" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve"> 銅像に洗脳されちゃうよ〜！</v>
-      </c>
-      <c r="E188">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <f t="shared" si="50"/>
-        <v>80</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J188">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K188">
-        <f t="shared" si="52"/>
-        <v>54</v>
-      </c>
-      <c r="L188">
-        <f t="shared" si="56"/>
-        <v>26</v>
-      </c>
-      <c r="M188">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N188">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O188">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P188">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" t="str">
-        <f t="shared" si="53"/>
-        <v>[運動場]</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <f t="shared" si="50"/>
-        <v>8</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J189">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K189">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L189">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M189">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N189">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O189">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P189">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">琉絆空くんの協力のおかげで </v>
-      </c>
-      <c r="C190" t="str">
-        <f t="shared" si="45"/>
-        <v>無事に係の仕事も終わってよか</v>
-      </c>
-      <c r="D190" t="str">
-        <f t="shared" si="46"/>
-        <v>った！</v>
-      </c>
-      <c r="E190">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <f t="shared" si="50"/>
-        <v>60</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J190">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K190">
-        <f t="shared" si="52"/>
-        <v>34</v>
-      </c>
-      <c r="L190">
-        <f t="shared" si="56"/>
-        <v>6</v>
-      </c>
-      <c r="M190">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N190">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O190">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P190">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">私の出番はまだだから友達の </v>
-      </c>
-      <c r="C191" t="str">
-        <f t="shared" si="45"/>
-        <v>応援でもしようかな。</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <f t="shared" si="50"/>
-        <v>46</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J191">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K191">
-        <f t="shared" si="52"/>
-        <v>20</v>
-      </c>
-      <c r="L191">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M191">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N191">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O191">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P191">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="str">
-        <f t="shared" si="53"/>
-        <v>｢キャーーーーｯ！！｣</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <f t="shared" si="50"/>
-        <v>19</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J192">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L192">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M192">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N192">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O192">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P192">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="str">
-        <f t="shared" si="53"/>
-        <v>？！！</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J193">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K193">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L193">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M193">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N193">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O193">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P193">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">女子たちの歓声が聞こえてく </v>
-      </c>
-      <c r="C194" t="str">
-        <f t="shared" si="45"/>
-        <v>る。なんだろう？</v>
-      </c>
-      <c r="D194">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <f t="shared" si="50"/>
-        <v>42</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J194">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="K194">
-        <f t="shared" si="52"/>
-        <v>16</v>
-      </c>
-      <c r="L194">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M194">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N194">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O194">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P194">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="str">
-        <f t="shared" si="53"/>
-        <v>｢桜児くんがんばってー！｣</v>
-      </c>
-      <c r="C195">
-        <f t="shared" ref="C195:C237" si="58">IF(K195&gt;0,MIDB(I195, 27, 28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <f t="shared" ref="D195:D237" si="59">IF(L195&gt;0, MIDB(I195, 27+28, 28), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <f t="shared" ref="E195:E238" si="60">IF(M195&gt;0, MIDB(I195, 27*2+28, 28), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <f t="shared" ref="F195:F237" si="61">IF(N195&gt;0, MIDB(I195, 27*3+28, 28), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <f t="shared" ref="G195:G237" si="62">IF(O195&gt;0, MIDB(I195, 27*4+28, 28), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <f t="shared" ref="H195:H237" si="63">LENB(I195)</f>
-        <v>24</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J195">
-        <f t="shared" ref="J195:J237" si="64">IF(H195&gt;26, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K195">
-        <f t="shared" ref="K195:K237" si="65">IF(J195,H195-26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L195">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M195">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N195">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O195">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P195">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="str">
-        <f t="shared" ref="B196:B237" si="66">IF(J196,LEFTB(I196, 27), I196)</f>
-        <v xml:space="preserve">歓声を向けられている方を見 </v>
-      </c>
-      <c r="C196" t="str">
-        <f t="shared" si="58"/>
-        <v>ると、リレーのアンカーとして</v>
-      </c>
-      <c r="D196" t="str">
-        <f t="shared" si="59"/>
-        <v>バトンを待つ桜児くんが見えた</v>
-      </c>
-      <c r="E196" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> 。</v>
-      </c>
-      <c r="F196">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <f t="shared" si="63"/>
-        <v>84</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J196">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K196">
-        <f t="shared" si="65"/>
-        <v>58</v>
-      </c>
-      <c r="L196">
-        <f t="shared" si="56"/>
-        <v>30</v>
-      </c>
-      <c r="M196">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="N196">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O196">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P196">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんの前の人は一位と大 </v>
-      </c>
-      <c r="C197" t="str">
-        <f t="shared" si="58"/>
-        <v>差つけられて二位みたい。</v>
-      </c>
-      <c r="D197">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <f t="shared" si="63"/>
-        <v>50</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J197">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K197">
-        <f t="shared" si="65"/>
-        <v>24</v>
-      </c>
-      <c r="L197">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M197">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N197">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O197">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P197">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">おじさんの呪いをかけられる </v>
-      </c>
-      <c r="C198" t="str">
-        <f t="shared" si="58"/>
-        <v>前の桜児くんを思い出すと、小</v>
-      </c>
-      <c r="D198" t="str">
-        <f t="shared" si="59"/>
-        <v>柄で女の子みたいだし大丈夫か</v>
-      </c>
-      <c r="E198" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> な……？</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <f t="shared" si="63"/>
-        <v>90</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J198">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K198">
-        <f t="shared" si="65"/>
-        <v>64</v>
-      </c>
-      <c r="L198">
-        <f t="shared" si="56"/>
-        <v>36</v>
-      </c>
-      <c r="M198">
-        <f t="shared" si="56"/>
-        <v>8</v>
-      </c>
-      <c r="N198">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O198">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P198">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">ちょっと心配だけど桜児くん </v>
-      </c>
-      <c r="C199" t="str">
-        <f t="shared" si="58"/>
-        <v>にがんばってほしいし私も応援</v>
-      </c>
-      <c r="D199" t="str">
-        <f t="shared" si="59"/>
-        <v>しよう！</v>
-      </c>
-      <c r="E199">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <f t="shared" si="63"/>
-        <v>62</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J199">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K199">
-        <f t="shared" si="65"/>
-        <v>36</v>
-      </c>
-      <c r="L199">
-        <f t="shared" si="56"/>
-        <v>8</v>
-      </c>
-      <c r="M199">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N199">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O199">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P199">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" t="str">
-        <f t="shared" si="66"/>
-        <v>｢桜児くんがんばれーー！！｣</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <f t="shared" si="63"/>
-        <v>26</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J200">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K200">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L200">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M200">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N200">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O200">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P200">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">ついに桜児くんにバトンが渡 </v>
-      </c>
-      <c r="C201" t="str">
-        <f t="shared" si="58"/>
-        <v>ったその時​─────</v>
-      </c>
-      <c r="D201">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <f t="shared" si="63"/>
-        <v>47</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J201">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K201">
-        <f t="shared" si="65"/>
-        <v>21</v>
-      </c>
-      <c r="L201">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M201">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N201">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O201">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P201">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E202">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J202">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K202">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L202">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M202">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N202">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O202">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P202">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="str">
-        <f t="shared" si="66"/>
-        <v>｢おまたせ〜！ごめんね一位の</v>
-      </c>
-      <c r="C203" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> 人！抜かしちゃうよ！｣</v>
-      </c>
-      <c r="D203">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F203">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <f t="shared" si="63"/>
-        <v>47</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J203">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K203">
-        <f t="shared" si="65"/>
-        <v>21</v>
-      </c>
-      <c r="L203">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M203">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N203">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O203">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P203">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" t="str">
-        <f t="shared" si="66"/>
-        <v>｢キャーーー！｣</v>
-      </c>
-      <c r="C204">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E204">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G204">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <f t="shared" si="63"/>
-        <v>14</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J204">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K204">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L204">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M204">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N204">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O204">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P204">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くん速い！あっという間 </v>
-      </c>
-      <c r="C205" t="str">
-        <f t="shared" si="58"/>
-        <v>に一位の人を抜かしちゃった！</v>
-      </c>
-      <c r="D205">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <f t="shared" si="63"/>
-        <v>54</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J205">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K205">
-        <f t="shared" si="65"/>
-        <v>28</v>
-      </c>
-      <c r="L205">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M205">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N205">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O205">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P205">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんって見かけによらず </v>
-      </c>
-      <c r="C206" t="str">
-        <f t="shared" si="58"/>
-        <v>運動神経よかったんだ……</v>
-      </c>
-      <c r="D206">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E206">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <f t="shared" si="63"/>
-        <v>50</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K206">
-        <f t="shared" si="65"/>
-        <v>24</v>
-      </c>
-      <c r="L206">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M206">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N206">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O206">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P206">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">リレーが終わって桜児くんは </v>
-      </c>
-      <c r="C207" t="str">
-        <f t="shared" si="58"/>
-        <v>応援席にきてくれた。</v>
-      </c>
-      <c r="D207">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E207">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <f t="shared" si="63"/>
-        <v>46</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K207">
-        <f t="shared" si="65"/>
-        <v>20</v>
-      </c>
-      <c r="L207">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M207">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N207">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O207">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P207">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A208">
-        <v>207</v>
-      </c>
-      <c r="B208" t="str">
-        <f t="shared" si="66"/>
-        <v>｢桜児くんお疲れ様！｣</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E208">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <f t="shared" si="63"/>
-        <v>20</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J208">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K208">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L208">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M208">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N208">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O208">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P208">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" t="str">
-        <f t="shared" si="66"/>
-        <v>｢[主人公の名前]ちゃん、応援</v>
-      </c>
-      <c r="C209" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
-      </c>
-      <c r="D209" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
-      </c>
-      <c r="E209">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G209">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <f t="shared" si="63"/>
-        <v>77</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K209">
-        <f t="shared" si="65"/>
-        <v>51</v>
-      </c>
-      <c r="L209">
-        <f t="shared" si="56"/>
-        <v>23</v>
-      </c>
-      <c r="M209">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N209">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O209">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P209">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">桜児くんはやっぱりファンサ </v>
-      </c>
-      <c r="C210" t="str">
-        <f t="shared" si="58"/>
-        <v>が手厚いな〜。応援してくれて</v>
-      </c>
-      <c r="D210" t="str">
-        <f t="shared" si="59"/>
-        <v>るし、綱引きがんばるぞ！</v>
-      </c>
-      <c r="E210">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <f t="shared" si="63"/>
-        <v>77</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K210">
-        <f t="shared" si="65"/>
-        <v>51</v>
-      </c>
-      <c r="L210">
-        <f t="shared" si="56"/>
-        <v>23</v>
-      </c>
-      <c r="M210">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N210">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O210">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P210">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C211">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D211">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G211">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J211">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K211">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L211">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M211">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N211">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O211">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P211">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E212">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G212">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J212">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K212">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L212">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M212">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N212">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O212">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P212">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213" t="str">
-        <f t="shared" si="66"/>
-        <v>｢位置について、よーい……｣</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D213">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E213">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G213">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <f t="shared" si="63"/>
-        <v>26</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J213">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K213">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L213">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M213">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N213">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O213">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P213">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214" t="str">
-        <f t="shared" si="66"/>
-        <v>ピストルの音がなる。</v>
-      </c>
-      <c r="C214">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D214">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E214">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F214">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G214">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H214">
-        <f t="shared" si="63"/>
-        <v>20</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J214">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K214">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L214">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M214">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N214">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O214">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P214">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">相手のチームすごい力だ…… </v>
-      </c>
-      <c r="C215" t="str">
-        <f t="shared" si="58"/>
-        <v>！力には自信ないけど頑張らな</v>
-      </c>
-      <c r="D215" t="str">
-        <f t="shared" si="59"/>
-        <v>くちゃ！</v>
-      </c>
-      <c r="E215">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F215">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G215">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <f t="shared" si="63"/>
-        <v>62</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J215">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K215">
-        <f t="shared" si="65"/>
-        <v>36</v>
-      </c>
-      <c r="L215">
-        <f t="shared" si="56"/>
-        <v>8</v>
-      </c>
-      <c r="M215">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N215">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O215">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P215">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">自分たちのチームも負けじと </v>
-      </c>
-      <c r="C216" t="str">
-        <f t="shared" si="58"/>
-        <v>綱を引いている。いい感じ！</v>
-      </c>
-      <c r="D216">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E216">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F216">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G216">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <f t="shared" si="63"/>
-        <v>52</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J216">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K216">
-        <f t="shared" si="65"/>
-        <v>26</v>
-      </c>
-      <c r="L216">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M216">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N216">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O216">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P216">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217" t="str">
-        <f t="shared" si="66"/>
-        <v>｢うっ！痛い｣</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D217">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E217">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G217">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <f t="shared" si="63"/>
-        <v>12</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J217">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K217">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L217">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M217">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N217">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O217">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P217">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">手と綱が擦れてすごく痛い… </v>
-      </c>
-      <c r="C218" t="str">
-        <f t="shared" si="58"/>
-        <v>…！</v>
-      </c>
-      <c r="D218">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E218">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <f t="shared" si="63"/>
-        <v>30</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J218">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K218">
-        <f t="shared" si="65"/>
-        <v>4</v>
-      </c>
-      <c r="L218">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M218">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N218">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O218">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P218">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A219">
-        <v>218</v>
-      </c>
-      <c r="B219" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">でも、もう少しで勝てそう！ </v>
-      </c>
-      <c r="C219" t="str">
-        <f t="shared" si="58"/>
-        <v>我慢我慢……</v>
-      </c>
-      <c r="D219">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E219">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G219">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <f t="shared" si="63"/>
-        <v>38</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J219">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K219">
-        <f t="shared" si="65"/>
-        <v>12</v>
-      </c>
-      <c r="L219">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M219">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N219">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O219">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P219">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A220">
-        <v>219</v>
-      </c>
-      <c r="B220" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">その時、相手チームか凄い力 </v>
-      </c>
-      <c r="C220" t="str">
-        <f t="shared" si="58"/>
-        <v>で綱を引いてきた。</v>
-      </c>
-      <c r="D220">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E220">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F220">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G220">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <f t="shared" si="63"/>
-        <v>44</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J220">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K220">
-        <f t="shared" si="65"/>
-        <v>18</v>
-      </c>
-      <c r="L220">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M220">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N220">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O220">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P220">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221" t="str">
-        <f t="shared" si="66"/>
-        <v>｢わっ！｣</v>
-      </c>
-      <c r="C221">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D221">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G221">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <f t="shared" si="63"/>
-        <v>8</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J221">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K221">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L221">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M221">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N221">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O221">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P221">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222" t="str">
-        <f t="shared" si="66"/>
-        <v>｢っ……！｣</v>
-      </c>
-      <c r="C222">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E222">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F222">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G222">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <f t="shared" si="63"/>
-        <v>10</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J222">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K222">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L222">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M222">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N222">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O222">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P222">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">凄い勢いで転けちゃった、恥 </v>
-      </c>
-      <c r="C223" t="str">
-        <f t="shared" si="58"/>
-        <v>ずかしい……</v>
-      </c>
-      <c r="D223">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E223">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F223">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <f t="shared" si="63"/>
-        <v>38</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J223">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K223">
-        <f t="shared" si="65"/>
-        <v>12</v>
-      </c>
-      <c r="L223">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M223">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N223">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O223">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P223">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224" t="str">
-        <f t="shared" si="66"/>
-        <v>｢怪我をしている……この様子</v>
-      </c>
-      <c r="C224" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> だと大丈夫そうではないな。 </v>
-      </c>
-      <c r="D224" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> 健室に向かおう。｣</v>
-      </c>
-      <c r="E224">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F224">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G224">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <f t="shared" si="63"/>
-        <v>72</v>
-      </c>
-      <c r="I224" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J224">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K224">
-        <f t="shared" si="65"/>
-        <v>46</v>
-      </c>
-      <c r="L224">
-        <f t="shared" si="56"/>
-        <v>18</v>
-      </c>
-      <c r="M224">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N224">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O224">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P224">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225" t="str">
-        <f t="shared" si="66"/>
-        <v>｢なんで先輩が……って、えっ</v>
-      </c>
-      <c r="C225" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> ？！！｣</v>
-      </c>
-      <c r="D225">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E225">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G225">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <f t="shared" si="63"/>
-        <v>34</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J225">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K225">
-        <f t="shared" si="65"/>
-        <v>8</v>
-      </c>
-      <c r="L225">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M225">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N225">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O225">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P225">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C226">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E226">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F226">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G226">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J226">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K226">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L226">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M226">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N226">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O226">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P226">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">私、お姫様だっこされてる？ </v>
-      </c>
-      <c r="C227" t="str">
-        <f t="shared" si="58"/>
-        <v>！！</v>
-      </c>
-      <c r="D227">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E227">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F227">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G227">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <f t="shared" si="63"/>
-        <v>30</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J227">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K227">
-        <f t="shared" si="65"/>
-        <v>4</v>
-      </c>
-      <c r="L227">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M227">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N227">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O227">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P227">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A228">
-        <v>227</v>
-      </c>
-      <c r="B228" t="str">
-        <f t="shared" si="66"/>
-        <v>｢僕はリレーなどは得意ではな</v>
-      </c>
-      <c r="C228" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> いから綱引きに出たんだ。お </v>
-      </c>
-      <c r="D228" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
-      </c>
-      <c r="E228" t="str">
-        <f t="shared" si="60"/>
-        <v>ことができてよかった。｣</v>
-      </c>
-      <c r="F228">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G228">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <f t="shared" si="63"/>
-        <v>104</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J228">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K228">
-        <f t="shared" si="65"/>
-        <v>78</v>
-      </c>
-      <c r="L228">
-        <f t="shared" si="56"/>
-        <v>50</v>
-      </c>
-      <c r="M228">
-        <f t="shared" si="56"/>
-        <v>22</v>
-      </c>
-      <c r="N228">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O228">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P228">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A229">
-        <v>228</v>
-      </c>
-      <c r="B229" t="str">
-        <f t="shared" si="66"/>
-        <v>｢あの子目鏡生徒会長にお姫様</v>
-      </c>
-      <c r="C229" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> だっこされてる、いいな〜… </v>
-      </c>
-      <c r="D229" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> ｣</v>
-      </c>
-      <c r="E229">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F229">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G229">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <f t="shared" si="63"/>
-        <v>55</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J229">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K229">
-        <f t="shared" si="65"/>
-        <v>29</v>
-      </c>
-      <c r="L229">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="M229">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N229">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O229">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P229">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">ひぃ、そうだった、光先輩っ </v>
-      </c>
-      <c r="C230" t="str">
-        <f t="shared" si="58"/>
-        <v>て本来はイケメンなんだった。</v>
-      </c>
-      <c r="D230">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E230">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F230">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G230">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H230">
-        <f t="shared" si="63"/>
-        <v>54</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J230">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K230">
-        <f t="shared" si="65"/>
-        <v>28</v>
-      </c>
-      <c r="L230">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M230">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N230">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O230">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P230">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">周りの女子たちに羨望の眼差 </v>
-      </c>
-      <c r="C231" t="str">
-        <f t="shared" si="58"/>
-        <v>しで見られてる……</v>
-      </c>
-      <c r="D231">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E231">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G231">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <f t="shared" si="63"/>
-        <v>44</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J231">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K231">
-        <f t="shared" si="65"/>
-        <v>18</v>
-      </c>
-      <c r="L231">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M231">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N231">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O231">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P231">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" t="str">
-        <f t="shared" si="66"/>
-        <v>[保健室]</v>
-      </c>
-      <c r="C232">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E232">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F232">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G232">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H232">
-        <f t="shared" si="63"/>
-        <v>8</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J232">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K232">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L232">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M232">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N232">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O232">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P232">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" t="str">
-        <f t="shared" si="66"/>
-        <v>｢あの、光先輩！保健室まで運</v>
-      </c>
-      <c r="C233" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> んでくださってありがとうご </v>
-      </c>
-      <c r="D233" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> います。すみません、迷惑を </v>
-      </c>
-      <c r="E233" t="str">
-        <f t="shared" si="60"/>
-        <v>かけちゃって……｣</v>
-      </c>
-      <c r="F233">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G233">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <f t="shared" si="63"/>
-        <v>98</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J233">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K233">
-        <f t="shared" si="65"/>
-        <v>72</v>
-      </c>
-      <c r="L233">
-        <f t="shared" si="56"/>
-        <v>44</v>
-      </c>
-      <c r="M233">
-        <f t="shared" si="56"/>
-        <v>16</v>
-      </c>
-      <c r="N233">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O233">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P233">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" t="str">
-        <f t="shared" si="66"/>
-        <v>｢気にしないでくれ。一生懸命</v>
-      </c>
-      <c r="C234" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> 頑張った結果だからな。｣</v>
-      </c>
-      <c r="D234">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E234">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G234">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <f t="shared" si="63"/>
-        <v>50</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J234">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K234">
-        <f t="shared" si="65"/>
-        <v>24</v>
-      </c>
-      <c r="L234">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M234">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N234">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O234">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P234">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">やっぱり光先輩って優しいな </v>
-      </c>
-      <c r="C235" t="str">
-        <f t="shared" si="58"/>
-        <v>……</v>
-      </c>
-      <c r="D235">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E235">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <f t="shared" si="63"/>
-        <v>30</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J235">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K235">
-        <f t="shared" si="65"/>
-        <v>4</v>
-      </c>
-      <c r="L235">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M235">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N235">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O235">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P235">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" t="str">
-        <f t="shared" si="66"/>
-        <v>[運動場]</v>
-      </c>
-      <c r="C236">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E236">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <f t="shared" si="63"/>
-        <v>8</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J236">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K236">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L236">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="M236">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N236">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O236">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P236">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve">無事に体育祭が終わった。今 </v>
-      </c>
-      <c r="C237" t="str">
-        <f t="shared" si="58"/>
-        <v>日は色んな人に助けられた一日</v>
-      </c>
-      <c r="D237" t="str">
-        <f t="shared" si="59"/>
-        <v>だったな……今度お礼をしなく</v>
-      </c>
-      <c r="E237" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> ちゃ！</v>
-      </c>
-      <c r="F237">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G237">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <f t="shared" si="63"/>
-        <v>88</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J237">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K237">
-        <f t="shared" si="65"/>
-        <v>62</v>
-      </c>
-      <c r="L237">
-        <f t="shared" si="56"/>
-        <v>34</v>
-      </c>
-      <c r="M237">
-        <f t="shared" si="56"/>
-        <v>6</v>
-      </c>
-      <c r="N237">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="O237">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="P237">
-        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E4E28-7835-4565-8B79-7B79B496E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B4E3C-A187-43AC-8BB6-BB6A420BDB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="9420" yWindow="1884" windowWidth="13524" windowHeight="9552" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="244">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -556,9 +556,6 @@
     <t>銅像の呪いにかけられなければこんな乙女ゲームみたいな展開、純粋に楽しめたのに〜！</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>桜児くんと仲良くなるチャンスだし行くしかないよね！ここのパンケーキ屋さん気になってたし楽しみだなぁ。</t>
   </si>
   <si>
@@ -631,9 +628,6 @@
     <t>呪いのせいとはいえおじさんとカップルとしてデートかぁ。</t>
   </si>
   <si>
-    <t>でもあのパンケーキ屋さん</t>
-  </si>
-  <si>
     <t>返信どうしようかな？</t>
   </si>
   <si>
@@ -649,18 +643,202 @@
     <t>「パンケーキ食べたかったけど今月金欠で行けそうにないな！ごめんね！」</t>
   </si>
   <si>
+    <t>今日は体育祭。昨日まで天気が不安だったけど、無事に晴れてよかった！</t>
+  </si>
+  <si>
+    <t>私は小道具の係になったから朝から忙しいし気合い入れて頑張ろう！</t>
+  </si>
+  <si>
+    <t>────皆よりもちょっと遅めに来ちゃったから軽めの荷物は運ばれちゃったみたい……</t>
+  </si>
+  <si>
+    <t>さっき気合い入れて頑張ろうとしてたのに、重そうな小道具ばかりでやる気なくなりそう。</t>
+  </si>
+  <si>
+    <t>でも係の仕事だしそんなこと言ってられないよね。頑張るぞ！</t>
+  </si>
+  <si>
+    <t>｢ぐぐぐ、重い！｣</t>
+  </si>
+  <si>
+    <t>なんとか持てたけどフラフラしちゃう、よ……わっ！</t>
+  </si>
+  <si>
+    <t>｢［主人公の名前］先輩、大丈夫？！｣</t>
+  </si>
+  <si>
+    <t>｢琉絆空くん？！｣</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>｢女の子がこんなに重い荷物持っちゃだめだろ？俺が持つからさ！｣</t>
+  </si>
+  <si>
+    <t>｢あ、ありがとう……！｣</t>
+  </si>
+  <si>
+    <t>へ〜、おじさんって力持ちなんだな〜。</t>
+  </si>
+  <si>
+    <t>ってちがうちがう！呪いのせいでそう見えてるだけで高校生の男子なんだった。</t>
+  </si>
+  <si>
+    <t>最近おじさんの姿のOG☆3に見慣れてきてる！あの性格の悪い銅像に洗脳されちゃうよ〜！</t>
+  </si>
+  <si>
+    <t>[運動場]</t>
+  </si>
+  <si>
+    <t>琉絆空くんの協力のおかげで無事に係の仕事も終わってよかった！</t>
+  </si>
+  <si>
+    <t>私の出番はまだだから友達の応援でもしようかな。</t>
+  </si>
+  <si>
+    <t>｢キャーーーーｯ！！｣</t>
+  </si>
+  <si>
+    <t>？！！</t>
+  </si>
+  <si>
+    <t>女子たちの歓声が聞こえてくる。なんだろう？</t>
+  </si>
+  <si>
+    <t>｢桜児くんがんばってー！｣</t>
+  </si>
+  <si>
+    <t>歓声を向けられている方を見ると、リレーのアンカーとしてバトンを待つ桜児くんが見えた。</t>
+  </si>
+  <si>
+    <t>桜児くんの前の人は一位と大差つけられて二位みたい。</t>
+  </si>
+  <si>
+    <t>おじさんの呪いをかけられる前の桜児くんを思い出すと、小柄で女の子みたいだし大丈夫かな……？</t>
+  </si>
+  <si>
+    <t>ちょっと心配だけど桜児くんにがんばってほしいし私も応援しよう！</t>
+  </si>
+  <si>
+    <t>｢桜児くんがんばれーー！！｣</t>
+  </si>
+  <si>
+    <t>ついに桜児くんにバトンが渡ったその時​─────</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>｢おまたせ〜！ごめんね一位の人！抜かしちゃうよ！｣</t>
+  </si>
+  <si>
+    <t>｢キャーーー！｣</t>
+  </si>
+  <si>
+    <t>桜児くん速い！あっという間に一位の人を抜かしちゃった！</t>
+  </si>
+  <si>
+    <t>桜児くんって見かけによらず運動神経よかったんだ……</t>
+  </si>
+  <si>
+    <t>リレーが終わって桜児くんは応援席にきてくれた。</t>
+  </si>
+  <si>
+    <t>｢桜児くんお疲れ様！｣</t>
+  </si>
+  <si>
+    <t>｢[主人公の名前]ちゃん、応援ありがとうね！次の綱引き出るんだよね？がんばれ〜！｣</t>
+  </si>
+  <si>
+    <t>桜児くんはやっぱりファンサが手厚いな〜。応援してくれてるし、綱引きがんばるぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>｢位置について、よーい……｣</t>
+  </si>
+  <si>
+    <t>ピストルの音がなる。</t>
+  </si>
+  <si>
+    <t>相手のチームすごい力だ……！力には自信ないけど頑張らなくちゃ！</t>
+  </si>
+  <si>
+    <t>自分たちのチームも負けじと綱を引いている。いい感じ！</t>
+  </si>
+  <si>
+    <t>｢うっ！痛い｣</t>
+  </si>
+  <si>
+    <t>手と綱が擦れてすごく痛い……！</t>
+  </si>
+  <si>
+    <t>でも、もう少しで勝てそう！我慢我慢……</t>
+  </si>
+  <si>
+    <t>その時、相手チームか凄い力で綱を引いてきた。</t>
+  </si>
+  <si>
+    <t>｢わっ！｣</t>
+  </si>
+  <si>
+    <t>｢っ……！｣</t>
+  </si>
+  <si>
+    <t>凄い勢いで転けちゃった、恥ずかしい……</t>
+  </si>
+  <si>
+    <t>｢怪我をしている……この様子だと大丈夫そうではないな。保健室に向かおう。｣</t>
+  </si>
+  <si>
+    <t>｢なんで先輩が……って、えっ？！！｣</t>
+  </si>
+  <si>
+    <t>私、お姫様だっこされてる？！！</t>
+  </si>
+  <si>
+    <t>｢僕はリレーなどは得意ではないから綱引きに出たんだ。おかげで[主人公の名前]を助けることができてよかった。｣</t>
+  </si>
+  <si>
+    <t>｢あの子目鏡生徒会長にお姫様だっこされてる、いいな〜……｣</t>
+  </si>
+  <si>
+    <t>ひぃ、そうだった、光先輩って本来はイケメンなんだった。</t>
+  </si>
+  <si>
+    <t>周りの女子たちに羨望の眼差しで見られてる……</t>
+  </si>
+  <si>
+    <t>[保健室]</t>
+  </si>
+  <si>
+    <t>｢あの、光先輩！保健室まで運んでくださってありがとうございます。すみません、迷惑をかけちゃって……｣</t>
+  </si>
+  <si>
+    <t>｢気にしないでくれ。一生懸命頑張った結果だからな。｣</t>
+  </si>
+  <si>
+    <t>やっぱり光先輩って優しいな……</t>
+  </si>
+  <si>
+    <t>無事に体育祭が終わった。今日は色んな人に助けられた一日だったな……今度お礼をしなくちゃ！</t>
+  </si>
+  <si>
+    <t>[体育館]</t>
+  </si>
+  <si>
+    <t>でもあのパンケーキ屋さん気になってたんだよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>「うん！いい感じ！二人とも盛れてる〜っ！」</t>
-    <rPh sb="9" eb="11">
-      <t>フタリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>「んーん！これは二人だけの写真だよ。可愛い子との写真を載せたら他の子達が嫉妬しちゃうから！」</t>
-    <rPh sb="8" eb="10">
-      <t>フタリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1030,13 +1208,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P172"/>
+  <dimension ref="A1:P237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C172" sqref="C172"/>
+      <selection pane="bottomRight" activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9364,38 +9542,38 @@
         <v xml:space="preserve">「最近学園の近くにパンケー </v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C172" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
+        <f t="shared" ref="C131:C194" si="45">IF(K131&gt;0,MIDB(I131, 27, 28),0)</f>
         <v>キ屋さんができたんだって〜！</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D172" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
+        <f t="shared" ref="D131:D194" si="46">IF(L131&gt;0, MIDB(I131, 27+28, 28), 0)</f>
         <v>今度行かない？」</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E172" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E131:E194" si="47">IF(M131&gt;0, MIDB(I131, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F172" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F131:F194" si="48">IF(N131&gt;0, MIDB(I131, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G172" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G131:G194" si="49">IF(O131&gt;0, MIDB(I131, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H172" si="50">LENB(I131)</f>
+        <f t="shared" ref="H131:H194" si="50">LENB(I131)</f>
         <v>69</v>
       </c>
       <c r="I131" t="s">
         <v>143</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J172" si="51">IF(H131&gt;26, 1, 0)</f>
+        <f t="shared" ref="J131:J194" si="51">IF(H131&gt;26, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K172" si="52">IF(J131,H131-26, 0)</f>
+        <f t="shared" ref="K131:K194" si="52">IF(J131,H131-26, 0)</f>
         <v>43</v>
       </c>
       <c r="L131">
@@ -9424,7 +9602,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B172" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
+        <f t="shared" ref="B132:B195" si="53">IF(J132,LEFTB(I132, 27), I132)</f>
         <v xml:space="preserve">「そこ気になってるとこだ〜 </v>
       </c>
       <c r="C132" t="str">
@@ -9772,7 +9950,7 @@
         <v>54</v>
       </c>
       <c r="I137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J137">
         <f t="shared" si="51"/>
@@ -9809,11 +9987,11 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="53"/>
-        <v>でもあのパンケーキ屋さん</v>
-      </c>
-      <c r="C138">
+        <v xml:space="preserve">でもあのパンケーキ屋さん気 </v>
+      </c>
+      <c r="C138" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>になってたんだよね</v>
       </c>
       <c r="D138">
         <f t="shared" si="46"/>
@@ -9833,18 +10011,18 @@
       </c>
       <c r="H138">
         <f t="shared" si="50"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I138" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="J138">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L138">
         <f t="shared" si="44"/>
@@ -9900,7 +10078,7 @@
         <v>20</v>
       </c>
       <c r="I139" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J139">
         <f t="shared" si="51"/>
@@ -9937,7 +10115,7 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="C140">
         <f t="shared" si="45"/>
@@ -9961,10 +10139,10 @@
       </c>
       <c r="H140">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="J140">
         <f t="shared" si="51"/>
@@ -10028,7 +10206,7 @@
         <v>100</v>
       </c>
       <c r="I141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J141">
         <f t="shared" si="51"/>
@@ -10092,7 +10270,7 @@
         <v>56</v>
       </c>
       <c r="I142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J142">
         <f t="shared" si="51"/>
@@ -10156,7 +10334,7 @@
         <v>52</v>
       </c>
       <c r="I143" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J143">
         <f t="shared" si="51"/>
@@ -10220,7 +10398,7 @@
         <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J144">
         <f t="shared" si="51"/>
@@ -10284,7 +10462,7 @@
         <v>58</v>
       </c>
       <c r="I145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J145">
         <f t="shared" si="51"/>
@@ -10348,7 +10526,7 @@
         <v>41</v>
       </c>
       <c r="I146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J146">
         <f t="shared" si="51"/>
@@ -10412,7 +10590,7 @@
         <v>52</v>
       </c>
       <c r="I147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J147">
         <f t="shared" si="51"/>
@@ -10447,9 +10625,9 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="C148">
         <f t="shared" si="45"/>
@@ -10473,9 +10651,11 @@
       </c>
       <c r="H148">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="I148"/>
+        <v>3</v>
+      </c>
+      <c r="I148" t="s">
+        <v>215</v>
+      </c>
       <c r="J148">
         <f t="shared" si="51"/>
         <v>0</v>
@@ -10538,7 +10718,7 @@
         <v>58</v>
       </c>
       <c r="I149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J149">
         <f t="shared" si="51"/>
@@ -10602,7 +10782,7 @@
         <v>58</v>
       </c>
       <c r="I150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J150">
         <f t="shared" si="51"/>
@@ -10666,7 +10846,7 @@
         <v>84</v>
       </c>
       <c r="I151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J151">
         <f t="shared" si="51"/>
@@ -10730,7 +10910,7 @@
         <v>102</v>
       </c>
       <c r="I152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J152">
         <f t="shared" si="51"/>
@@ -10794,7 +10974,7 @@
         <v>44</v>
       </c>
       <c r="I153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J153">
         <f t="shared" si="51"/>
@@ -10858,7 +11038,7 @@
         <v>126</v>
       </c>
       <c r="I154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J154">
         <f t="shared" si="51"/>
@@ -10986,7 +11166,7 @@
         <v>33</v>
       </c>
       <c r="I156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J156">
         <f t="shared" si="51"/>
@@ -11050,7 +11230,7 @@
         <v>48</v>
       </c>
       <c r="I157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J157">
         <f t="shared" si="51"/>
@@ -11114,7 +11294,7 @@
         <v>80</v>
       </c>
       <c r="I158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J158">
         <f t="shared" si="51"/>
@@ -11178,7 +11358,7 @@
         <v>74</v>
       </c>
       <c r="I159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J159">
         <f t="shared" si="51"/>
@@ -11189,7 +11369,7 @@
         <v>48</v>
       </c>
       <c r="L159">
-        <f t="shared" ref="L159:P172" si="55">IF(K159&gt;26,K159-28, 0)</f>
+        <f t="shared" ref="L159:P174" si="55">IF(K159&gt;26,K159-28, 0)</f>
         <v>20</v>
       </c>
       <c r="M159">
@@ -11242,7 +11422,7 @@
         <v>66</v>
       </c>
       <c r="I160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J160">
         <f t="shared" si="51"/>
@@ -11306,7 +11486,7 @@
         <v>60</v>
       </c>
       <c r="I161" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J161">
         <f t="shared" si="51"/>
@@ -11370,7 +11550,7 @@
         <v>23</v>
       </c>
       <c r="I162" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J162">
         <f t="shared" si="51"/>
@@ -11407,11 +11587,11 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「うん！いい感じ！二人とも </v>
-      </c>
-      <c r="C163" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C163">
         <f t="shared" si="45"/>
-        <v>盛れてる〜っ！」</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <f t="shared" si="46"/>
@@ -11431,18 +11611,18 @@
       </c>
       <c r="H163">
         <f t="shared" si="50"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="J163">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <f t="shared" si="52"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L163">
         <f t="shared" si="55"/>
@@ -11471,19 +11651,19 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
+        <v xml:space="preserve">「うん！いい感じ！二人とも </v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="45"/>
-        <v>が普通の男の子に戻った時のた</v>
-      </c>
-      <c r="D164" t="str">
+        <v>盛れてる〜っ！」</v>
+      </c>
+      <c r="D164">
         <f t="shared" si="46"/>
-        <v>めに写真大切に残しとかなきゃ</v>
-      </c>
-      <c r="E164" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164">
         <f t="shared" si="47"/>
-        <v xml:space="preserve"> ！</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <f t="shared" si="48"/>
@@ -11495,10 +11675,10 @@
       </c>
       <c r="H164">
         <f t="shared" si="50"/>
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I164" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="J164">
         <f t="shared" si="51"/>
@@ -11506,15 +11686,15 @@
       </c>
       <c r="K164">
         <f t="shared" si="52"/>
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L164">
         <f t="shared" si="55"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M164">
         <f t="shared" si="55"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N164">
         <f t="shared" si="55"/>
@@ -11535,19 +11715,19 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「これもイ〇スタにのせるの </v>
+        <v xml:space="preserve">そ、そうなんだ……桜児くん </v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="45"/>
-        <v>？」</v>
-      </c>
-      <c r="D165">
+        <v>が普通の男の子に戻った時のた</v>
+      </c>
+      <c r="D165" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E165">
+        <v>めに写真大切に残しとかなきゃ</v>
+      </c>
+      <c r="E165" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v xml:space="preserve"> ！</v>
       </c>
       <c r="F165">
         <f t="shared" si="48"/>
@@ -11559,10 +11739,10 @@
       </c>
       <c r="H165">
         <f t="shared" si="50"/>
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I165" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J165">
         <f t="shared" si="51"/>
@@ -11570,15 +11750,15 @@
       </c>
       <c r="K165">
         <f t="shared" si="52"/>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="L165">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M165">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N165">
         <f t="shared" si="55"/>
@@ -11599,19 +11779,19 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「んーん！これは二人だけの </v>
+        <v xml:space="preserve">「これもイ〇スタにのせるの </v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="45"/>
-        <v>写真だよ。可愛い子との写真を</v>
-      </c>
-      <c r="D166" t="str">
+        <v>？」</v>
+      </c>
+      <c r="D166">
         <f t="shared" si="46"/>
-        <v>載せたら他の子達が嫉妬しちゃ</v>
-      </c>
-      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+      <c r="E166">
         <f t="shared" si="47"/>
-        <v xml:space="preserve"> うから！」</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <f t="shared" si="48"/>
@@ -11623,10 +11803,10 @@
       </c>
       <c r="H166">
         <f t="shared" si="50"/>
-        <v>92</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>181</v>
+        <v>30</v>
+      </c>
+      <c r="I166" t="s">
+        <v>168</v>
       </c>
       <c r="J166">
         <f t="shared" si="51"/>
@@ -11634,15 +11814,15 @@
       </c>
       <c r="K166">
         <f t="shared" si="52"/>
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="L166">
         <f t="shared" si="55"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M166">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N166">
         <f t="shared" si="55"/>
@@ -11663,19 +11843,19 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
+        <v xml:space="preserve">「んーん！これは二人だけの </v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="45"/>
-        <v>たかったよ〜！呪いを解くため</v>
+        <v>写真だよ。可愛い子との写真を</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="46"/>
-        <v>にがんばらなきゃ。</v>
-      </c>
-      <c r="E167">
+        <v>載せたら他の子達が嫉妬しちゃ</v>
+      </c>
+      <c r="E167" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v xml:space="preserve"> うから！」</v>
       </c>
       <c r="F167">
         <f t="shared" si="48"/>
@@ -11687,10 +11867,10 @@
       </c>
       <c r="H167">
         <f t="shared" si="50"/>
-        <v>70</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>170</v>
+        <v>92</v>
+      </c>
+      <c r="I167" t="s">
+        <v>243</v>
       </c>
       <c r="J167">
         <f t="shared" si="51"/>
@@ -11698,15 +11878,15 @@
       </c>
       <c r="K167">
         <f t="shared" si="52"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="L167">
         <f t="shared" si="55"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M167">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N167">
         <f t="shared" si="55"/>
@@ -11727,15 +11907,15 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">今月はお小遣い使い過ぎちゃ </v>
+        <v xml:space="preserve">わ〜！これも元の姿で言われ </v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="45"/>
-        <v>ってパンケーキを食べる余裕は</v>
+        <v>たかったよ〜！呪いを解くため</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="46"/>
-        <v>ないな……</v>
+        <v>にがんばらなきゃ。</v>
       </c>
       <c r="E168">
         <f t="shared" si="47"/>
@@ -11751,10 +11931,10 @@
       </c>
       <c r="H168">
         <f t="shared" si="50"/>
-        <v>64</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>178</v>
+        <v>70</v>
+      </c>
+      <c r="I168" t="s">
+        <v>169</v>
       </c>
       <c r="J168">
         <f t="shared" si="51"/>
@@ -11762,11 +11942,11 @@
       </c>
       <c r="K168">
         <f t="shared" si="52"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L168">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M168">
         <f t="shared" si="55"/>
@@ -11791,15 +11971,15 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「パンケーキ食べたかったけ </v>
+        <v xml:space="preserve">今月はお小遣い使い過ぎちゃ </v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="45"/>
-        <v>ど今月金欠で行けそうにないな</v>
+        <v>ってパンケーキを食べる余裕は</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="46"/>
-        <v>！ごめんね！」</v>
+        <v>ないな……</v>
       </c>
       <c r="E169">
         <f t="shared" si="47"/>
@@ -11815,10 +11995,10 @@
       </c>
       <c r="H169">
         <f t="shared" si="50"/>
-        <v>68</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>179</v>
+        <v>64</v>
+      </c>
+      <c r="I169" t="s">
+        <v>176</v>
       </c>
       <c r="J169">
         <f t="shared" si="51"/>
@@ -11826,11 +12006,11 @@
       </c>
       <c r="K169">
         <f t="shared" si="52"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L169">
         <f t="shared" si="55"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M169">
         <f t="shared" si="55"/>
@@ -11855,15 +12035,15 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">「そういうときもあるよね〜 </v>
+        <v xml:space="preserve">「パンケーキ食べたかったけ </v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="45"/>
-        <v>！他の人誘うから気にしないで</v>
+        <v>ど今月金欠で行けそうにないな</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="46"/>
-        <v>！」</v>
+        <v>！ごめんね！」</v>
       </c>
       <c r="E170">
         <f t="shared" si="47"/>
@@ -11879,10 +12059,10 @@
       </c>
       <c r="H170">
         <f t="shared" si="50"/>
-        <v>57</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>171</v>
+        <v>68</v>
+      </c>
+      <c r="I170" t="s">
+        <v>177</v>
       </c>
       <c r="J170">
         <f t="shared" si="51"/>
@@ -11890,11 +12070,11 @@
       </c>
       <c r="K170">
         <f t="shared" si="52"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L170">
         <f t="shared" si="55"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M170">
         <f t="shared" si="55"/>
@@ -11919,15 +12099,15 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">か、悲しい……また金欠にな </v>
+        <v xml:space="preserve">「そういうときもあるよね〜 </v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="45"/>
-        <v>らないようにバイトして稼がな</v>
+        <v>！他の人誘うから気にしないで</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="46"/>
-        <v>いと！</v>
+        <v>！」</v>
       </c>
       <c r="E171">
         <f t="shared" si="47"/>
@@ -11943,10 +12123,10 @@
       </c>
       <c r="H171">
         <f t="shared" si="50"/>
-        <v>60</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>172</v>
+        <v>57</v>
+      </c>
+      <c r="I171" t="s">
+        <v>170</v>
       </c>
       <c r="J171">
         <f t="shared" si="51"/>
@@ -11954,11 +12134,11 @@
       </c>
       <c r="K171">
         <f t="shared" si="52"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L171">
         <f t="shared" si="55"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M171">
         <f t="shared" si="55"/>
@@ -11983,15 +12163,15 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">                           </v>
+        <v xml:space="preserve">か、悲しい……また金欠にな </v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D172">
+        <v>らないようにバイトして稼がな</v>
+      </c>
+      <c r="D172" t="str">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>いと！</v>
       </c>
       <c r="E172">
         <f t="shared" si="47"/>
@@ -12007,10 +12187,10 @@
       </c>
       <c r="H172">
         <f t="shared" si="50"/>
-        <v>27</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="I172" t="s">
+        <v>171</v>
       </c>
       <c r="J172">
         <f t="shared" si="51"/>
@@ -12018,11 +12198,11 @@
       </c>
       <c r="K172">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="L172">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M172">
         <f t="shared" si="55"/>
@@ -12038,6 +12218,4166 @@
       </c>
       <c r="P172">
         <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I173" t="s">
+        <v>241</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="53"/>
+        <v>[体育館]</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="I174" t="s">
+        <v>239</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">今日は体育祭。昨日まで天気 </v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="45"/>
+        <v>が不安だったけど、無事に晴れ</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="46"/>
+        <v>てよかった！</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="50"/>
+        <v>66</v>
+      </c>
+      <c r="I175" t="s">
+        <v>178</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="52"/>
+        <v>40</v>
+      </c>
+      <c r="L175">
+        <f t="shared" ref="L175:P236" si="56">IF(K175&gt;26,K175-28, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">私は小道具の係になったから </v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="45"/>
+        <v>朝から忙しいし気合い入れて頑</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="46"/>
+        <v>張ろう！</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="50"/>
+        <v>62</v>
+      </c>
+      <c r="I176" t="s">
+        <v>179</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="52"/>
+        <v>36</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">────皆よりもちょっと遅 </v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="45"/>
+        <v>めに来ちゃったから軽めの荷物</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="46"/>
+        <v>は運ばれちゃったみたい……</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="50"/>
+        <v>80</v>
+      </c>
+      <c r="I177" t="s">
+        <v>180</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="52"/>
+        <v>54</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="56"/>
+        <v>26</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">さっき気合い入れて頑張ろう </v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="45"/>
+        <v>としてたのに、重そうな小道具</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="46"/>
+        <v>ばかりでやる気なくなりそう。</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="50"/>
+        <v>82</v>
+      </c>
+      <c r="I178" t="s">
+        <v>181</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="52"/>
+        <v>56</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <f t="shared" ref="P178:P237" si="57">IF(O178&gt;26,O178-28, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">でも係の仕事だしそんなこと </v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="45"/>
+        <v>言ってられないよね。頑張るぞ</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="46"/>
+        <v>！</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="50"/>
+        <v>56</v>
+      </c>
+      <c r="I179" t="s">
+        <v>182</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="52"/>
+        <v>30</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="53"/>
+        <v>｢ぐぐぐ、重い！｣</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="I180" t="s">
+        <v>183</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">なんとか持てたけどフラフラ </v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="45"/>
+        <v>しちゃう、よ……わっ！</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="50"/>
+        <v>48</v>
+      </c>
+      <c r="I181" t="s">
+        <v>184</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="53"/>
+        <v>｢［主人公の名前］先輩、大丈</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> 夫？！｣</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="I182" t="s">
+        <v>185</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="53"/>
+        <v>｢琉絆空くん？！｣</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="I183" t="s">
+        <v>186</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="53"/>
+        <v>　</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I184" t="s">
+        <v>187</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="53"/>
+        <v>｢女の子がこんなに重い荷物持</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> っちゃだめだろ？俺が持つか </v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> さ！｣</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="50"/>
+        <v>60</v>
+      </c>
+      <c r="I185" t="s">
+        <v>188</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="53"/>
+        <v>｢あ、ありがとう……！｣</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="50"/>
+        <v>22</v>
+      </c>
+      <c r="I186" t="s">
+        <v>189</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">へ〜、おじさんって力持ちな </v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="45"/>
+        <v>んだな〜。</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="I187" t="s">
+        <v>190</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">ってちがうちがう！呪いのせ </v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="45"/>
+        <v>いでそう見えてるだけで高校生</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="46"/>
+        <v>の男子なんだった。</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="50"/>
+        <v>72</v>
+      </c>
+      <c r="I188" t="s">
+        <v>191</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="52"/>
+        <v>46</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="53"/>
+        <v>最近おじさんの姿のOG☆3に見</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> 慣れてきてる！あの性格の悪 </v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> 銅像に洗脳されちゃうよ〜！</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="50"/>
+        <v>80</v>
+      </c>
+      <c r="I189" t="s">
+        <v>192</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="52"/>
+        <v>54</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="56"/>
+        <v>26</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="53"/>
+        <v>[運動場]</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="I190" t="s">
+        <v>193</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">琉絆空くんの協力のおかげで </v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="45"/>
+        <v>無事に係の仕事も終わってよか</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="46"/>
+        <v>った！</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="50"/>
+        <v>60</v>
+      </c>
+      <c r="I191" t="s">
+        <v>194</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">私の出番はまだだから友達の </v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="45"/>
+        <v>応援でもしようかな。</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="50"/>
+        <v>46</v>
+      </c>
+      <c r="I192" t="s">
+        <v>195</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="53"/>
+        <v>｢キャーーーーｯ！！｣</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="50"/>
+        <v>19</v>
+      </c>
+      <c r="I193" t="s">
+        <v>196</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="53"/>
+        <v>？！！</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="I194" t="s">
+        <v>197</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">女子たちの歓声が聞こえてく </v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C237" si="58">IF(K195&gt;0,MIDB(I195, 27, 28),0)</f>
+        <v>る。なんだろう？</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D237" si="59">IF(L195&gt;0, MIDB(I195, 27+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E237" si="60">IF(M195&gt;0, MIDB(I195, 27*2+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F237" si="61">IF(N195&gt;0, MIDB(I195, 27*3+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G237" si="62">IF(O195&gt;0, MIDB(I195, 27*4+28, 28), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H237" si="63">LENB(I195)</f>
+        <v>42</v>
+      </c>
+      <c r="I195" t="s">
+        <v>198</v>
+      </c>
+      <c r="J195">
+        <f t="shared" ref="J195:J237" si="64">IF(H195&gt;26, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <f t="shared" ref="K195:K237" si="65">IF(J195,H195-26, 0)</f>
+        <v>16</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" ref="B196:B237" si="66">IF(J196,LEFTB(I196, 27), I196)</f>
+        <v>｢桜児くんがんばってー！｣</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="63"/>
+        <v>24</v>
+      </c>
+      <c r="I196" t="s">
+        <v>199</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">歓声を向けられている方を見 </v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="58"/>
+        <v>ると、リレーのアンカーとして</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="59"/>
+        <v>バトンを待つ桜児くんが見えた</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> 。</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="63"/>
+        <v>84</v>
+      </c>
+      <c r="I197" t="s">
+        <v>200</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="65"/>
+        <v>58</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くんの前の人は一位と大 </v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="58"/>
+        <v>差つけられて二位みたい。</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="63"/>
+        <v>50</v>
+      </c>
+      <c r="I198" t="s">
+        <v>201</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="65"/>
+        <v>24</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">おじさんの呪いをかけられる </v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="58"/>
+        <v>前の桜児くんを思い出すと、小</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="59"/>
+        <v>柄で女の子みたいだし大丈夫か</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> な……？</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="63"/>
+        <v>90</v>
+      </c>
+      <c r="I199" t="s">
+        <v>202</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="65"/>
+        <v>64</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="56"/>
+        <v>36</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">ちょっと心配だけど桜児くん </v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="58"/>
+        <v>にがんばってほしいし私も応援</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="59"/>
+        <v>しよう！</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="63"/>
+        <v>62</v>
+      </c>
+      <c r="I200" t="s">
+        <v>203</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="65"/>
+        <v>36</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="66"/>
+        <v>｢桜児くんがんばれーー！！｣</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="63"/>
+        <v>26</v>
+      </c>
+      <c r="I201" t="s">
+        <v>204</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">ついに桜児くんにバトンが渡 </v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="58"/>
+        <v>ったその時​─────</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="63"/>
+        <v>47</v>
+      </c>
+      <c r="I202" t="s">
+        <v>205</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="65"/>
+        <v>21</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="I203" t="s">
+        <v>206</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="66"/>
+        <v>｢おまたせ〜！ごめんね一位の</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> 人！抜かしちゃうよ！｣</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="63"/>
+        <v>47</v>
+      </c>
+      <c r="I204" t="s">
+        <v>207</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="65"/>
+        <v>21</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="66"/>
+        <v>｢キャーーー！｣</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>208</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くん速い！あっという間 </v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="58"/>
+        <v>に一位の人を抜かしちゃった！</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="63"/>
+        <v>54</v>
+      </c>
+      <c r="I206" t="s">
+        <v>209</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="65"/>
+        <v>28</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くんって見かけによらず </v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="58"/>
+        <v>運動神経よかったんだ……</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="63"/>
+        <v>50</v>
+      </c>
+      <c r="I207" t="s">
+        <v>210</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="65"/>
+        <v>24</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">リレーが終わって桜児くんは </v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="58"/>
+        <v>応援席にきてくれた。</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="63"/>
+        <v>46</v>
+      </c>
+      <c r="I208" t="s">
+        <v>211</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="65"/>
+        <v>20</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="66"/>
+        <v>｢桜児くんお疲れ様！｣</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="63"/>
+        <v>20</v>
+      </c>
+      <c r="I209" t="s">
+        <v>212</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="66"/>
+        <v>｢[主人公の名前]ちゃん、応援</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="63"/>
+        <v>77</v>
+      </c>
+      <c r="I210" t="s">
+        <v>213</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="65"/>
+        <v>51</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
+      <c r="M210">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">桜児くんはやっぱりファンサ </v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="58"/>
+        <v>が手厚いな〜。応援してくれて</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="59"/>
+        <v>るし、綱引きがんばるぞ！</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="63"/>
+        <v>77</v>
+      </c>
+      <c r="I211" t="s">
+        <v>214</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="65"/>
+        <v>51</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="I212" t="s">
+        <v>206</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="66"/>
+        <v>｢位置について、よーい……｣</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="63"/>
+        <v>26</v>
+      </c>
+      <c r="I213" t="s">
+        <v>216</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="66"/>
+        <v>ピストルの音がなる。</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="63"/>
+        <v>20</v>
+      </c>
+      <c r="I214" t="s">
+        <v>217</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">相手のチームすごい力だ…… </v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="58"/>
+        <v>！力には自信ないけど頑張らな</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="59"/>
+        <v>くちゃ！</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="63"/>
+        <v>62</v>
+      </c>
+      <c r="I215" t="s">
+        <v>218</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="65"/>
+        <v>36</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">自分たちのチームも負けじと </v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="58"/>
+        <v>綱を引いている。いい感じ！</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="63"/>
+        <v>52</v>
+      </c>
+      <c r="I216" t="s">
+        <v>219</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="65"/>
+        <v>26</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="66"/>
+        <v>｢うっ！痛い｣</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="I217" t="s">
+        <v>220</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">手と綱が擦れてすごく痛い… </v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="58"/>
+        <v>…！</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="I218" t="s">
+        <v>221</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">でも、もう少しで勝てそう！ </v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="58"/>
+        <v>我慢我慢……</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="63"/>
+        <v>38</v>
+      </c>
+      <c r="I219" t="s">
+        <v>222</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="65"/>
+        <v>12</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">その時、相手チームか凄い力 </v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="58"/>
+        <v>で綱を引いてきた。</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="63"/>
+        <v>44</v>
+      </c>
+      <c r="I220" t="s">
+        <v>223</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="65"/>
+        <v>18</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="66"/>
+        <v>｢わっ！｣</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I221" t="s">
+        <v>224</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="66"/>
+        <v>｢っ……！｣</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+      <c r="I222" t="s">
+        <v>225</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">凄い勢いで転けちゃった、恥 </v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="58"/>
+        <v>ずかしい……</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="63"/>
+        <v>38</v>
+      </c>
+      <c r="I223" t="s">
+        <v>226</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="65"/>
+        <v>12</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="66"/>
+        <v>｢怪我をしている……この様子</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> だと大丈夫そうではないな。 </v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> 健室に向かおう。｣</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="63"/>
+        <v>72</v>
+      </c>
+      <c r="I224" t="s">
+        <v>227</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="65"/>
+        <v>46</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="66"/>
+        <v>｢なんで先輩が……って、えっ</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> ？！！｣</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="63"/>
+        <v>34</v>
+      </c>
+      <c r="I225" t="s">
+        <v>228</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+      <c r="I226" t="s">
+        <v>215</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">私、お姫様だっこされてる？ </v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="58"/>
+        <v>！！</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="I227" t="s">
+        <v>229</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="66"/>
+        <v>｢僕はリレーなどは得意ではな</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> いから綱引きに出たんだ。お </v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="60"/>
+        <v>ことができてよかった。｣</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="63"/>
+        <v>104</v>
+      </c>
+      <c r="I228" t="s">
+        <v>230</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="65"/>
+        <v>78</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="56"/>
+        <v>50</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="56"/>
+        <v>22</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="66"/>
+        <v>｢あの子目鏡生徒会長にお姫様</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> だっこされてる、いいな〜… </v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> ｣</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="63"/>
+        <v>55</v>
+      </c>
+      <c r="I229" t="s">
+        <v>231</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="65"/>
+        <v>29</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">ひぃ、そうだった、光先輩っ </v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="58"/>
+        <v>て本来はイケメンなんだった。</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="63"/>
+        <v>54</v>
+      </c>
+      <c r="I230" t="s">
+        <v>232</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="65"/>
+        <v>28</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">周りの女子たちに羨望の眼差 </v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="58"/>
+        <v>しで見られてる……</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="63"/>
+        <v>44</v>
+      </c>
+      <c r="I231" t="s">
+        <v>233</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="65"/>
+        <v>18</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="66"/>
+        <v>[保健室]</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I232" t="s">
+        <v>234</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="66"/>
+        <v>｢あの、光先輩！保健室まで運</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> んでくださってありがとうご </v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> います。すみません、迷惑を </v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="60"/>
+        <v>かけちゃって……｣</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="63"/>
+        <v>98</v>
+      </c>
+      <c r="I233" t="s">
+        <v>235</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="65"/>
+        <v>72</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="56"/>
+        <v>44</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="56"/>
+        <v>16</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="66"/>
+        <v>｢気にしないでくれ。一生懸命</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> 頑張った結果だからな。｣</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="63"/>
+        <v>50</v>
+      </c>
+      <c r="I234" t="s">
+        <v>236</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="65"/>
+        <v>24</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">やっぱり光先輩って優しいな </v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="58"/>
+        <v>……</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="I235" t="s">
+        <v>237</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="66"/>
+        <v>[運動場]</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I236" t="s">
+        <v>193</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">無事に体育祭が終わった。今 </v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="58"/>
+        <v>日は色んな人に助けられた一日</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="59"/>
+        <v>だったな……今度お礼をしなく</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> ちゃ！</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="63"/>
+        <v>88</v>
+      </c>
+      <c r="I237" t="s">
+        <v>238</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="65"/>
+        <v>62</v>
+      </c>
+      <c r="L237">
+        <f t="shared" ref="L237:O237" si="67">IF(K237&gt;26,K237-28, 0)</f>
+        <v>34</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="67"/>
+        <v>6</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>

--- a/OG3/Assets/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scripts/logtext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B4E3C-A187-43AC-8BB6-BB6A420BDB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210B745B-911D-4263-A575-C4F7FBEE6466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1884" windowWidth="13524" windowHeight="9552" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,9 +664,6 @@
     <t>なんとか持てたけどフラフラしちゃう、よ……わっ！</t>
   </si>
   <si>
-    <t>｢［主人公の名前］先輩、大丈夫？！｣</t>
-  </si>
-  <si>
     <t>｢琉絆空くん？！｣</t>
   </si>
   <si>
@@ -748,9 +745,6 @@
     <t>｢桜児くんお疲れ様！｣</t>
   </si>
   <si>
-    <t>｢[主人公の名前]ちゃん、応援ありがとうね！次の綱引き出るんだよね？がんばれ〜！｣</t>
-  </si>
-  <si>
     <t>桜児くんはやっぱりファンサが手厚いな〜。応援してくれてるし、綱引きがんばるぞ！</t>
   </si>
   <si>
@@ -799,9 +793,6 @@
     <t>私、お姫様だっこされてる？！！</t>
   </si>
   <si>
-    <t>｢僕はリレーなどは得意ではないから綱引きに出たんだ。おかげで[主人公の名前]を助けることができてよかった。｣</t>
-  </si>
-  <si>
     <t>｢あの子目鏡生徒会長にお姫様だっこされてる、いいな〜……｣</t>
   </si>
   <si>
@@ -820,25 +811,41 @@
     <t>｢気にしないでくれ。一生懸命頑張った結果だからな。｣</t>
   </si>
   <si>
+    <t>無事に体育祭が終わった。今日は色んな人に助けられた一日だったな……今度お礼をしなくちゃ！</t>
+  </si>
+  <si>
+    <t>[体育館]</t>
+  </si>
+  <si>
+    <t>でもあのパンケーキ屋さん気になってたんだよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>「うん！いい感じ！二人とも盛れてる〜っ！」</t>
+  </si>
+  <si>
+    <t>「んーん！これは二人だけの写真だよ。可愛い子との写真を載せたら他の子達が嫉妬しちゃうから！」</t>
+  </si>
+  <si>
+    <t>｢先輩、大丈夫？！｣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>｢応援ありがとうね！次の綱引き出るんだよね？がんばれ〜！｣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>｢僕はリレーなどは得意ではないから綱引きに出たんだ。おかげで君を助けることができてよかった。｣</t>
+    <rPh sb="30" eb="31">
+      <t>キミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>やっぱり光先輩って優しいな……</t>
-  </si>
-  <si>
-    <t>無事に体育祭が終わった。今日は色んな人に助けられた一日だったな……今度お礼をしなくちゃ！</t>
-  </si>
-  <si>
-    <t>[体育館]</t>
-  </si>
-  <si>
-    <t>でもあのパンケーキ屋さん気になってたんだよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>「うん！いい感じ！二人とも盛れてる〜っ！」</t>
-  </si>
-  <si>
-    <t>「んーん！これは二人だけの写真だよ。可愛い子との写真を載せたら他の子達が嫉妬しちゃうから！」</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1211,10 +1218,10 @@
   <dimension ref="A1:P237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B225" sqref="B225"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10014,7 +10021,7 @@
         <v>44</v>
       </c>
       <c r="I138" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J138">
         <f t="shared" si="51"/>
@@ -10142,7 +10149,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J140">
         <f t="shared" si="51"/>
@@ -10654,7 +10661,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J148">
         <f t="shared" si="51"/>
@@ -11614,7 +11621,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J163">
         <f t="shared" si="51"/>
@@ -11678,7 +11685,7 @@
         <v>41</v>
       </c>
       <c r="I164" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J164">
         <f t="shared" si="51"/>
@@ -11870,7 +11877,7 @@
         <v>92</v>
       </c>
       <c r="I167" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J167">
         <f t="shared" si="51"/>
@@ -12254,7 +12261,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J173">
         <f t="shared" si="51"/>
@@ -12318,7 +12325,7 @@
         <v>8</v>
       </c>
       <c r="I174" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J174">
         <f t="shared" si="51"/>
@@ -12803,11 +12810,11 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="53"/>
-        <v>｢［主人公の名前］先輩、大丈</v>
-      </c>
-      <c r="C182" t="str">
+        <v>｢先輩、大丈夫？！｣</v>
+      </c>
+      <c r="C182">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> 夫？！｣</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <f t="shared" si="46"/>
@@ -12827,18 +12834,18 @@
       </c>
       <c r="H182">
         <f t="shared" si="50"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I182" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="J182">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <f t="shared" si="52"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <f t="shared" si="56"/>
@@ -12894,7 +12901,7 @@
         <v>16</v>
       </c>
       <c r="I183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J183">
         <f t="shared" si="51"/>
@@ -12958,7 +12965,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J184">
         <f t="shared" si="51"/>
@@ -13022,7 +13029,7 @@
         <v>60</v>
       </c>
       <c r="I185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J185">
         <f t="shared" si="51"/>
@@ -13086,7 +13093,7 @@
         <v>22</v>
       </c>
       <c r="I186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J186">
         <f t="shared" si="51"/>
@@ -13150,7 +13157,7 @@
         <v>34</v>
       </c>
       <c r="I187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J187">
         <f t="shared" si="51"/>
@@ -13214,7 +13221,7 @@
         <v>72</v>
       </c>
       <c r="I188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J188">
         <f t="shared" si="51"/>
@@ -13278,7 +13285,7 @@
         <v>80</v>
       </c>
       <c r="I189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J189">
         <f t="shared" si="51"/>
@@ -13342,7 +13349,7 @@
         <v>8</v>
       </c>
       <c r="I190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J190">
         <f t="shared" si="51"/>
@@ -13406,7 +13413,7 @@
         <v>60</v>
       </c>
       <c r="I191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J191">
         <f t="shared" si="51"/>
@@ -13470,7 +13477,7 @@
         <v>46</v>
       </c>
       <c r="I192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J192">
         <f t="shared" si="51"/>
@@ -13534,7 +13541,7 @@
         <v>19</v>
       </c>
       <c r="I193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J193">
         <f t="shared" si="51"/>
@@ -13598,7 +13605,7 @@
         <v>6</v>
       </c>
       <c r="I194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J194">
         <f t="shared" si="51"/>
@@ -13662,7 +13669,7 @@
         <v>42</v>
       </c>
       <c r="I195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J195">
         <f t="shared" ref="J195:J237" si="64">IF(H195&gt;26, 1, 0)</f>
@@ -13726,7 +13733,7 @@
         <v>24</v>
       </c>
       <c r="I196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J196">
         <f t="shared" si="64"/>
@@ -13790,7 +13797,7 @@
         <v>84</v>
       </c>
       <c r="I197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J197">
         <f t="shared" si="64"/>
@@ -13854,7 +13861,7 @@
         <v>50</v>
       </c>
       <c r="I198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J198">
         <f t="shared" si="64"/>
@@ -13918,7 +13925,7 @@
         <v>90</v>
       </c>
       <c r="I199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J199">
         <f t="shared" si="64"/>
@@ -13982,7 +13989,7 @@
         <v>62</v>
       </c>
       <c r="I200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J200">
         <f t="shared" si="64"/>
@@ -14046,7 +14053,7 @@
         <v>26</v>
       </c>
       <c r="I201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J201">
         <f t="shared" si="64"/>
@@ -14110,7 +14117,7 @@
         <v>47</v>
       </c>
       <c r="I202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J202">
         <f t="shared" si="64"/>
@@ -14174,7 +14181,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J203">
         <f t="shared" si="64"/>
@@ -14238,7 +14245,7 @@
         <v>47</v>
       </c>
       <c r="I204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J204">
         <f t="shared" si="64"/>
@@ -14302,7 +14309,7 @@
         <v>14</v>
       </c>
       <c r="I205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J205">
         <f t="shared" si="64"/>
@@ -14366,7 +14373,7 @@
         <v>54</v>
       </c>
       <c r="I206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J206">
         <f t="shared" si="64"/>
@@ -14430,7 +14437,7 @@
         <v>50</v>
       </c>
       <c r="I207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J207">
         <f t="shared" si="64"/>
@@ -14494,7 +14501,7 @@
         <v>46</v>
       </c>
       <c r="I208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J208">
         <f t="shared" si="64"/>
@@ -14558,7 +14565,7 @@
         <v>20</v>
       </c>
       <c r="I209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J209">
         <f t="shared" si="64"/>
@@ -14595,15 +14602,15 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="66"/>
-        <v>｢[主人公の名前]ちゃん、応援</v>
+        <v>｢応援ありがとうね！次の綱引</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve"> ありがとうね！次の綱引き出 </v>
+        <v xml:space="preserve"> き出るんだよね？がんばれ〜 </v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> んだよね？がんばれ〜！｣</v>
+        <v xml:space="preserve"> ｣</v>
       </c>
       <c r="E210">
         <f t="shared" si="60"/>
@@ -14619,10 +14626,10 @@
       </c>
       <c r="H210">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I210" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="J210">
         <f t="shared" si="64"/>
@@ -14630,11 +14637,11 @@
       </c>
       <c r="K210">
         <f t="shared" si="65"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L210">
         <f t="shared" si="56"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M210">
         <f t="shared" si="56"/>
@@ -14686,7 +14693,7 @@
         <v>77</v>
       </c>
       <c r="I211" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J211">
         <f t="shared" si="64"/>
@@ -14750,7 +14757,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J212">
         <f t="shared" si="64"/>
@@ -14814,7 +14821,7 @@
         <v>26</v>
       </c>
       <c r="I213" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J213">
         <f t="shared" si="64"/>
@@ -14878,7 +14885,7 @@
         <v>20</v>
       </c>
       <c r="I214" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J214">
         <f t="shared" si="64"/>
@@ -14942,7 +14949,7 @@
         <v>62</v>
       </c>
       <c r="I215" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J215">
         <f t="shared" si="64"/>
@@ -15006,7 +15013,7 @@
         <v>52</v>
       </c>
       <c r="I216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J216">
         <f t="shared" si="64"/>
@@ -15070,7 +15077,7 @@
         <v>12</v>
       </c>
       <c r="I217" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J217">
         <f t="shared" si="64"/>
@@ -15134,7 +15141,7 @@
         <v>30</v>
       </c>
       <c r="I218" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J218">
         <f t="shared" si="64"/>
@@ -15198,7 +15205,7 @@
         <v>38</v>
       </c>
       <c r="I219" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J219">
         <f t="shared" si="64"/>
@@ -15262,7 +15269,7 @@
         <v>44</v>
       </c>
       <c r="I220" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J220">
         <f t="shared" si="64"/>
@@ -15326,7 +15333,7 @@
         <v>8</v>
       </c>
       <c r="I221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J221">
         <f t="shared" si="64"/>
@@ -15390,7 +15397,7 @@
         <v>10</v>
       </c>
       <c r="I222" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J222">
         <f t="shared" si="64"/>
@@ -15454,7 +15461,7 @@
         <v>38</v>
       </c>
       <c r="I223" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J223">
         <f t="shared" si="64"/>
@@ -15518,7 +15525,7 @@
         <v>72</v>
       </c>
       <c r="I224" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J224">
         <f t="shared" si="64"/>
@@ -15582,7 +15589,7 @@
         <v>34</v>
       </c>
       <c r="I225" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J225">
         <f t="shared" si="64"/>
@@ -15646,7 +15653,7 @@
         <v>3</v>
       </c>
       <c r="I226" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J226">
         <f t="shared" si="64"/>
@@ -15710,7 +15717,7 @@
         <v>30</v>
       </c>
       <c r="I227" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J227">
         <f t="shared" si="64"/>
@@ -15755,11 +15762,11 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> げで[主人公の名前]を助ける </v>
+        <v xml:space="preserve"> げで君を助けることができて </v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="60"/>
-        <v>ことができてよかった。｣</v>
+        <v>よかった。｣</v>
       </c>
       <c r="F228">
         <f t="shared" si="61"/>
@@ -15771,10 +15778,10 @@
       </c>
       <c r="H228">
         <f t="shared" si="63"/>
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I228" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J228">
         <f t="shared" si="64"/>
@@ -15782,15 +15789,15 @@
       </c>
       <c r="K228">
         <f t="shared" si="65"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L228">
         <f t="shared" si="56"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M228">
         <f t="shared" si="56"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N228">
         <f t="shared" si="56"/>
@@ -15838,7 +15845,7 @@
         <v>55</v>
       </c>
       <c r="I229" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J229">
         <f t="shared" si="64"/>
@@ -15902,7 +15909,7 @@
         <v>54</v>
       </c>
       <c r="I230" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J230">
         <f t="shared" si="64"/>
@@ -15966,7 +15973,7 @@
         <v>44</v>
       </c>
       <c r="I231" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J231">
         <f t="shared" si="64"/>
@@ -16030,7 +16037,7 @@
         <v>8</v>
       </c>
       <c r="I232" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J232">
         <f t="shared" si="64"/>
@@ -16094,7 +16101,7 @@
         <v>98</v>
       </c>
       <c r="I233" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J233">
         <f t="shared" si="64"/>
@@ -16158,7 +16165,7 @@
         <v>50</v>
       </c>
       <c r="I234" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J234">
         <f t="shared" si="64"/>
@@ -16222,7 +16229,7 @@
         <v>30</v>
       </c>
       <c r="I235" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J235">
         <f t="shared" si="64"/>
@@ -16286,7 +16293,7 @@
         <v>8</v>
       </c>
       <c r="I236" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J236">
         <f t="shared" si="64"/>
@@ -16350,7 +16357,7 @@
         <v>88</v>
       </c>
       <c r="I237" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J237">
         <f t="shared" si="64"/>
